--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_repeat TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_repeat TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4282 +417,4702 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>100.3</v>
+        <v>90.5</v>
       </c>
       <c r="B2">
-        <v>58912.76997484631</v>
+        <v>55026.33177126871</v>
       </c>
       <c r="C2">
-        <v>6549.874031284874</v>
+        <v>3311.224779827196</v>
       </c>
       <c r="D2">
-        <v>60102.36359999135</v>
+        <v>10278.38701361517</v>
       </c>
       <c r="E2">
-        <v>4549.953796137256</v>
+        <v>1816.689240445996</v>
       </c>
       <c r="F2">
-        <v>2204.40887638909</v>
+        <v>223.7404777819386</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>102.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B3">
-        <v>58985.51733473928</v>
+        <v>42224.67527839632</v>
       </c>
       <c r="C3">
-        <v>5351.910735270904</v>
+        <v>5625.43592329622</v>
       </c>
       <c r="D3">
-        <v>65862.35540341807</v>
+        <v>9304.331567631696</v>
       </c>
       <c r="E3">
-        <v>4822.222805927495</v>
+        <v>3083.904008053405</v>
       </c>
       <c r="F3">
-        <v>1437.667505793866</v>
+        <v>1542.254088621467</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>105.6</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B4">
-        <v>63278.99437781952</v>
+        <v>17624.67527839632</v>
       </c>
       <c r="C4">
-        <v>6539.391843735243</v>
+        <v>5855.43592329622</v>
       </c>
       <c r="D4">
-        <v>64728.34622325597</v>
+        <v>10594.3315676317</v>
       </c>
       <c r="E4">
-        <v>3675.564096892562</v>
+        <v>3023.904008053405</v>
       </c>
       <c r="F4">
-        <v>1436.117170727215</v>
+        <v>1342.254088621467</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>108.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B5">
-        <v>59979.38131529544</v>
+        <v>14624.67527839632</v>
       </c>
       <c r="C5">
-        <v>5425.354420359024</v>
+        <v>7205.43592329622</v>
       </c>
       <c r="D5">
-        <v>60696.33671523094</v>
+        <v>11394.3315676317</v>
       </c>
       <c r="E5">
-        <v>3062.596148249233</v>
+        <v>3323.904008053405</v>
       </c>
       <c r="F5">
-        <v>1496.297180836759</v>
+        <v>1682.254088621467</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>111.2</v>
+        <v>90.5</v>
       </c>
       <c r="B6">
-        <v>48365.94846397985</v>
+        <v>18226.33177126871</v>
       </c>
       <c r="C6">
-        <v>3724.354060663935</v>
+        <v>6371.224779827196</v>
       </c>
       <c r="D6">
-        <v>54700.32786293179</v>
+        <v>12598.38701361517</v>
       </c>
       <c r="E6">
-        <v>3092.246678822695</v>
+        <v>4416.689240445996</v>
       </c>
       <c r="F6">
-        <v>1303.016500593918</v>
+        <v>1323.740477781939</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>113.8</v>
+        <v>90.5</v>
       </c>
       <c r="B7">
-        <v>50245.60571826853</v>
+        <v>25126.33177126871</v>
       </c>
       <c r="C7">
-        <v>3954.872232809407</v>
+        <v>6531.224779827196</v>
       </c>
       <c r="D7">
-        <v>46952.31933849555</v>
+        <v>11508.38701361517</v>
       </c>
       <c r="E7">
-        <v>2698.206449004546</v>
+        <v>3596.689240445996</v>
       </c>
       <c r="F7">
-        <v>1188.005475174885</v>
+        <v>2133.740477781938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>116.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B8">
-        <v>47018.35307816163</v>
+        <v>21124.67527839632</v>
       </c>
       <c r="C8">
-        <v>4776.908936795438</v>
+        <v>7755.43592329622</v>
       </c>
       <c r="D8">
-        <v>40952.31114192227</v>
+        <v>12894.3315676317</v>
       </c>
       <c r="E8">
-        <v>1270.475458794785</v>
+        <v>3243.904008053405</v>
       </c>
       <c r="F8">
-        <v>1321.264104579665</v>
+        <v>2422.254088621467</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>119</v>
+        <v>90.5</v>
       </c>
       <c r="B9">
-        <v>38304.92022684602</v>
+        <v>18626.33177126871</v>
       </c>
       <c r="C9">
-        <v>4275.908577100336</v>
+        <v>7571.224779827196</v>
       </c>
       <c r="D9">
-        <v>33086.30228962311</v>
+        <v>10338.38701361517</v>
       </c>
       <c r="E9">
-        <v>1790.125989368239</v>
+        <v>3496.689240445996</v>
       </c>
       <c r="F9">
-        <v>1537.983424336823</v>
+        <v>1913.740477781939</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>121.2</v>
+        <v>90.5</v>
       </c>
       <c r="B10">
-        <v>38056.93790355187</v>
+        <v>12026.33177126871</v>
       </c>
       <c r="C10">
-        <v>2772.500876608027</v>
+        <v>8011.224779827196</v>
       </c>
       <c r="D10">
-        <v>29150.29507663861</v>
+        <v>12498.38701361517</v>
       </c>
       <c r="E10">
-        <v>2881.322717983649</v>
+        <v>4306.689240445996</v>
       </c>
       <c r="F10">
-        <v>1436.051018213026</v>
+        <v>1753.740477781939</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>123.4</v>
+        <v>90.5</v>
       </c>
       <c r="B11">
-        <v>20808.95558025772</v>
+        <v>11126.33177126871</v>
       </c>
       <c r="C11">
-        <v>3329.093176115734</v>
+        <v>9541.224779827196</v>
       </c>
       <c r="D11">
-        <v>26924.28786365411</v>
+        <v>10888.38701361517</v>
       </c>
       <c r="E11">
-        <v>2042.51944659906</v>
+        <v>3436.689240445996</v>
       </c>
       <c r="F11">
-        <v>1294.118612089233</v>
+        <v>2163.740477781938</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>125.5</v>
+        <v>90.5</v>
       </c>
       <c r="B12">
-        <v>18254.06336256785</v>
+        <v>13426.33177126871</v>
       </c>
       <c r="C12">
-        <v>2647.204007463999</v>
+        <v>10781.2247798272</v>
       </c>
       <c r="D12">
-        <v>23996.28097853255</v>
+        <v>11748.38701361517</v>
       </c>
       <c r="E12">
-        <v>2230.025414822858</v>
+        <v>4256.689240445996</v>
       </c>
       <c r="F12">
-        <v>1190.455860789245</v>
+        <v>1493.740477781939</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>127.9</v>
+        <v>90.5</v>
       </c>
       <c r="B13">
-        <v>26819.90082806512</v>
+        <v>9026.331771268713</v>
       </c>
       <c r="C13">
-        <v>4670.759243290588</v>
+        <v>10311.2247798272</v>
       </c>
       <c r="D13">
-        <v>23284.27310982218</v>
+        <v>11938.38701361517</v>
       </c>
       <c r="E13">
-        <v>2218.603664221485</v>
+        <v>4916.689240445996</v>
       </c>
       <c r="F13">
-        <v>1751.98414501783</v>
+        <v>1833.740477781939</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>130.1</v>
+        <v>90.5</v>
       </c>
       <c r="B14">
-        <v>11671.91850477096</v>
+        <v>9326.331771268713</v>
       </c>
       <c r="C14">
-        <v>3277.35154279828</v>
+        <v>9911.224779827196</v>
       </c>
       <c r="D14">
-        <v>21788.26589683768</v>
+        <v>11278.38701361517</v>
       </c>
       <c r="E14">
-        <v>2309.800392836902</v>
+        <v>4416.689240445996</v>
       </c>
       <c r="F14">
-        <v>870.0517388940366</v>
+        <v>1953.740477781939</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>132.2</v>
+        <v>90.5</v>
       </c>
       <c r="B15">
-        <v>15817.0262870811</v>
+        <v>11626.33177126871</v>
       </c>
       <c r="C15">
-        <v>3455.462374146546</v>
+        <v>10371.2247798272</v>
       </c>
       <c r="D15">
-        <v>22210.25901171612</v>
+        <v>13378.38701361517</v>
       </c>
       <c r="E15">
-        <v>2057.306361060701</v>
+        <v>3216.689240445996</v>
       </c>
       <c r="F15">
-        <v>996.3889875940487</v>
+        <v>1613.740477781939</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>134.4</v>
+        <v>90.7</v>
       </c>
       <c r="B16">
-        <v>21269.04396378696</v>
+        <v>8329.644757013404</v>
       </c>
       <c r="C16">
-        <v>5382.054673654237</v>
+        <v>11822.80249288912</v>
       </c>
       <c r="D16">
-        <v>19964.25179873162</v>
+        <v>25456.49790558212</v>
       </c>
       <c r="E16">
-        <v>2258.503089676111</v>
+        <v>4212.259705231185</v>
       </c>
       <c r="F16">
-        <v>1284.456581470252</v>
+        <v>1796.713256102879</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>136.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="B17">
-        <v>14127.97153488851</v>
+        <v>17732.95774275809</v>
       </c>
       <c r="C17">
-        <v>4227.128441321385</v>
+        <v>14884.38020595104</v>
       </c>
       <c r="D17">
-        <v>18090.24425788419</v>
+        <v>40354.60879754908</v>
       </c>
       <c r="E17">
-        <v>2723.390578683126</v>
+        <v>6847.830170016376</v>
       </c>
       <c r="F17">
-        <v>1854.254520522646</v>
+        <v>6619.686034423822</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>139.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="B18">
-        <v>13000.71889478149</v>
+        <v>27544.55319286455</v>
       </c>
       <c r="C18">
-        <v>4739.165145307416</v>
+        <v>23144.90220166781</v>
       </c>
       <c r="D18">
-        <v>16730.23606131088</v>
+        <v>52112.99691943337</v>
       </c>
       <c r="E18">
-        <v>2775.659588473372</v>
+        <v>5037.326796764532</v>
       </c>
       <c r="F18">
-        <v>1257.513149927426</v>
+        <v>4790.090758547118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>141.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B19">
-        <v>18052.73657148733</v>
+        <v>32857.80513584331</v>
       </c>
       <c r="C19">
-        <v>4495.757444815107</v>
+        <v>27821.21305391552</v>
       </c>
       <c r="D19">
-        <v>16744.22884832638</v>
+        <v>51655.44048730117</v>
       </c>
       <c r="E19">
-        <v>2406.856317088774</v>
+        <v>5689.608655905284</v>
       </c>
       <c r="F19">
-        <v>2455.580743803629</v>
+        <v>3511.981871830884</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>143.7</v>
+        <v>93.7</v>
       </c>
       <c r="B20">
-        <v>11411.66414258889</v>
+        <v>46079.33954318383</v>
       </c>
       <c r="C20">
-        <v>5580.831212482255</v>
+        <v>20996.46818881807</v>
       </c>
       <c r="D20">
-        <v>14910.22130747894</v>
+        <v>64298.16128508629</v>
       </c>
       <c r="E20">
-        <v>3081.743806095797</v>
+        <v>7745.816677009001</v>
       </c>
       <c r="F20">
-        <v>2975.378682856026</v>
+        <v>2511.304930917006</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>145.9</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="B21">
-        <v>7563.681819294739</v>
+        <v>55907.49992201374</v>
       </c>
       <c r="C21">
-        <v>5957.423511989947</v>
+        <v>18124.87874984447</v>
       </c>
       <c r="D21">
-        <v>14324.21409449444</v>
+        <v>83547.10386680535</v>
       </c>
       <c r="E21">
-        <v>3722.940534711207</v>
+        <v>7583.1656276831</v>
       </c>
       <c r="F21">
-        <v>2683.446276732229</v>
+        <v>2756.573546645012</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>148.5</v>
+        <v>97.5</v>
       </c>
       <c r="B22">
-        <v>2643.339073583542</v>
+        <v>48242.28627233302</v>
       </c>
       <c r="C22">
-        <v>5567.941684135418</v>
+        <v>17286.44473699472</v>
       </c>
       <c r="D22">
-        <v>13046.20557005822</v>
+        <v>89582.26823245829</v>
       </c>
       <c r="E22">
-        <v>3488.900304893057</v>
+        <v>7171.655507927569</v>
       </c>
       <c r="F22">
-        <v>3828.435251313197</v>
+        <v>1987.787719014898</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>150.8</v>
+        <v>100.3</v>
       </c>
       <c r="B23">
-        <v>11602.2666446851</v>
+        <v>63388.66807275887</v>
       </c>
       <c r="C23">
-        <v>6183.015451802565</v>
+        <v>18518.53271986173</v>
       </c>
       <c r="D23">
-        <v>11672.19802921078</v>
+        <v>96175.82071999552</v>
       </c>
       <c r="E23">
-        <v>3783.787793900072</v>
+        <v>7319.642014920195</v>
       </c>
       <c r="F23">
-        <v>6448.23319036559</v>
+        <v>2749.406615508083</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>153.1</v>
+        <v>102.8</v>
       </c>
       <c r="B24">
-        <v>9961.194215786658</v>
+        <v>63330.08039456753</v>
       </c>
       <c r="C24">
-        <v>9108.089219469713</v>
+        <v>17253.25413313586</v>
       </c>
       <c r="D24">
-        <v>13328.19048836335</v>
+        <v>101487.2068695824</v>
       </c>
       <c r="E24">
-        <v>4758.675282907094</v>
+        <v>7569.272824735044</v>
       </c>
       <c r="F24">
-        <v>9968.031129417985</v>
+        <v>1976.566344519855</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>155.3</v>
+        <v>105.6</v>
       </c>
       <c r="B25">
-        <v>11613.2118924925</v>
+        <v>67476.46219499326</v>
       </c>
       <c r="C25">
-        <v>9334.681518977404</v>
+        <v>18365.34211600286</v>
       </c>
       <c r="D25">
-        <v>13742.18327537885</v>
+        <v>99850.75935711959</v>
       </c>
       <c r="E25">
-        <v>5689.872011522504</v>
+        <v>6397.259331727671</v>
       </c>
       <c r="F25">
-        <v>15176.0987232942</v>
+        <v>1968.18524101304</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>157.7</v>
+        <v>108.5</v>
       </c>
       <c r="B26">
-        <v>19079.04935798977</v>
+        <v>64024.50048829142</v>
       </c>
       <c r="C26">
-        <v>14228.23675480399</v>
+        <v>17173.21895540085</v>
       </c>
       <c r="D26">
-        <v>15110.17540666851</v>
+        <v>95298.36729064029</v>
       </c>
       <c r="E26">
-        <v>6738.450260921138</v>
+        <v>5758.031071112893</v>
       </c>
       <c r="F26">
-        <v>21267.62700752278</v>
+        <v>2021.290526666692</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>159.9</v>
+        <v>111.2</v>
       </c>
       <c r="B27">
-        <v>22731.06703469562</v>
+        <v>52269.22579584488</v>
       </c>
       <c r="C27">
-        <v>18854.82905431169</v>
+        <v>15399.51808173689</v>
       </c>
       <c r="D27">
-        <v>17234.16819368401</v>
+        <v>88817.86433219408</v>
       </c>
       <c r="E27">
-        <v>7939.646989536541</v>
+        <v>5763.232345712932</v>
       </c>
       <c r="F27">
-        <v>25145.69460139898</v>
+        <v>1821.423033999409</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>162.2</v>
+        <v>113.8</v>
       </c>
       <c r="B28">
-        <v>25389.99460579717</v>
+        <v>54012.29461052593</v>
       </c>
       <c r="C28">
-        <v>19449.90282197883</v>
+        <v>15560.02835154198</v>
       </c>
       <c r="D28">
-        <v>16490.16065283657</v>
+        <v>80603.30592776436</v>
       </c>
       <c r="E28">
-        <v>8424.534478543563</v>
+        <v>5345.648387920376</v>
       </c>
       <c r="F28">
-        <v>18295.49254045137</v>
+        <v>1700.06915217165</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>164.8</v>
+        <v>116.3</v>
       </c>
       <c r="B29">
-        <v>31769.65186008587</v>
+        <v>50653.70693233458</v>
       </c>
       <c r="C29">
-        <v>16560.4209941243</v>
+        <v>16314.74976481609</v>
       </c>
       <c r="D29">
-        <v>12082.15212840035</v>
+        <v>74154.69207735118</v>
       </c>
       <c r="E29">
-        <v>5570.494248725413</v>
+        <v>3895.279197735218</v>
       </c>
       <c r="F29">
-        <v>10110.48151503234</v>
+        <v>1827.228881183423</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="B30">
-        <v>15421.66953679171</v>
+        <v>41798.43223988805</v>
       </c>
       <c r="C30">
-        <v>16167.013293632</v>
+        <v>15741.04889115215</v>
       </c>
       <c r="D30">
-        <v>9476.144915415854</v>
+        <v>65804.18911890496</v>
       </c>
       <c r="E30">
-        <v>4121.690977340823</v>
+        <v>4390.48047233525</v>
       </c>
       <c r="F30">
-        <v>7348.549108908552</v>
+        <v>2037.361388516135</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>169.3</v>
+        <v>121.2</v>
       </c>
       <c r="B31">
-        <v>15480.59710789327</v>
+        <v>41434.87508307972</v>
       </c>
       <c r="C31">
-        <v>16132.08706129914</v>
+        <v>14178.40373483337</v>
       </c>
       <c r="D31">
-        <v>6742.137374568418</v>
+        <v>61473.40893054137</v>
       </c>
       <c r="E31">
-        <v>4356.578466347838</v>
+        <v>5461.755584972322</v>
       </c>
       <c r="F31">
-        <v>6718.347047960945</v>
+        <v>1930.061950046492</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>171.6</v>
+        <v>123.4</v>
       </c>
       <c r="B32">
-        <v>17039.52467899483</v>
+        <v>24071.3179262714</v>
       </c>
       <c r="C32">
-        <v>17767.16082896628</v>
+        <v>14675.75857851459</v>
       </c>
       <c r="D32">
-        <v>6138.129833720981</v>
+        <v>58852.62874217775</v>
       </c>
       <c r="E32">
-        <v>4981.465955354861</v>
+        <v>4603.030697609386</v>
       </c>
       <c r="F32">
-        <v>5708.144987013339</v>
+        <v>1782.762511576854</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>173.8</v>
+        <v>125.5</v>
       </c>
       <c r="B33">
-        <v>10791.54235570067</v>
+        <v>21406.10427659068</v>
       </c>
       <c r="C33">
-        <v>16323.75312847398</v>
+        <v>13937.32456566485</v>
       </c>
       <c r="D33">
-        <v>5622.122620736482</v>
+        <v>55547.79310783069</v>
       </c>
       <c r="E33">
-        <v>4012.66268397027</v>
+        <v>4771.520577853857</v>
       </c>
       <c r="F33">
-        <v>5496.212580889546</v>
+        <v>1673.976683946739</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>176.4</v>
+        <v>127.9</v>
       </c>
       <c r="B34">
-        <v>12671.19960998947</v>
+        <v>29845.86010552705</v>
       </c>
       <c r="C34">
-        <v>19644.27130061945</v>
+        <v>15896.25712240799</v>
       </c>
       <c r="D34">
-        <v>4724.114096300262</v>
+        <v>54405.12381143406</v>
       </c>
       <c r="E34">
-        <v>4198.622454152121</v>
+        <v>4738.366155276111</v>
       </c>
       <c r="F34">
-        <v>4991.201555470513</v>
+        <v>2229.65002379804</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>178.6</v>
+        <v>130.1</v>
       </c>
       <c r="B35">
-        <v>2523.217286695319</v>
+        <v>14582.30294871873</v>
       </c>
       <c r="C35">
-        <v>18570.86360012716</v>
+        <v>14443.61196608922</v>
       </c>
       <c r="D35">
-        <v>2728.106883315762</v>
+        <v>52514.34362307045</v>
       </c>
       <c r="E35">
-        <v>4389.819182767531</v>
+        <v>4809.641267913175</v>
       </c>
       <c r="F35">
-        <v>5719.269149346716</v>
+        <v>1342.350585328401</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>180.9</v>
+        <v>132.2</v>
       </c>
       <c r="B36">
-        <v>11482.14485779688</v>
+        <v>18617.08929903813</v>
       </c>
       <c r="C36">
-        <v>20735.93736779429</v>
+        <v>14565.17795323948</v>
       </c>
       <c r="D36">
-        <v>4184.099342468326</v>
+        <v>52559.50798872338</v>
       </c>
       <c r="E36">
-        <v>4924.706671774546</v>
+        <v>4538.131148157646</v>
       </c>
       <c r="F36">
-        <v>4719.067088399114</v>
+        <v>1463.564757698291</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>183.2</v>
+        <v>134.4</v>
       </c>
       <c r="B37">
-        <v>13241.07242889843</v>
+        <v>23953.53214222981</v>
       </c>
       <c r="C37">
-        <v>19401.01113546144</v>
+        <v>16432.5327969207</v>
       </c>
       <c r="D37">
-        <v>3660.091801620889</v>
+        <v>49918.72780035979</v>
       </c>
       <c r="E37">
-        <v>4159.594160781568</v>
+        <v>4719.406260794711</v>
       </c>
       <c r="F37">
-        <v>5308.865027451508</v>
+        <v>1746.265319228648</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>185.5</v>
+        <v>136.7</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>16691.63147829377</v>
       </c>
       <c r="C38">
-        <v>19776.08490312858</v>
+        <v>15215.6764971329</v>
       </c>
       <c r="D38">
-        <v>1856.084260773459</v>
+        <v>47632.00305797965</v>
       </c>
       <c r="E38">
-        <v>3734.48164978859</v>
+        <v>5163.46660582437</v>
       </c>
       <c r="F38">
-        <v>4528.662966503903</v>
+        <v>2310.452269919478</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>187.8</v>
+        <v>139.2</v>
       </c>
       <c r="B39">
-        <v>2958.927571101551</v>
+        <v>15433.04380010254</v>
       </c>
       <c r="C39">
-        <v>22311.15867079572</v>
+        <v>15660.39791040702</v>
       </c>
       <c r="D39">
-        <v>2412.076719926037</v>
+        <v>45823.3892075665</v>
       </c>
       <c r="E39">
-        <v>4949.369138795605</v>
+        <v>5193.097415639219</v>
       </c>
       <c r="F39">
-        <v>4528.460905556301</v>
+        <v>1707.61199893125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>190.3</v>
+        <v>141.4</v>
       </c>
       <c r="B40">
-        <v>9431.67493099453</v>
+        <v>20369.48664329411</v>
       </c>
       <c r="C40">
-        <v>19273.19537478175</v>
+        <v>15357.75275408824</v>
       </c>
       <c r="D40">
-        <v>1932.06852335274</v>
+        <v>45442.60901920289</v>
       </c>
       <c r="E40">
-        <v>3781.638148585843</v>
+        <v>4804.372528276284</v>
       </c>
       <c r="F40">
-        <v>4991.719534961077</v>
+        <v>2900.312560461611</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>192.6</v>
+        <v>143.7</v>
       </c>
       <c r="B41">
-        <v>2590.602502096088</v>
+        <v>13607.58597935819</v>
       </c>
       <c r="C41">
-        <v>19038.26914244889</v>
+        <v>16380.89645430043</v>
       </c>
       <c r="D41">
-        <v>1488.060982505303</v>
+        <v>43195.88427682278</v>
       </c>
       <c r="E41">
-        <v>3676.525637592866</v>
+        <v>5458.432873305944</v>
       </c>
       <c r="F41">
-        <v>4701.517474013471</v>
+        <v>3414.49951115244</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>194.9</v>
+        <v>145.9</v>
       </c>
       <c r="B42">
-        <v>4149.530073197646</v>
+        <v>9644.028822549866</v>
       </c>
       <c r="C42">
-        <v>20293.34291011604</v>
+        <v>16698.25129798165</v>
       </c>
       <c r="D42">
-        <v>464.0534416578666</v>
+        <v>42215.10408845916</v>
       </c>
       <c r="E42">
-        <v>2941.41312659988</v>
+        <v>6079.707985943009</v>
       </c>
       <c r="F42">
-        <v>4711.315413065865</v>
+        <v>3117.200072682797</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>197.2</v>
+        <v>148.5</v>
       </c>
       <c r="B43">
-        <v>9008.457644299197</v>
+        <v>4587.097637230923</v>
       </c>
       <c r="C43">
-        <v>20848.41667778317</v>
+        <v>16238.76156778673</v>
       </c>
       <c r="D43">
-        <v>2200.045900810444</v>
+        <v>40470.54568402946</v>
       </c>
       <c r="E43">
-        <v>3036.300615606902</v>
+        <v>5822.124028150445</v>
       </c>
       <c r="F43">
-        <v>4891.113352118263</v>
+        <v>4255.846190855038</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>199.4</v>
+        <v>150.8</v>
       </c>
       <c r="B44">
-        <v>12760.47532100505</v>
+        <v>13425.19697329489</v>
       </c>
       <c r="C44">
-        <v>21125.00897729088</v>
+        <v>16791.90526799893</v>
       </c>
       <c r="D44">
-        <v>674.0386878259451</v>
+        <v>38683.82094164935</v>
       </c>
       <c r="E44">
-        <v>3707.497344222313</v>
+        <v>6096.184373180105</v>
       </c>
       <c r="F44">
-        <v>4509.180945994465</v>
+        <v>6870.033141545871</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>202</v>
+        <v>153.1</v>
       </c>
       <c r="B45">
-        <v>16340.13257529386</v>
+        <v>11663.29630935897</v>
       </c>
       <c r="C45">
-        <v>21085.52714943635</v>
+        <v>19655.04896821111</v>
       </c>
       <c r="D45">
-        <v>36.03016338971065</v>
+        <v>39927.09619926922</v>
       </c>
       <c r="E45">
-        <v>3463.457114404163</v>
+        <v>7050.244718209764</v>
       </c>
       <c r="F45">
-        <v>4434.169920575437</v>
+        <v>10384.2200922367</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>204.3</v>
+        <v>155.3</v>
       </c>
       <c r="B46">
-        <v>19899.06014639541</v>
+        <v>13199.73915255065</v>
       </c>
       <c r="C46">
-        <v>22830.60091710348</v>
+        <v>19822.40381189233</v>
       </c>
       <c r="D46">
-        <v>1532.022622542296</v>
+        <v>39946.31601090563</v>
       </c>
       <c r="E46">
-        <v>3768.344603411178</v>
+        <v>7961.519830846835</v>
       </c>
       <c r="F46">
-        <v>5153.967859627831</v>
+        <v>15586.92065376706</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>206.6</v>
+        <v>157.7</v>
       </c>
       <c r="B47">
-        <v>29857.98771749697</v>
+        <v>20539.49498148702</v>
       </c>
       <c r="C47">
-        <v>22945.67468477063</v>
+        <v>24651.3363686355</v>
       </c>
       <c r="D47">
-        <v>2418.015081694859</v>
+        <v>40883.646714509</v>
       </c>
       <c r="E47">
-        <v>3383.2320924182</v>
+        <v>8988.365408269083</v>
       </c>
       <c r="F47">
-        <v>4703.765798680224</v>
+        <v>21672.59399361836</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>208.9</v>
+        <v>159.9</v>
       </c>
       <c r="B48">
-        <v>44616.91528859852</v>
+        <v>24075.9378246787</v>
       </c>
       <c r="C48">
-        <v>22340.74845243776</v>
+        <v>29218.69121231672</v>
       </c>
       <c r="D48">
-        <v>2494.007540847422</v>
+        <v>42612.86652614539</v>
       </c>
       <c r="E48">
-        <v>3798.119581425222</v>
+        <v>10169.64052090615</v>
       </c>
       <c r="F48">
-        <v>4893.563737732618</v>
+        <v>25545.29455514872</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>211.2</v>
+        <v>162.2</v>
       </c>
       <c r="B49">
-        <v>69975.84285970009</v>
+        <v>26614.03716074266</v>
       </c>
       <c r="C49">
-        <v>22055.82222010491</v>
+        <v>29751.83491252891</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>41456.14178376527</v>
       </c>
       <c r="E49">
-        <v>4103.007070432244</v>
+        <v>10633.70086593581</v>
       </c>
       <c r="F49">
-        <v>5053.361676785013</v>
+        <v>18689.48150583954</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>213.4</v>
+        <v>164.8</v>
       </c>
       <c r="B50">
-        <v>95427.86053640593</v>
+        <v>32857.10597542373</v>
       </c>
       <c r="C50">
-        <v>23502.41451961262</v>
+        <v>26792.34518233398</v>
       </c>
       <c r="D50">
-        <v>2793.992787015501</v>
+        <v>36581.58337933557</v>
       </c>
       <c r="E50">
-        <v>4204.203799047647</v>
+        <v>7756.116908143251</v>
       </c>
       <c r="F50">
-        <v>4641.42927066122</v>
+        <v>10498.12762401179</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="B51">
-        <v>121607.5177906946</v>
+        <v>16393.54881861541</v>
       </c>
       <c r="C51">
-        <v>23172.93269175809</v>
+        <v>26339.70002601521</v>
       </c>
       <c r="D51">
-        <v>3425.984262579266</v>
+        <v>33580.80319097196</v>
       </c>
       <c r="E51">
-        <v>4730.163569229498</v>
+        <v>6287.392020780317</v>
       </c>
       <c r="F51">
-        <v>4546.418245242186</v>
+        <v>7730.828185542152</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>218.3</v>
+        <v>169.3</v>
       </c>
       <c r="B52">
-        <v>158566.4453617962</v>
+        <v>16331.64815467949</v>
       </c>
       <c r="C52">
-        <v>24218.00645942522</v>
+        <v>26242.84372622739</v>
       </c>
       <c r="D52">
-        <v>3251.976721731844</v>
+        <v>30434.07844859184</v>
       </c>
       <c r="E52">
-        <v>3565.05105823652</v>
+        <v>6501.452365809976</v>
       </c>
       <c r="F52">
-        <v>5246.216184294584</v>
+        <v>7095.015136232981</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>220.6</v>
+        <v>171.6</v>
       </c>
       <c r="B53">
-        <v>177725.3729328977</v>
+        <v>17769.74749074345</v>
       </c>
       <c r="C53">
-        <v>23533.08022709235</v>
+        <v>27815.98742643959</v>
       </c>
       <c r="D53">
-        <v>3617.969180884407</v>
+        <v>29417.35370621171</v>
       </c>
       <c r="E53">
-        <v>4369.938547243542</v>
+        <v>7105.512710839635</v>
       </c>
       <c r="F53">
-        <v>4916.014123346979</v>
+        <v>6079.20208692381</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>222.8</v>
+        <v>173.8</v>
       </c>
       <c r="B54">
-        <v>206677.3906096036</v>
+        <v>11406.19033393514</v>
       </c>
       <c r="C54">
-        <v>22289.67252660006</v>
+        <v>26313.34227012081</v>
       </c>
       <c r="D54">
-        <v>3541.961967899908</v>
+        <v>28506.57351784812</v>
       </c>
       <c r="E54">
-        <v>3501.135275858945</v>
+        <v>6116.7878234767</v>
       </c>
       <c r="F54">
-        <v>5024.081717223182</v>
+        <v>5861.902648454171</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>225.1</v>
+        <v>176.4</v>
       </c>
       <c r="B55">
-        <v>247936.3181807053</v>
+        <v>13149.25914861619</v>
       </c>
       <c r="C55">
-        <v>24694.74629426721</v>
+        <v>29563.85253992589</v>
       </c>
       <c r="D55">
-        <v>4047.954427052471</v>
+        <v>27142.01511341842</v>
       </c>
       <c r="E55">
-        <v>3956.022764865967</v>
+        <v>6279.203865684138</v>
       </c>
       <c r="F55">
-        <v>4763.879656275576</v>
+        <v>5350.548766626412</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>227.7</v>
+        <v>178.6</v>
       </c>
       <c r="B56">
-        <v>270315.975434994</v>
+        <v>2885.701991807873</v>
       </c>
       <c r="C56">
-        <v>23765.26446641268</v>
+        <v>28431.20738360712</v>
       </c>
       <c r="D56">
-        <v>2179.945902616251</v>
+        <v>24751.23492505483</v>
       </c>
       <c r="E56">
-        <v>4341.982535047817</v>
+        <v>6450.478978321209</v>
       </c>
       <c r="F56">
-        <v>4878.868630856547</v>
+        <v>6073.249328156773</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>230</v>
+        <v>180.9</v>
       </c>
       <c r="B57">
-        <v>312974.9030060956</v>
+        <v>11723.80132787196</v>
       </c>
       <c r="C57">
-        <v>23460.33823407981</v>
+        <v>30534.3510838193</v>
       </c>
       <c r="D57">
-        <v>2255.938361768815</v>
+        <v>25794.51018267469</v>
       </c>
       <c r="E57">
-        <v>3656.870024054839</v>
+        <v>6964.539323350869</v>
       </c>
       <c r="F57">
-        <v>4598.666569908941</v>
+        <v>5067.436278847601</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>232.2</v>
+        <v>183.2</v>
       </c>
       <c r="B58">
-        <v>351926.9206828014</v>
+        <v>13361.90066393591</v>
       </c>
       <c r="C58">
-        <v>21686.93053358752</v>
+        <v>29137.4947840315</v>
       </c>
       <c r="D58">
-        <v>2959.931148784315</v>
+        <v>24857.78544029458</v>
       </c>
       <c r="E58">
-        <v>3818.066752670242</v>
+        <v>6178.599668380529</v>
       </c>
       <c r="F58">
-        <v>4736.734163785148</v>
+        <v>5651.623229538432</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>234.6</v>
+        <v>185.5</v>
       </c>
       <c r="B59">
-        <v>379092.7581482986</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>24100.48576941409</v>
+        <v>29450.6384842437</v>
       </c>
       <c r="D59">
-        <v>14847.92328007394</v>
+        <v>22641.06069791446</v>
       </c>
       <c r="E59">
-        <v>5666.645002068875</v>
+        <v>5732.660013410188</v>
       </c>
       <c r="F59">
-        <v>4588.262448013733</v>
+        <v>4865.81018022926</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>237.1</v>
+        <v>187.8</v>
       </c>
       <c r="B60">
-        <v>413565.5055081917</v>
+        <v>2838.09933606397</v>
       </c>
       <c r="C60">
-        <v>21882.52247340012</v>
+        <v>31923.78218445588</v>
       </c>
       <c r="D60">
-        <v>2057.915083500659</v>
+        <v>22784.33595553434</v>
       </c>
       <c r="E60">
-        <v>3298.914011859114</v>
+        <v>6926.720358439847</v>
       </c>
       <c r="F60">
-        <v>4141.521077418509</v>
+        <v>4859.99713092009</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>239.4</v>
+        <v>190.3</v>
       </c>
       <c r="B61">
-        <v>453024.4330792931</v>
+        <v>9179.511657872739</v>
       </c>
       <c r="C61">
-        <v>22477.59624106727</v>
+        <v>28818.50359772999</v>
       </c>
       <c r="D61">
-        <v>2913.907542653222</v>
+        <v>21855.72210512116</v>
       </c>
       <c r="E61">
-        <v>3193.801500866136</v>
+        <v>5736.35116825469</v>
       </c>
       <c r="F61">
-        <v>3651.319016470903</v>
+        <v>5317.156859931863</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>241.7</v>
+        <v>192.6</v>
       </c>
       <c r="B62">
-        <v>502683.3606503948</v>
+        <v>2217.610993936702</v>
       </c>
       <c r="C62">
-        <v>26832.67000873442</v>
+        <v>28521.64729794219</v>
       </c>
       <c r="D62">
-        <v>3149.9000018058</v>
+        <v>20998.99736274104</v>
       </c>
       <c r="E62">
-        <v>4338.688989873152</v>
+        <v>5610.411513284349</v>
       </c>
       <c r="F62">
-        <v>3931.116955523301</v>
+        <v>5021.343810622691</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>244</v>
+        <v>194.9</v>
       </c>
       <c r="B63">
-        <v>552742.2882214964</v>
+        <v>3655.710330000671</v>
       </c>
       <c r="C63">
-        <v>23097.74377640155</v>
+        <v>29714.79099815437</v>
       </c>
       <c r="D63">
-        <v>3995.892460958363</v>
+        <v>19562.27262036091</v>
       </c>
       <c r="E63">
-        <v>3113.576478880173</v>
+        <v>4854.471858314009</v>
       </c>
       <c r="F63">
-        <v>3330.914894575694</v>
+        <v>5025.530761313525</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>246.6</v>
+        <v>197.2</v>
       </c>
       <c r="B64">
-        <v>592721.9454757851</v>
+        <v>8393.809666064757</v>
       </c>
       <c r="C64">
-        <v>24678.26194854701</v>
+        <v>30207.93469836657</v>
       </c>
       <c r="D64">
-        <v>4317.883936522128</v>
+        <v>20885.54787798079</v>
       </c>
       <c r="E64">
-        <v>3719.536249062016</v>
+        <v>4928.532203343669</v>
       </c>
       <c r="F64">
-        <v>2695.903869156666</v>
+        <v>5199.717712004353</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>248.9</v>
+        <v>199.4</v>
       </c>
       <c r="B65">
-        <v>619580.8730468866</v>
+        <v>12030.25250925643</v>
       </c>
       <c r="C65">
-        <v>22953.33571621415</v>
+        <v>30425.28954204779</v>
       </c>
       <c r="D65">
-        <v>4373.876395674713</v>
+        <v>18964.76768961719</v>
       </c>
       <c r="E65">
-        <v>3184.423738069038</v>
+        <v>5579.807315980734</v>
       </c>
       <c r="F65">
-        <v>2815.70180820906</v>
+        <v>4812.418273534711</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>251.2</v>
+        <v>202</v>
       </c>
       <c r="B66">
-        <v>659739.8006179882</v>
+        <v>15473.32132393749</v>
       </c>
       <c r="C66">
-        <v>23958.4094838813</v>
+        <v>30315.79981185286</v>
       </c>
       <c r="D66">
-        <v>3289.868854827277</v>
+        <v>17860.20928518748</v>
       </c>
       <c r="E66">
-        <v>3439.31122707606</v>
+        <v>5312.223358188177</v>
       </c>
       <c r="F66">
-        <v>2715.499747261454</v>
+        <v>4731.064391706956</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>253.5</v>
+        <v>204.3</v>
       </c>
       <c r="B67">
-        <v>726198.7281890898</v>
+        <v>18911.42066000146</v>
       </c>
       <c r="C67">
-        <v>22373.48325154845</v>
+        <v>31998.94351206506</v>
       </c>
       <c r="D67">
-        <v>4695.861313979854</v>
+        <v>18943.48454280736</v>
       </c>
       <c r="E67">
-        <v>3774.198716083083</v>
+        <v>5596.283703217829</v>
       </c>
       <c r="F67">
-        <v>2685.297686313848</v>
+        <v>5445.251342397785</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>255.7</v>
+        <v>206.6</v>
       </c>
       <c r="B68">
-        <v>734050.7458657956</v>
+        <v>28749.51999606554</v>
       </c>
       <c r="C68">
-        <v>23510.07555105614</v>
+        <v>32052.08721227726</v>
       </c>
       <c r="D68">
-        <v>1379.854100995348</v>
+        <v>19416.75980042724</v>
       </c>
       <c r="E68">
-        <v>2675.395444698485</v>
+        <v>5190.344048247496</v>
       </c>
       <c r="F68">
-        <v>2043.365280190055</v>
+        <v>4989.438293088613</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>258.3</v>
+        <v>208.9</v>
       </c>
       <c r="B69">
-        <v>770630.4031200843</v>
+        <v>43387.6193321295</v>
       </c>
       <c r="C69">
-        <v>21940.5937232016</v>
+        <v>31385.23091248944</v>
       </c>
       <c r="D69">
-        <v>4751.845576559121</v>
+        <v>19080.03505804713</v>
       </c>
       <c r="E69">
-        <v>2891.355214880336</v>
+        <v>5584.404393277149</v>
       </c>
       <c r="F69">
-        <v>2188.354254771022</v>
+        <v>5173.625243779444</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>260.6</v>
+        <v>211.2</v>
       </c>
       <c r="B70">
-        <v>792389.3306911859</v>
+        <v>68625.71866819359</v>
       </c>
       <c r="C70">
-        <v>20885.66749086875</v>
+        <v>31038.37461270162</v>
       </c>
       <c r="D70">
-        <v>3607.838035711684</v>
+        <v>16173.31031566699</v>
       </c>
       <c r="E70">
-        <v>3156.242703887358</v>
+        <v>5868.464738306816</v>
       </c>
       <c r="F70">
-        <v>2218.152193823419</v>
+        <v>5327.812194470273</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>262.9</v>
+        <v>213.4</v>
       </c>
       <c r="B71">
-        <v>787248.2582622874</v>
+        <v>93962.16151138527</v>
       </c>
       <c r="C71">
-        <v>20660.7412585359</v>
+        <v>32425.72945638284</v>
       </c>
       <c r="D71">
-        <v>2703.830494864262</v>
+        <v>18572.53012730341</v>
       </c>
       <c r="E71">
-        <v>2831.13019289438</v>
+        <v>5949.739850943881</v>
       </c>
       <c r="F71">
-        <v>1897.950132875814</v>
+        <v>4910.512756000633</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>265.2</v>
+        <v>216</v>
       </c>
       <c r="B72">
-        <v>791607.1858333889</v>
+        <v>120005.2303260663</v>
       </c>
       <c r="C72">
-        <v>19805.81502620304</v>
+        <v>32026.23972618793</v>
       </c>
       <c r="D72">
-        <v>1769.822954016825</v>
+        <v>18737.9717228737</v>
       </c>
       <c r="E72">
-        <v>2856.017681901395</v>
+        <v>6452.155893151317</v>
       </c>
       <c r="F72">
-        <v>1837.748071928208</v>
+        <v>4809.158874172874</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>267.5</v>
+        <v>218.3</v>
       </c>
       <c r="B73">
-        <v>767266.1134044905</v>
+        <v>156843.3296621303</v>
       </c>
       <c r="C73">
-        <v>17720.88879387017</v>
+        <v>33009.38342640013</v>
       </c>
       <c r="D73">
-        <v>4325.815413169388</v>
+        <v>18151.24698049358</v>
       </c>
       <c r="E73">
-        <v>2240.905170908417</v>
+        <v>5266.216238180977</v>
       </c>
       <c r="F73">
-        <v>2007.546010980602</v>
+        <v>5503.345824863703</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>269.7</v>
+        <v>220.6</v>
       </c>
       <c r="B74">
-        <v>717418.1310811964</v>
+        <v>175881.4289981943</v>
       </c>
       <c r="C74">
-        <v>17947.48109337788</v>
+        <v>32262.52712661231</v>
       </c>
       <c r="D74">
-        <v>2979.808200184889</v>
+        <v>18104.52223811346</v>
       </c>
       <c r="E74">
-        <v>2792.101899523827</v>
+        <v>6050.276583210636</v>
       </c>
       <c r="F74">
-        <v>1695.613604856805</v>
+        <v>5167.532775554537</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>272.3</v>
+        <v>222.8</v>
       </c>
       <c r="B75">
-        <v>657997.788335485</v>
+        <v>204717.8718413861</v>
       </c>
       <c r="C75">
-        <v>17457.99926552334</v>
+        <v>30959.88197029353</v>
       </c>
       <c r="D75">
-        <v>3171.799675748669</v>
+        <v>17633.74204974985</v>
       </c>
       <c r="E75">
-        <v>2228.06166970567</v>
+        <v>5161.551695847701</v>
       </c>
       <c r="F75">
-        <v>1590.602579437776</v>
+        <v>5270.233337084894</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>274.6</v>
+        <v>225.1</v>
       </c>
       <c r="B76">
-        <v>598656.7159065868</v>
+        <v>245855.97117745</v>
       </c>
       <c r="C76">
-        <v>15903.07303319049</v>
+        <v>33303.02567050571</v>
       </c>
       <c r="D76">
-        <v>4527.792134901232</v>
+        <v>17727.01730736973</v>
       </c>
       <c r="E76">
-        <v>2552.949158712692</v>
+        <v>5595.61204087736</v>
       </c>
       <c r="F76">
-        <v>1720.400518490173</v>
+        <v>5004.420287775727</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>276.9</v>
+        <v>227.7</v>
       </c>
       <c r="B77">
-        <v>536515.6434776884</v>
+        <v>268099.0399921311</v>
       </c>
       <c r="C77">
-        <v>16358.14680085764</v>
+        <v>32303.53594031082</v>
       </c>
       <c r="D77">
-        <v>4623.78459405381</v>
+        <v>15392.45890294003</v>
       </c>
       <c r="E77">
-        <v>2667.836647719715</v>
+        <v>5958.028083084805</v>
       </c>
       <c r="F77">
-        <v>1250.198457542568</v>
+        <v>5113.066405947968</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>279.1</v>
+        <v>230</v>
       </c>
       <c r="B78">
-        <v>483167.6611543943</v>
+        <v>310637.1393281951</v>
       </c>
       <c r="C78">
-        <v>15994.73910036532</v>
+        <v>31936.679640523</v>
       </c>
       <c r="D78">
-        <v>3917.777381069303</v>
+        <v>15055.73416055991</v>
       </c>
       <c r="E78">
-        <v>839.0333763351246</v>
+        <v>5252.088428114464</v>
       </c>
       <c r="F78">
-        <v>1378.266051418771</v>
+        <v>4827.253356638797</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>281.7</v>
+        <v>232.2</v>
       </c>
       <c r="B79">
-        <v>435847.3184086828</v>
+        <v>349473.5821713868</v>
       </c>
       <c r="C79">
-        <v>17135.2572725108</v>
+        <v>30104.03448420422</v>
       </c>
       <c r="D79">
-        <v>4569.768856633076</v>
+        <v>15364.95397219631</v>
       </c>
       <c r="E79">
-        <v>2364.993146516975</v>
+        <v>5393.363540751529</v>
       </c>
       <c r="F79">
-        <v>1023.255025999738</v>
+        <v>4959.953918169154</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>284</v>
+        <v>234.6</v>
       </c>
       <c r="B80">
-        <v>399206.2459797845</v>
+        <v>376513.3380003232</v>
       </c>
       <c r="C80">
-        <v>15330.33104017793</v>
+        <v>32452.96704094737</v>
       </c>
       <c r="D80">
-        <v>5735.761315785639</v>
+        <v>26822.28467579968</v>
       </c>
       <c r="E80">
-        <v>2589.880635523989</v>
+        <v>7220.209118173783</v>
       </c>
       <c r="F80">
-        <v>1653.052965052132</v>
+        <v>4805.627258020455</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>286.3</v>
+        <v>237.1</v>
       </c>
       <c r="B81">
-        <v>371665.173550886</v>
+        <v>410854.7503221318</v>
       </c>
       <c r="C81">
-        <v>18615.40480784508</v>
+        <v>30167.6884542215</v>
       </c>
       <c r="D81">
-        <v>6461.753774938217</v>
+        <v>13583.6708253865</v>
       </c>
       <c r="E81">
-        <v>2204.768124531012</v>
+        <v>4829.839927988625</v>
       </c>
       <c r="F81">
-        <v>1432.85090410453</v>
+        <v>4352.786987032228</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>288.6</v>
+        <v>239.4</v>
       </c>
       <c r="B82">
-        <v>358124.1011219876</v>
+        <v>450192.8496581959</v>
       </c>
       <c r="C82">
-        <v>17630.47857551222</v>
+        <v>30700.83215443369</v>
       </c>
       <c r="D82">
-        <v>6437.746234090788</v>
+        <v>14026.94608300636</v>
       </c>
       <c r="E82">
-        <v>1569.655613538027</v>
+        <v>4703.900273018286</v>
       </c>
       <c r="F82">
-        <v>1052.648843156924</v>
+        <v>3856.973937723057</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>290.9</v>
+        <v>241.7</v>
       </c>
       <c r="B83">
-        <v>331283.0286930891</v>
+        <v>499730.9489942599</v>
       </c>
       <c r="C83">
-        <v>16485.55234317938</v>
+        <v>34993.97585464588</v>
       </c>
       <c r="D83">
-        <v>5443.738693243358</v>
+        <v>13850.22134062625</v>
       </c>
       <c r="E83">
-        <v>1024.543102545049</v>
+        <v>5827.960618047945</v>
       </c>
       <c r="F83">
-        <v>812.446782209318</v>
+        <v>4131.16088841389</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>293.5</v>
+        <v>244</v>
       </c>
       <c r="B84">
-        <v>309662.6859473778</v>
+        <v>549669.0483303239</v>
       </c>
       <c r="C84">
-        <v>19056.07051532483</v>
+        <v>31197.11955485805</v>
       </c>
       <c r="D84">
-        <v>5825.730168807131</v>
+        <v>14283.49659824611</v>
       </c>
       <c r="E84">
-        <v>1310.502872726899</v>
+        <v>4582.020963077604</v>
       </c>
       <c r="F84">
-        <v>1087.435756790289</v>
+        <v>3525.347839104719</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>295.8</v>
+        <v>246.6</v>
       </c>
       <c r="B85">
-        <v>290921.6135184794</v>
+        <v>589512.117145005</v>
       </c>
       <c r="C85">
-        <v>17011.14428299196</v>
+        <v>32707.62982466315</v>
       </c>
       <c r="D85">
-        <v>4581.722627959694</v>
+        <v>14138.93819381641</v>
       </c>
       <c r="E85">
-        <v>565.3903617339211</v>
+        <v>5164.437005285048</v>
       </c>
       <c r="F85">
-        <v>1197.233695842683</v>
+        <v>2883.99395727696</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>298</v>
+        <v>248.9</v>
       </c>
       <c r="B86">
-        <v>278773.6311951852</v>
+        <v>616250.2164810692</v>
       </c>
       <c r="C86">
-        <v>21637.73658249967</v>
+        <v>30920.77352487533</v>
       </c>
       <c r="D86">
-        <v>4955.715414975195</v>
+        <v>13782.2134514363</v>
       </c>
       <c r="E86">
-        <v>1196.587090349324</v>
+        <v>4608.497350314708</v>
       </c>
       <c r="F86">
-        <v>1165.301289718886</v>
+        <v>2998.180907967793</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>300.4</v>
+        <v>251.2</v>
       </c>
       <c r="B87">
-        <v>260439.4686606825</v>
+        <v>656288.3158171332</v>
       </c>
       <c r="C87">
-        <v>20131.29181832626</v>
+        <v>31863.91722508752</v>
       </c>
       <c r="D87">
-        <v>6693.707546264835</v>
+        <v>12285.48870905616</v>
       </c>
       <c r="E87">
-        <v>1045.165339747958</v>
+        <v>4842.557695344368</v>
       </c>
       <c r="F87">
-        <v>656.8295739474747</v>
+        <v>2892.367858658618</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>302.6</v>
+        <v>253.5</v>
       </c>
       <c r="B88">
-        <v>251191.4863373884</v>
+        <v>722626.4151531971</v>
       </c>
       <c r="C88">
-        <v>22477.88411783396</v>
+        <v>30217.06092529971</v>
       </c>
       <c r="D88">
-        <v>7217.700333280343</v>
+        <v>13278.76396667606</v>
       </c>
       <c r="E88">
-        <v>1446.362068363368</v>
+        <v>5156.618040374027</v>
       </c>
       <c r="F88">
-        <v>784.8971678236778</v>
+        <v>2856.554809349452</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>304.9</v>
+        <v>255.7</v>
       </c>
       <c r="B89">
-        <v>241250.4139084899</v>
+        <v>730362.8579963887</v>
       </c>
       <c r="C89">
-        <v>23422.95788550111</v>
+        <v>31294.41576898093</v>
       </c>
       <c r="D89">
-        <v>6343.692792432899</v>
+        <v>9567.983778312453</v>
       </c>
       <c r="E89">
-        <v>1231.24955737039</v>
+        <v>4037.893153011092</v>
       </c>
       <c r="F89">
-        <v>1064.695106876072</v>
+        <v>2209.255370879809</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>307.2</v>
+        <v>258.3</v>
       </c>
       <c r="B90">
-        <v>233009.3414795915</v>
+        <v>766805.9268110698</v>
       </c>
       <c r="C90">
-        <v>24528.03165316825</v>
+        <v>29654.92603878601</v>
       </c>
       <c r="D90">
-        <v>6899.685251585463</v>
+        <v>12473.42537388275</v>
       </c>
       <c r="E90">
-        <v>1636.137046377405</v>
+        <v>4230.309195218529</v>
       </c>
       <c r="F90">
-        <v>1104.49304592847</v>
+        <v>2347.901489052053</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>309.8</v>
+        <v>260.6</v>
       </c>
       <c r="B91">
-        <v>218988.9987338803</v>
+        <v>788444.0261471338</v>
       </c>
       <c r="C91">
-        <v>24838.5498253137</v>
+        <v>28538.06973899821</v>
       </c>
       <c r="D91">
-        <v>5921.676727149243</v>
+        <v>10916.70063150263</v>
       </c>
       <c r="E91">
-        <v>1442.096816559249</v>
+        <v>4474.369540248188</v>
       </c>
       <c r="F91">
-        <v>1099.482020509437</v>
+        <v>2372.088439742883</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>312.1</v>
+        <v>262.9</v>
       </c>
       <c r="B92">
-        <v>207447.9263049818</v>
+        <v>783182.125483198</v>
       </c>
       <c r="C92">
-        <v>26493.62359298085</v>
+        <v>28251.21343921039</v>
       </c>
       <c r="D92">
-        <v>7597.669186301806</v>
+        <v>9599.975889122506</v>
       </c>
       <c r="E92">
-        <v>1776.98430556627</v>
+        <v>4128.429885277856</v>
       </c>
       <c r="F92">
-        <v>869.279959561831</v>
+        <v>2046.275390433712</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>314.3</v>
+        <v>265.2</v>
       </c>
       <c r="B93">
-        <v>211299.9439816877</v>
+        <v>787420.2248192619</v>
       </c>
       <c r="C93">
-        <v>23820.21589248856</v>
+        <v>27334.35713942258</v>
       </c>
       <c r="D93">
-        <v>7301.661973317314</v>
+        <v>8253.251146742383</v>
       </c>
       <c r="E93">
-        <v>1328.18103418168</v>
+        <v>4132.490230307508</v>
       </c>
       <c r="F93">
-        <v>817.3475534380377</v>
+        <v>1980.462341124541</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>316.6</v>
+        <v>267.5</v>
       </c>
       <c r="B94">
-        <v>192358.8715527892</v>
+        <v>762958.3241553259</v>
       </c>
       <c r="C94">
-        <v>22025.28966015569</v>
+        <v>25187.50083963477</v>
       </c>
       <c r="D94">
-        <v>5587.654432469877</v>
+        <v>10396.52640436226</v>
       </c>
       <c r="E94">
-        <v>913.0685231887023</v>
+        <v>3496.550575337167</v>
       </c>
       <c r="F94">
-        <v>847.1454924904317</v>
+        <v>2144.64929181537</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>319.2</v>
+        <v>269.7</v>
       </c>
       <c r="B95">
-        <v>177638.5288070779</v>
+        <v>712994.7669985177</v>
       </c>
       <c r="C95">
-        <v>20485.80783230116</v>
+        <v>25354.855683316</v>
       </c>
       <c r="D95">
-        <v>4559.64590803365</v>
+        <v>8655.746215998657</v>
       </c>
       <c r="E95">
-        <v>579.028293370553</v>
+        <v>4027.825687974232</v>
       </c>
       <c r="F95">
-        <v>562.1344670713991</v>
+        <v>1827.349853345731</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>321.4</v>
+        <v>272.3</v>
       </c>
       <c r="B96">
-        <v>172690.5464837838</v>
+        <v>653437.8358131986</v>
       </c>
       <c r="C96">
-        <v>19112.40013180887</v>
+        <v>24795.36595312108</v>
       </c>
       <c r="D96">
-        <v>6883.638695049158</v>
+        <v>8381.187811568954</v>
       </c>
       <c r="E96">
-        <v>1410.225021985963</v>
+        <v>3440.241730181669</v>
       </c>
       <c r="F96">
-        <v>710.2020609476058</v>
+        <v>1715.995971517972</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>323.7</v>
+        <v>274.6</v>
       </c>
       <c r="B97">
-        <v>166549.4740548853</v>
+        <v>593975.9351492625</v>
       </c>
       <c r="C97">
-        <v>17267.473899476</v>
+        <v>23178.50965333327</v>
       </c>
       <c r="D97">
-        <v>5529.631154201721</v>
+        <v>9324.463069188831</v>
       </c>
       <c r="E97">
-        <v>835.1125109929853</v>
+        <v>3744.302075211328</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1840.182922208805</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>326</v>
+        <v>276.9</v>
       </c>
       <c r="B98">
-        <v>176608.4016259869</v>
+        <v>531714.0344853266</v>
       </c>
       <c r="C98">
-        <v>13882.54766714315</v>
+        <v>23571.65335354546</v>
       </c>
       <c r="D98">
-        <v>6865.623613354299</v>
+        <v>9007.738326808711</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>3838.362420240996</v>
       </c>
       <c r="F98">
-        <v>569.797939052394</v>
+        <v>1364.369872899634</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>328.3</v>
+        <v>279.1</v>
       </c>
       <c r="B99">
-        <v>182867.3291970885</v>
+        <v>478250.4773285182</v>
       </c>
       <c r="C99">
-        <v>14567.62143481029</v>
+        <v>23149.00819722667</v>
       </c>
       <c r="D99">
-        <v>9271.616072506862</v>
+        <v>7906.958138445118</v>
       </c>
       <c r="E99">
-        <v>634.8874890070147</v>
+        <v>1989.637532878056</v>
       </c>
       <c r="F99">
-        <v>519.5958781047916</v>
+        <v>1487.070434429992</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>330.6</v>
+        <v>281.7</v>
       </c>
       <c r="B100">
-        <v>173526.25676819</v>
+        <v>430793.5461431994</v>
       </c>
       <c r="C100">
-        <v>13922.69520247743</v>
+        <v>24219.51846703177</v>
       </c>
       <c r="D100">
-        <v>9027.60853165944</v>
+        <v>8092.399734015419</v>
       </c>
       <c r="E100">
-        <v>789.7749780140366</v>
+        <v>3492.053575085497</v>
       </c>
       <c r="F100">
-        <v>659.3938171571858</v>
+        <v>1125.716552602236</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>332.9</v>
+        <v>284</v>
       </c>
       <c r="B101">
-        <v>171285.1843392917</v>
+        <v>394031.6454792634</v>
       </c>
       <c r="C101">
-        <v>14037.76897014458</v>
+        <v>22352.66216724395</v>
       </c>
       <c r="D101">
-        <v>8003.600990812003</v>
+        <v>8845.674991635282</v>
       </c>
       <c r="E101">
-        <v>14.66246702105946</v>
+        <v>3696.113920115156</v>
       </c>
       <c r="F101">
-        <v>709.19175620958</v>
+        <v>1749.903503293065</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>335.4</v>
+        <v>286.3</v>
       </c>
       <c r="B102">
-        <v>175757.9316991846</v>
+        <v>366369.7448153275</v>
       </c>
       <c r="C102">
-        <v>12459.8056741306</v>
+        <v>25575.80586745614</v>
       </c>
       <c r="D102">
-        <v>6253.592794238706</v>
+        <v>9158.950249255173</v>
       </c>
       <c r="E102">
-        <v>36.93147681129722</v>
+        <v>3290.174265144816</v>
       </c>
       <c r="F102">
-        <v>1112.45038561436</v>
+        <v>1524.090453983895</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>337.7</v>
+        <v>288.6</v>
       </c>
       <c r="B103">
-        <v>175316.8592702862</v>
+        <v>352707.8441513914</v>
       </c>
       <c r="C103">
-        <v>12394.87944179774</v>
+        <v>24528.94956766832</v>
       </c>
       <c r="D103">
-        <v>8399.585253391284</v>
+        <v>8722.225506875035</v>
       </c>
       <c r="E103">
-        <v>781.8189658183123</v>
+        <v>2634.234610174475</v>
       </c>
       <c r="F103">
-        <v>92.24832466675389</v>
+        <v>1138.277404674724</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>340</v>
+        <v>290.9</v>
       </c>
       <c r="B104">
-        <v>181275.7868413878</v>
+        <v>325745.9434874555</v>
       </c>
       <c r="C104">
-        <v>13179.95320946489</v>
+        <v>23322.09326788053</v>
       </c>
       <c r="D104">
-        <v>8355.577712543847</v>
+        <v>7315.500764494928</v>
       </c>
       <c r="E104">
-        <v>786.7064548253343</v>
+        <v>2068.294955204139</v>
       </c>
       <c r="F104">
-        <v>372.0462637191479</v>
+        <v>892.4643553655567</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>342.3</v>
+        <v>293.5</v>
       </c>
       <c r="B105">
-        <v>180334.7144124893</v>
+        <v>303989.0123021366</v>
       </c>
       <c r="C105">
-        <v>13495.02697713202</v>
+        <v>25822.6035376856</v>
       </c>
       <c r="D105">
-        <v>7351.570171696418</v>
+        <v>7230.942360065222</v>
       </c>
       <c r="E105">
-        <v>271.5939438323562</v>
+        <v>2330.710997411576</v>
       </c>
       <c r="F105">
-        <v>151.8442027715421</v>
+        <v>1161.110473537798</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>344.6</v>
+        <v>295.8</v>
       </c>
       <c r="B106">
-        <v>165993.6419835909</v>
+        <v>285127.1116382005</v>
       </c>
       <c r="C106">
-        <v>13180.10074479915</v>
+        <v>23715.74723789779</v>
       </c>
       <c r="D106">
-        <v>10007.56263084898</v>
+        <v>5574.217617685083</v>
       </c>
       <c r="E106">
-        <v>1506.481432839378</v>
+        <v>1564.771342441235</v>
       </c>
       <c r="F106">
-        <v>631.6421418239397</v>
+        <v>1265.297424228627</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>346.9</v>
+        <v>298</v>
       </c>
       <c r="B107">
-        <v>172552.5695546924</v>
+        <v>272863.5544813922</v>
       </c>
       <c r="C107">
-        <v>14375.1745124663</v>
+        <v>28283.10208157901</v>
       </c>
       <c r="D107">
-        <v>9453.555090001551</v>
+        <v>5553.4374293215</v>
       </c>
       <c r="E107">
-        <v>361.3689218464006</v>
+        <v>2176.0464550783</v>
       </c>
       <c r="F107">
-        <v>521.4400808763339</v>
+        <v>1227.997985758984</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>349.4</v>
+        <v>300.4</v>
       </c>
       <c r="B108">
-        <v>171625.3169145854</v>
+        <v>254403.3103103286</v>
       </c>
       <c r="C108">
-        <v>15277.21121645234</v>
+        <v>26712.03463832218</v>
       </c>
       <c r="D108">
-        <v>10293.54689342825</v>
+        <v>6860.768132924854</v>
       </c>
       <c r="E108">
-        <v>1553.637931636632</v>
+        <v>2002.892032500555</v>
       </c>
       <c r="F108">
-        <v>664.6987102811102</v>
+        <v>713.6713256102853</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>351.7</v>
+        <v>302.6</v>
       </c>
       <c r="B109">
-        <v>174084.244485687</v>
+        <v>245039.7531535202</v>
       </c>
       <c r="C109">
-        <v>14112.28498411948</v>
+        <v>28999.38948200339</v>
       </c>
       <c r="D109">
-        <v>10429.53935258082</v>
+        <v>6989.987944561249</v>
       </c>
       <c r="E109">
-        <v>788.5254206436539</v>
+        <v>2384.167145137619</v>
       </c>
       <c r="F109">
-        <v>494.4966493335078</v>
+        <v>836.3718871406461</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>354</v>
+        <v>304.9</v>
       </c>
       <c r="B110">
-        <v>169843.1720567886</v>
+        <v>234977.8524895844</v>
       </c>
       <c r="C110">
-        <v>13457.35875178663</v>
+        <v>29882.53318221559</v>
       </c>
       <c r="D110">
-        <v>10925.53181173339</v>
+        <v>5703.263202181132</v>
       </c>
       <c r="E110">
-        <v>3.412909650675829</v>
+        <v>2148.227490167279</v>
       </c>
       <c r="F110">
-        <v>864.294588385902</v>
+        <v>1110.558837831476</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>356.3</v>
+        <v>307.2</v>
       </c>
       <c r="B111">
-        <v>174402.0996278902</v>
+        <v>226615.9518256483</v>
       </c>
       <c r="C111">
-        <v>13562.43251945376</v>
+        <v>30925.67688242777</v>
       </c>
       <c r="D111">
-        <v>11181.52427088597</v>
+        <v>5846.538459801005</v>
       </c>
       <c r="E111">
-        <v>1048.30039865769</v>
+        <v>2532.287835196942</v>
       </c>
       <c r="F111">
-        <v>744.092527438296</v>
+        <v>1144.745788522305</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>358.9</v>
+        <v>309.8</v>
       </c>
       <c r="B112">
-        <v>183081.7568821789</v>
+        <v>212459.0206403294</v>
       </c>
       <c r="C112">
-        <v>13792.95069159924</v>
+        <v>31166.18715223285</v>
       </c>
       <c r="D112">
-        <v>11323.51574644972</v>
+        <v>4401.980055371302</v>
       </c>
       <c r="E112">
-        <v>2414.260168839541</v>
+        <v>2314.703877404379</v>
       </c>
       <c r="F112">
-        <v>899.0815020192633</v>
+        <v>1133.391906694549</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>360.8</v>
+        <v>312.1</v>
       </c>
       <c r="B113">
-        <v>183813.0448756976</v>
+        <v>200797.1199763935</v>
       </c>
       <c r="C113">
-        <v>14324.0985866286</v>
+        <v>32759.33085244504</v>
       </c>
       <c r="D113">
-        <v>13461.50951705403</v>
+        <v>5665.255312991178</v>
       </c>
       <c r="E113">
-        <v>3794.384616280123</v>
+        <v>2628.764222434038</v>
       </c>
       <c r="F113">
-        <v>341.9580603668967</v>
+        <v>897.5788573853783</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>363.4</v>
+        <v>314.3</v>
       </c>
       <c r="B114">
-        <v>180292.7021299863</v>
+        <v>204533.5628195851</v>
       </c>
       <c r="C114">
-        <v>14784.61675877407</v>
+        <v>30026.68569612627</v>
       </c>
       <c r="D114">
-        <v>14143.50099261781</v>
+        <v>4974.475124627576</v>
       </c>
       <c r="E114">
-        <v>2350.344386461973</v>
+        <v>2160.039335071103</v>
       </c>
       <c r="F114">
-        <v>946.947034947864</v>
+        <v>840.2794189157357</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>365.7</v>
+        <v>316.6</v>
       </c>
       <c r="B115">
-        <v>182451.6297010879</v>
+        <v>185471.6621556491</v>
       </c>
       <c r="C115">
-        <v>13919.69052644122</v>
+        <v>28169.82939633846</v>
       </c>
       <c r="D115">
-        <v>15409.49345177037</v>
+        <v>2847.750382247453</v>
       </c>
       <c r="E115">
-        <v>4155.231875468995</v>
+        <v>1724.099680100762</v>
       </c>
       <c r="F115">
-        <v>636.7449740002619</v>
+        <v>864.4663696065686</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>368</v>
+        <v>319.2</v>
       </c>
       <c r="B116">
-        <v>191310.5572721894</v>
+        <v>170614.7309703301</v>
       </c>
       <c r="C116">
-        <v>15864.76429410835</v>
+        <v>26560.33966614354</v>
       </c>
       <c r="D116">
-        <v>16615.48591092294</v>
+        <v>1353.191977817754</v>
       </c>
       <c r="E116">
-        <v>3840.11936447601</v>
+        <v>1366.515722308203</v>
       </c>
       <c r="F116">
-        <v>946.5429130526559</v>
+        <v>573.1124877788097</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>370.6</v>
+        <v>321.4</v>
       </c>
       <c r="B117">
-        <v>196590.2145264781</v>
+        <v>165551.1738135219</v>
       </c>
       <c r="C117">
-        <v>15455.28246625381</v>
+        <v>25127.69450982477</v>
       </c>
       <c r="D117">
-        <v>17367.47738648672</v>
+        <v>3282.41178945417</v>
       </c>
       <c r="E117">
-        <v>4966.079134657854</v>
+        <v>2177.790834945272</v>
       </c>
       <c r="F117">
-        <v>641.531887633623</v>
+        <v>715.8130493091708</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>372.9</v>
+        <v>323.7</v>
       </c>
       <c r="B118">
-        <v>197349.1420975798</v>
+        <v>159289.2731495859</v>
       </c>
       <c r="C118">
-        <v>15170.35623392096</v>
+        <v>23220.83821003696</v>
       </c>
       <c r="D118">
-        <v>19193.46984563929</v>
+        <v>1515.687047074047</v>
       </c>
       <c r="E118">
-        <v>6350.966623664875</v>
+        <v>1581.851179974931</v>
       </c>
       <c r="F118">
-        <v>631.3298266860174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>375.1</v>
+        <v>326</v>
       </c>
       <c r="B119">
-        <v>194801.1597742856</v>
+        <v>169227.3724856499</v>
       </c>
       <c r="C119">
-        <v>13786.94853342866</v>
+        <v>19773.98191024915</v>
       </c>
       <c r="D119">
-        <v>20637.46263265479</v>
+        <v>2438.962304693919</v>
       </c>
       <c r="E119">
-        <v>7152.163352280286</v>
+        <v>725.9115250045868</v>
       </c>
       <c r="F119">
-        <v>809.3974205622239</v>
+        <v>564.186950690829</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>377.4</v>
+        <v>328.3</v>
       </c>
       <c r="B120">
-        <v>202960.0873453872</v>
+        <v>175365.471821714</v>
       </c>
       <c r="C120">
-        <v>14522.02230109581</v>
+        <v>20397.12561046133</v>
       </c>
       <c r="D120">
-        <v>23603.45509180736</v>
+        <v>4432.237562313795</v>
       </c>
       <c r="E120">
-        <v>9537.050841287308</v>
+        <v>1339.971870034246</v>
       </c>
       <c r="F120">
-        <v>729.1953596146182</v>
+        <v>508.3739013816582</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>379.7</v>
+        <v>330.6</v>
       </c>
       <c r="B121">
-        <v>202619.0149164887</v>
+        <v>165903.5711577779</v>
       </c>
       <c r="C121">
-        <v>12317.09606876296</v>
+        <v>19690.26931067351</v>
       </c>
       <c r="D121">
-        <v>23449.44755095992</v>
+        <v>3775.512819933671</v>
       </c>
       <c r="E121">
-        <v>10521.93833029432</v>
+        <v>1474.032215063906</v>
       </c>
       <c r="F121">
-        <v>508.9932986670158</v>
+        <v>642.5608520724875</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>382.3</v>
+        <v>332.9</v>
       </c>
       <c r="B122">
-        <v>195898.6721707774</v>
+        <v>163541.6704938419</v>
       </c>
       <c r="C122">
-        <v>12027.6142409084</v>
+        <v>19743.41301088571</v>
       </c>
       <c r="D122">
-        <v>26211.43902652371</v>
+        <v>2338.788077553551</v>
       </c>
       <c r="E122">
-        <v>12077.89810047617</v>
+        <v>678.0925600935659</v>
       </c>
       <c r="F122">
-        <v>793.9822732479829</v>
+        <v>686.7478027633204</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>384.6</v>
+        <v>335.4</v>
       </c>
       <c r="B123">
-        <v>205357.599741879</v>
+        <v>167883.0828156507</v>
       </c>
       <c r="C123">
-        <v>11672.68800857555</v>
+        <v>18098.13442415984</v>
       </c>
       <c r="D123">
-        <v>30837.43148567627</v>
+        <v>140.1742271403746</v>
       </c>
       <c r="E123">
-        <v>14572.7855894832</v>
+        <v>677.7233699084152</v>
       </c>
       <c r="F123">
-        <v>933.7802123003771</v>
+        <v>1083.90753177509</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>386.8</v>
+        <v>337.7</v>
       </c>
       <c r="B124">
-        <v>232809.6174185849</v>
+        <v>167321.1821517147</v>
       </c>
       <c r="C124">
-        <v>14159.28030808326</v>
+        <v>17971.27812437202</v>
       </c>
       <c r="D124">
-        <v>34701.42427269177</v>
+        <v>1873.449484760246</v>
       </c>
       <c r="E124">
-        <v>18123.98231809859</v>
+        <v>1401.783714938071</v>
       </c>
       <c r="F124">
-        <v>971.8478061765802</v>
+        <v>58.09448246592228</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>389.1</v>
+        <v>340</v>
       </c>
       <c r="B125">
-        <v>239468.5449896864</v>
+        <v>173159.2814877787</v>
       </c>
       <c r="C125">
-        <v>12944.3540757504</v>
+        <v>18694.4218245842</v>
       </c>
       <c r="D125">
-        <v>38347.41673184434</v>
+        <v>1416.724742380124</v>
       </c>
       <c r="E125">
-        <v>21758.86980710562</v>
+        <v>1385.84405996773</v>
       </c>
       <c r="F125">
-        <v>671.6457452289778</v>
+        <v>332.2814331567515</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>391.4</v>
+        <v>342.3</v>
       </c>
       <c r="B126">
-        <v>250527.472560788</v>
+        <v>172097.3808238427</v>
       </c>
       <c r="C126">
-        <v>13019.42784341755</v>
+        <v>18947.56552479639</v>
       </c>
       <c r="D126">
-        <v>44883.4091909969</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>26273.75729611264</v>
+        <v>849.9044049973897</v>
       </c>
       <c r="F126">
-        <v>321.443684281372</v>
+        <v>106.4683838475808</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>394</v>
+        <v>344.6</v>
       </c>
       <c r="B127">
-        <v>277507.1298150766</v>
+        <v>157635.4801599068</v>
       </c>
       <c r="C127">
-        <v>14479.94601556301</v>
+        <v>18570.70922500858</v>
       </c>
       <c r="D127">
-        <v>48455.40066656069</v>
+        <v>2243.275257619875</v>
       </c>
       <c r="E127">
-        <v>32749.71706629449</v>
+        <v>2063.964750027049</v>
       </c>
       <c r="F127">
-        <v>776.4326588623428</v>
+        <v>580.6553345384098</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>395.9</v>
+        <v>346.9</v>
       </c>
       <c r="B128">
-        <v>301438.4178085953</v>
+        <v>164073.5794959707</v>
       </c>
       <c r="C128">
-        <v>15021.09391059239</v>
+        <v>19703.85292522078</v>
       </c>
       <c r="D128">
-        <v>57803.39443716497</v>
+        <v>1276.550515239771</v>
       </c>
       <c r="E128">
-        <v>40149.84151373508</v>
+        <v>898.0250950567095</v>
       </c>
       <c r="F128">
-        <v>649.309217209973</v>
+        <v>464.8422852292392</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>398.5</v>
+        <v>349.4</v>
       </c>
       <c r="B129">
-        <v>326618.0750628841</v>
+        <v>163014.9918177795</v>
       </c>
       <c r="C129">
-        <v>14431.61208273785</v>
+        <v>20538.57433849489</v>
       </c>
       <c r="D129">
-        <v>66535.38591272874</v>
+        <v>1667.93666482659</v>
       </c>
       <c r="E129">
-        <v>45495.80128391692</v>
+        <v>2067.655904871559</v>
       </c>
       <c r="F129">
-        <v>694.2981917909401</v>
+        <v>602.0020142410119</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>400.8</v>
+        <v>351.7</v>
       </c>
       <c r="B130">
-        <v>336277.0026339857</v>
+        <v>165353.0911538434</v>
       </c>
       <c r="C130">
-        <v>11986.685850405</v>
+        <v>19311.71803870708</v>
       </c>
       <c r="D130">
-        <v>74841.37837188131</v>
+        <v>1391.211922446466</v>
       </c>
       <c r="E130">
-        <v>54770.68877292394</v>
+        <v>1281.716249901214</v>
       </c>
       <c r="F130">
-        <v>1214.096130843334</v>
+        <v>426.1889649318412</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="B131">
-        <v>382129.0203106916</v>
+        <v>160991.1904899076</v>
       </c>
       <c r="C131">
-        <v>12103.2781499127</v>
+        <v>18594.86173891927</v>
       </c>
       <c r="D131">
-        <v>83875.3711588968</v>
+        <v>1474.487180066342</v>
       </c>
       <c r="E131">
-        <v>65251.88550153936</v>
+        <v>475.7765949308741</v>
       </c>
       <c r="F131">
-        <v>602.1637247195372</v>
+        <v>790.375915622674</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>405.6</v>
+        <v>356.3</v>
       </c>
       <c r="B132">
-        <v>428408.6775649802</v>
+        <v>165429.2898259715</v>
       </c>
       <c r="C132">
-        <v>14283.79632205816</v>
+        <v>18638.00543913146</v>
       </c>
       <c r="D132">
-        <v>95617.36263446059</v>
+        <v>1317.762437686204</v>
       </c>
       <c r="E132">
-        <v>75907.84527172121</v>
+        <v>1499.836939960533</v>
       </c>
       <c r="F132">
-        <v>747.1526993005079</v>
+        <v>664.562866313503</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>407.6</v>
+        <v>358.9</v>
       </c>
       <c r="B133">
-        <v>480246.8754528947</v>
+        <v>173972.3586406526</v>
       </c>
       <c r="C133">
-        <v>14863.42568524697</v>
+        <v>18798.51570893654</v>
       </c>
       <c r="D133">
-        <v>114677.356077202</v>
+        <v>993.2040332565193</v>
       </c>
       <c r="E133">
-        <v>94531.66047955339</v>
+        <v>2842.252982167975</v>
       </c>
       <c r="F133">
-        <v>961.7596028243327</v>
+        <v>813.2089844857442</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>410.1</v>
+        <v>360.8</v>
       </c>
       <c r="B134">
-        <v>559919.6228127875</v>
+        <v>174603.8320052273</v>
       </c>
       <c r="C134">
-        <v>15735.462389233</v>
+        <v>19278.50398302486</v>
       </c>
       <c r="D134">
-        <v>132097.3478806287</v>
+        <v>2790.257506942492</v>
       </c>
       <c r="E134">
-        <v>113363.9294893436</v>
+        <v>4205.172397627254</v>
       </c>
       <c r="F134">
-        <v>1175.018232229109</v>
+        <v>251.4503785346897</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>412.4</v>
+        <v>363.4</v>
       </c>
       <c r="B135">
-        <v>637378.5503838893</v>
+        <v>170946.9008199084</v>
       </c>
       <c r="C135">
-        <v>11980.53615690015</v>
+        <v>19669.01425282996</v>
       </c>
       <c r="D135">
-        <v>152303.3403397812</v>
+        <v>3005.699102512793</v>
       </c>
       <c r="E135">
-        <v>140868.8169783507</v>
+        <v>2737.588439834706</v>
       </c>
       <c r="F135">
-        <v>794.8161712815031</v>
+        <v>850.0964967069344</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>414.7</v>
+        <v>365.7</v>
       </c>
       <c r="B136">
-        <v>739937.4779549909</v>
+        <v>172985.0001559723</v>
       </c>
       <c r="C136">
-        <v>9535.609924567296</v>
+        <v>18742.15795304214</v>
       </c>
       <c r="D136">
-        <v>176599.3327989338</v>
+        <v>3858.974360132669</v>
       </c>
       <c r="E136">
-        <v>179003.7044673577</v>
+        <v>4521.648784864358</v>
       </c>
       <c r="F136">
-        <v>1054.614110333897</v>
+        <v>534.2834473977637</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>416.9</v>
+        <v>368</v>
       </c>
       <c r="B137">
-        <v>882089.4956316968</v>
+        <v>181723.0994920364</v>
       </c>
       <c r="C137">
-        <v>11732.20222407499</v>
+        <v>20625.30165325433</v>
       </c>
       <c r="D137">
-        <v>211103.3255859493</v>
+        <v>4652.249617752545</v>
       </c>
       <c r="E137">
-        <v>225474.9011959731</v>
+        <v>4185.709129894018</v>
       </c>
       <c r="F137">
-        <v>642.6817042101002</v>
+        <v>838.4703980885927</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>419.2</v>
+        <v>370.6</v>
       </c>
       <c r="B138">
-        <v>1085948.423202798</v>
+        <v>186866.1683067174</v>
       </c>
       <c r="C138">
-        <v>13657.27599174214</v>
+        <v>20145.81192305941</v>
       </c>
       <c r="D138">
-        <v>251379.3180451018</v>
+        <v>4937.691213322842</v>
       </c>
       <c r="E138">
-        <v>327379.7886849801</v>
+        <v>5288.125172101461</v>
       </c>
       <c r="F138">
-        <v>1712.479643262498</v>
+        <v>527.1165162608372</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>421.8</v>
+        <v>372.9</v>
       </c>
       <c r="B139">
-        <v>1513328.080457087</v>
+        <v>187504.2676427814</v>
       </c>
       <c r="C139">
-        <v>15927.79416388759</v>
+        <v>19798.95562327161</v>
       </c>
       <c r="D139">
-        <v>310191.3095206656</v>
+        <v>6350.966470942722</v>
       </c>
       <c r="E139">
-        <v>570505.7484551619</v>
+        <v>6652.185517131122</v>
       </c>
       <c r="F139">
-        <v>1757.468617843469</v>
+        <v>511.303466951663</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>423.7</v>
+        <v>375.1</v>
       </c>
       <c r="B140">
-        <v>2425359.368450605</v>
+        <v>184840.7104859731</v>
       </c>
       <c r="C140">
-        <v>18768.94205891697</v>
+        <v>18356.31046695282</v>
       </c>
       <c r="D140">
-        <v>385159.3032912699</v>
+        <v>7400.186282579117</v>
       </c>
       <c r="E140">
-        <v>1274435.872902602</v>
+        <v>7433.460629768178</v>
       </c>
       <c r="F140">
-        <v>3530.345176191098</v>
+        <v>684.0040284820238</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>426.4</v>
+        <v>377.4</v>
       </c>
       <c r="B141">
-        <v>4029945.93559929</v>
+        <v>192878.8098220372</v>
       </c>
       <c r="C141">
-        <v>19537.94169922189</v>
+        <v>19029.45416716502</v>
       </c>
       <c r="D141">
-        <v>433673.2944389707</v>
+        <v>9953.461540198998</v>
       </c>
       <c r="E141">
-        <v>1100255.523433176</v>
+        <v>9797.520974797846</v>
       </c>
       <c r="F141">
-        <v>2347.064495948257</v>
+        <v>598.1909791728533</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>428.6</v>
+        <v>379.7</v>
       </c>
       <c r="B142">
-        <v>3043397.953275996</v>
+        <v>192416.9091581011</v>
       </c>
       <c r="C142">
-        <v>17784.53399872958</v>
+        <v>16762.59786737722</v>
       </c>
       <c r="D142">
-        <v>415977.2872259863</v>
+        <v>9386.736797818889</v>
       </c>
       <c r="E142">
-        <v>508356.7201617913</v>
+        <v>10761.5813198275</v>
       </c>
       <c r="F142">
-        <v>2175.13208982446</v>
+        <v>372.3779298636859</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>430.9</v>
+        <v>382.3</v>
       </c>
       <c r="B143">
-        <v>1839356.880847098</v>
+        <v>185559.9779727822</v>
       </c>
       <c r="C143">
-        <v>18089.60776639673</v>
+        <v>16403.10813718228</v>
       </c>
       <c r="D143">
-        <v>388133.2796851388</v>
+        <v>11682.17839338917</v>
       </c>
       <c r="E143">
-        <v>226791.6076507984</v>
+        <v>12293.99736203494</v>
       </c>
       <c r="F143">
-        <v>1344.930028876854</v>
+        <v>651.0240480359269</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>433.1</v>
+        <v>384.6</v>
       </c>
       <c r="B144">
-        <v>1095908.898523803</v>
+        <v>194898.0773088463</v>
       </c>
       <c r="C144">
-        <v>15416.20006590442</v>
+        <v>15986.25183739447</v>
       </c>
       <c r="D144">
-        <v>368917.2724721543</v>
+        <v>15895.45365100905</v>
       </c>
       <c r="E144">
-        <v>135302.8043794138</v>
+        <v>14768.0577070646</v>
       </c>
       <c r="F144">
-        <v>1122.997622753061</v>
+        <v>785.2109987267559</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>435.7</v>
+        <v>386.8</v>
       </c>
       <c r="B145">
-        <v>857888.555778092</v>
+        <v>222234.520152038</v>
       </c>
       <c r="C145">
-        <v>16326.71823804989</v>
+        <v>18413.6066810757</v>
       </c>
       <c r="D145">
-        <v>335519.2639477181</v>
+        <v>19364.67346264546</v>
       </c>
       <c r="E145">
-        <v>101138.7641495957</v>
+        <v>18299.33281970167</v>
       </c>
       <c r="F145">
-        <v>1277.986597334028</v>
+        <v>817.9115602571171</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>438</v>
+        <v>389.1</v>
       </c>
       <c r="B146">
-        <v>710847.4833491936</v>
+        <v>228772.6194881019</v>
       </c>
       <c r="C146">
-        <v>18741.79200571704</v>
+        <v>17136.75038128789</v>
       </c>
       <c r="D146">
-        <v>312345.2564068707</v>
+        <v>22597.94872026532</v>
       </c>
       <c r="E146">
-        <v>83963.65163860271</v>
+        <v>21913.39316473133</v>
       </c>
       <c r="F146">
-        <v>1697.784536386426</v>
+        <v>512.0985109479461</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>440.2</v>
+        <v>391.4</v>
       </c>
       <c r="B147">
-        <v>641999.5010258994</v>
+        <v>239710.718824166</v>
       </c>
       <c r="C147">
-        <v>17988.38430522474</v>
+        <v>17149.89408150009</v>
       </c>
       <c r="D147">
-        <v>285899.2491938862</v>
+        <v>28721.22397788522</v>
       </c>
       <c r="E147">
-        <v>75774.8483672181</v>
+        <v>26407.45350976099</v>
       </c>
       <c r="F147">
-        <v>1255.852130262629</v>
+        <v>156.2854616387756</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>442.5</v>
+        <v>394</v>
       </c>
       <c r="B148">
-        <v>577458.428597001</v>
+        <v>266553.7876388471</v>
       </c>
       <c r="C148">
-        <v>20893.45807289188</v>
+        <v>18540.40435130515</v>
       </c>
       <c r="D148">
-        <v>254715.2416530388</v>
+        <v>31826.66557345551</v>
       </c>
       <c r="E148">
-        <v>66879.73585622512</v>
+        <v>32859.86955196843</v>
       </c>
       <c r="F148">
-        <v>1365.650069315023</v>
+        <v>604.9315798110165</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>444.8</v>
+        <v>395.9</v>
       </c>
       <c r="B149">
-        <v>525017.3561681026</v>
+        <v>290385.2610034216</v>
       </c>
       <c r="C149">
-        <v>17078.53184055902</v>
+        <v>19030.39262539349</v>
       </c>
       <c r="D149">
-        <v>224151.2341121914</v>
+        <v>40833.71904714149</v>
       </c>
       <c r="E149">
-        <v>59984.62334523215</v>
+        <v>40242.78896742772</v>
       </c>
       <c r="F149">
-        <v>705.4480083674171</v>
+        <v>473.1729738599659</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>447.4</v>
+        <v>398.5</v>
       </c>
       <c r="B150">
-        <v>474897.0134223914</v>
+        <v>315428.3298181027</v>
       </c>
       <c r="C150">
-        <v>16299.0500127045</v>
+        <v>18370.90289519857</v>
       </c>
       <c r="D150">
-        <v>195863.2255877551</v>
+        <v>49099.16064271179</v>
       </c>
       <c r="E150">
-        <v>53560.583115414</v>
+        <v>45565.20500963515</v>
       </c>
       <c r="F150">
-        <v>1530.436982948384</v>
+        <v>511.8190920322068</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>449.6</v>
+        <v>400.8</v>
       </c>
       <c r="B151">
-        <v>416049.0310990971</v>
+        <v>324966.4291541668</v>
       </c>
       <c r="C151">
-        <v>15335.64231221219</v>
+        <v>15864.04659541076</v>
       </c>
       <c r="D151">
-        <v>170517.2183747706</v>
+        <v>56992.43590033164</v>
       </c>
       <c r="E151">
-        <v>50531.7798440294</v>
+        <v>54819.26535466481</v>
       </c>
       <c r="F151">
-        <v>1138.504576824591</v>
+        <v>1026.006042723039</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>451.6</v>
+        <v>403</v>
       </c>
       <c r="B152">
-        <v>388787.2289870115</v>
+        <v>370702.8719973583</v>
       </c>
       <c r="C152">
-        <v>14635.271675401</v>
+        <v>15921.40143909198</v>
       </c>
       <c r="D152">
-        <v>150047.211817512</v>
+        <v>65631.65571196805</v>
       </c>
       <c r="E152">
-        <v>46805.59505186159</v>
+        <v>65280.54046730187</v>
       </c>
       <c r="F152">
-        <v>693.1114803484154</v>
+        <v>408.706604253397</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>454.1</v>
+        <v>405.6</v>
       </c>
       <c r="B153">
-        <v>353359.9763469046</v>
+        <v>416845.9408120395</v>
       </c>
       <c r="C153">
-        <v>16507.30837938702</v>
+        <v>18031.91170889706</v>
       </c>
       <c r="D153">
-        <v>134297.2036209387</v>
+        <v>76907.09730753837</v>
       </c>
       <c r="E153">
-        <v>43497.86406165182</v>
+        <v>75912.95650950933</v>
       </c>
       <c r="F153">
-        <v>966.3701097531916</v>
+        <v>547.3527224256413</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>456.4</v>
+        <v>407.6</v>
       </c>
       <c r="B154">
-        <v>336518.9039180061</v>
+        <v>468579.0706694864</v>
       </c>
       <c r="C154">
-        <v>16102.38214705418</v>
+        <v>18557.68883951636</v>
       </c>
       <c r="D154">
-        <v>122053.1960800912</v>
+        <v>95608.20622720782</v>
       </c>
       <c r="E154">
-        <v>40312.75155065885</v>
+        <v>94518.6611573612</v>
       </c>
       <c r="F154">
-        <v>1326.168048805586</v>
+        <v>757.0805056350553</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>459</v>
+        <v>410.1</v>
       </c>
       <c r="B155">
-        <v>310598.5611722949</v>
+        <v>548120.4829912951</v>
       </c>
       <c r="C155">
-        <v>15472.90031919963</v>
+        <v>19362.41025279048</v>
       </c>
       <c r="D155">
-        <v>114875.187555655</v>
+        <v>112579.5923767946</v>
       </c>
       <c r="E155">
-        <v>37598.7113208407</v>
+        <v>113328.2919671761</v>
       </c>
       <c r="F155">
-        <v>861.1570233865532</v>
+        <v>964.240234646828</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>461.3</v>
+        <v>412.4</v>
       </c>
       <c r="B156">
-        <v>278957.4887433964</v>
+        <v>625458.5823273592</v>
       </c>
       <c r="C156">
-        <v>15057.97408686678</v>
+        <v>15545.55395300268</v>
       </c>
       <c r="D156">
-        <v>107941.1800148076</v>
+        <v>132372.8676344145</v>
       </c>
       <c r="E156">
-        <v>34083.59880984772</v>
+        <v>140812.3523122057</v>
       </c>
       <c r="F156">
-        <v>970.9549624389472</v>
+        <v>578.4271853376574</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>463.6</v>
+        <v>414.7</v>
       </c>
       <c r="B157">
-        <v>274116.4163144979</v>
+        <v>727896.6816634232</v>
       </c>
       <c r="C157">
-        <v>14673.04785453392</v>
+        <v>13038.69765321487</v>
       </c>
       <c r="D157">
-        <v>105847.1724739601</v>
+        <v>156256.1428920344</v>
       </c>
       <c r="E157">
-        <v>32888.48629885474</v>
+        <v>178926.4126572354</v>
       </c>
       <c r="F157">
-        <v>1100.752901491345</v>
+        <v>832.6141360284867</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>465.9</v>
+        <v>416.9</v>
       </c>
       <c r="B158">
-        <v>256275.3438855995</v>
+        <v>869933.124506615</v>
       </c>
       <c r="C158">
-        <v>14698.12162220108</v>
+        <v>15176.05249689609</v>
       </c>
       <c r="D158">
-        <v>101463.1649331127</v>
+        <v>190365.3627036708</v>
       </c>
       <c r="E158">
-        <v>32753.37378786176</v>
+        <v>225377.6877698724</v>
       </c>
       <c r="F158">
-        <v>1160.550840543739</v>
+        <v>415.3146975588477</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>468.1</v>
+        <v>419.2</v>
       </c>
       <c r="B159">
-        <v>248327.3615623053</v>
+        <v>1073671.223842679</v>
       </c>
       <c r="C159">
-        <v>13174.71392170876</v>
+        <v>17039.19619710827</v>
       </c>
       <c r="D159">
-        <v>100727.1577201282</v>
+        <v>230228.6379612907</v>
       </c>
       <c r="E159">
-        <v>30264.57051647716</v>
+        <v>327261.7481149021</v>
       </c>
       <c r="F159">
-        <v>598.6184344199457</v>
+        <v>1479.501648249677</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>470.4</v>
+        <v>421.8</v>
       </c>
       <c r="B160">
-        <v>237186.2891334069</v>
+        <v>1500914.29265736</v>
       </c>
       <c r="C160">
-        <v>13099.78768937592</v>
+        <v>19239.70646691336</v>
       </c>
       <c r="D160">
-        <v>100133.1501792808</v>
+        <v>288574.079556861</v>
       </c>
       <c r="E160">
-        <v>29759.45800548418</v>
+        <v>570364.1641571095</v>
       </c>
       <c r="F160">
-        <v>1028.41637347234</v>
+        <v>1518.147766421918</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>472.7</v>
+        <v>423.7</v>
       </c>
       <c r="B161">
-        <v>238745.2167045085</v>
+        <v>2412845.766021935</v>
       </c>
       <c r="C161">
-        <v>14114.86145704305</v>
+        <v>22029.69474100169</v>
       </c>
       <c r="D161">
-        <v>97259.14263843338</v>
+        <v>363201.1330305469</v>
       </c>
       <c r="E161">
-        <v>28634.3454944912</v>
+        <v>1274277.083572569</v>
       </c>
       <c r="F161">
-        <v>1178.214312524734</v>
+        <v>3286.389160470863</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>475.3</v>
+        <v>426.4</v>
       </c>
       <c r="B162">
-        <v>226824.8739587973</v>
+        <v>4017290.491329488</v>
       </c>
       <c r="C162">
-        <v>12125.37962918852</v>
+        <v>22725.99386733774</v>
       </c>
       <c r="D162">
-        <v>93761.13411399715</v>
+        <v>411230.6300721007</v>
       </c>
       <c r="E162">
-        <v>25830.30526467305</v>
+        <v>1100072.284847169</v>
       </c>
       <c r="F162">
-        <v>1223.203287105701</v>
+        <v>2096.52166780358</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>477.6</v>
+        <v>428.6</v>
       </c>
       <c r="B163">
-        <v>213883.8015298989</v>
+        <v>3030626.93417268</v>
       </c>
       <c r="C163">
-        <v>12780.45339685565</v>
+        <v>20913.34871101896</v>
       </c>
       <c r="D163">
-        <v>90857.12657314971</v>
+        <v>393139.849883737</v>
       </c>
       <c r="E163">
-        <v>24925.19275368006</v>
+        <v>508153.5599598059</v>
       </c>
       <c r="F163">
-        <v>1283.001226158099</v>
+        <v>1919.222229333941</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>479.8</v>
+        <v>430.9</v>
       </c>
       <c r="B164">
-        <v>217035.8192066047</v>
+        <v>1826465.033508744</v>
       </c>
       <c r="C164">
-        <v>12567.04569636336</v>
+        <v>21156.49241123116</v>
       </c>
       <c r="D164">
-        <v>89931.11936016518</v>
+        <v>364883.125141357</v>
       </c>
       <c r="E164">
-        <v>24836.38948229548</v>
+        <v>226567.6203048356</v>
       </c>
       <c r="F164">
-        <v>821.068820034302</v>
+        <v>1083.409180024767</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>482.1</v>
+        <v>433.1</v>
       </c>
       <c r="B165">
-        <v>214794.7467777062</v>
+        <v>1082901.476351936</v>
       </c>
       <c r="C165">
-        <v>11662.1194640305</v>
+        <v>18423.84725491237</v>
       </c>
       <c r="D165">
-        <v>90067.11181931775</v>
+        <v>345272.3449529933</v>
       </c>
       <c r="E165">
-        <v>23021.2769713025</v>
+        <v>135058.8954174726</v>
       </c>
       <c r="F165">
-        <v>700.8667590866996</v>
+        <v>856.1097415551274</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>484.7</v>
+        <v>435.7</v>
       </c>
       <c r="B166">
-        <v>206874.4040319949</v>
+        <v>844744.5451666164</v>
       </c>
       <c r="C166">
-        <v>13712.63763617596</v>
+        <v>19264.35752471747</v>
       </c>
       <c r="D166">
-        <v>88679.10329488153</v>
+        <v>311407.7865485637</v>
       </c>
       <c r="E166">
-        <v>21987.23674148435</v>
+        <v>100871.3114596801</v>
       </c>
       <c r="F166">
-        <v>1345.855733667667</v>
+        <v>1004.755859727368</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>486.9</v>
+        <v>438</v>
       </c>
       <c r="B167">
-        <v>202726.4217087008</v>
+        <v>697582.6445026804</v>
       </c>
       <c r="C167">
-        <v>8929.22993568367</v>
+        <v>21617.50122492965</v>
       </c>
       <c r="D167">
-        <v>85663.09608189706</v>
+        <v>287821.0618061835</v>
       </c>
       <c r="E167">
-        <v>20568.43347009976</v>
+        <v>83675.37180470974</v>
       </c>
       <c r="F167">
-        <v>843.9233275438701</v>
+        <v>1418.942810418201</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>489.2</v>
+        <v>440.2</v>
       </c>
       <c r="B168">
-        <v>197885.3492798023</v>
+        <v>628619.0873458722</v>
       </c>
       <c r="C168">
-        <v>12644.30370335082</v>
+        <v>20804.85606861087</v>
       </c>
       <c r="D168">
-        <v>83109.08854104963</v>
+        <v>260980.28161782</v>
       </c>
       <c r="E168">
-        <v>17563.32095910678</v>
+        <v>75466.64691734682</v>
       </c>
       <c r="F168">
-        <v>1203.721266596264</v>
+        <v>971.6433719485588</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>491.5</v>
+        <v>442.5</v>
       </c>
       <c r="B169">
-        <v>189044.2768509039</v>
+        <v>563957.1866819361</v>
       </c>
       <c r="C169">
-        <v>9739.37747101795</v>
+        <v>23647.99976882305</v>
       </c>
       <c r="D169">
-        <v>79585.08100020219</v>
+        <v>229383.5568754399</v>
       </c>
       <c r="E169">
-        <v>16918.2084481138</v>
+        <v>66550.70726237647</v>
       </c>
       <c r="F169">
-        <v>1133.519205648658</v>
+        <v>1075.830322639388</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>493.8</v>
+        <v>444.8</v>
       </c>
       <c r="B170">
-        <v>181803.2044220055</v>
+        <v>511395.2860180003</v>
       </c>
       <c r="C170">
-        <v>9174.451238685098</v>
+        <v>19771.14346903525</v>
       </c>
       <c r="D170">
-        <v>78621.07345935475</v>
+        <v>198406.8321330597</v>
       </c>
       <c r="E170">
-        <v>17223.09593712082</v>
+        <v>59634.76760740612</v>
       </c>
       <c r="F170">
-        <v>913.3171447010559</v>
+        <v>410.017273330217</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>496</v>
+        <v>447.4</v>
       </c>
       <c r="B171">
-        <v>170955.2220987113</v>
+        <v>461138.3548326812</v>
       </c>
       <c r="C171">
-        <v>10971.0435381928</v>
+        <v>18921.65373884034</v>
       </c>
       <c r="D171">
-        <v>79865.06624637026</v>
+        <v>169652.27372863</v>
       </c>
       <c r="E171">
-        <v>16884.29266573623</v>
+        <v>53187.18364961356</v>
       </c>
       <c r="F171">
-        <v>1381.384738577263</v>
+        <v>1228.663391502462</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>498.6</v>
+        <v>449.6</v>
       </c>
       <c r="B172">
-        <v>173434.8793530001</v>
+        <v>402174.7976758729</v>
       </c>
       <c r="C172">
-        <v>13081.56171033826</v>
+        <v>17899.00858252154</v>
       </c>
       <c r="D172">
-        <v>77617.057721934</v>
+        <v>143911.4935402664</v>
       </c>
       <c r="E172">
-        <v>13800.25243591808</v>
+        <v>50138.45876225062</v>
       </c>
       <c r="F172">
-        <v>1076.37371315823</v>
+        <v>831.3639530328189</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>500.9</v>
+        <v>451.6</v>
       </c>
       <c r="B173">
-        <v>163393.8069241016</v>
+        <v>374807.9275333199</v>
       </c>
       <c r="C173">
-        <v>10636.63547800541</v>
+        <v>17144.78571314084</v>
       </c>
       <c r="D173">
-        <v>77823.0501810866</v>
+        <v>123082.6024599359</v>
       </c>
       <c r="E173">
-        <v>13575.1399249251</v>
+        <v>46394.1634101025</v>
       </c>
       <c r="F173">
-        <v>1236.171652210624</v>
+        <v>381.0917362422401</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>503.2</v>
+        <v>454.1</v>
       </c>
       <c r="B174">
-        <v>148352.7344952032</v>
+        <v>339249.3398551285</v>
       </c>
       <c r="C174">
-        <v>8891.709245672559</v>
+        <v>18949.50712641496</v>
       </c>
       <c r="D174">
-        <v>72449.04264023916</v>
+        <v>106883.9886095228</v>
       </c>
       <c r="E174">
-        <v>12290.02741393212</v>
+        <v>43063.79421991735</v>
       </c>
       <c r="F174">
-        <v>1145.969591263018</v>
+        <v>648.2514652540092</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>505.4</v>
+        <v>456.4</v>
       </c>
       <c r="B175">
-        <v>137504.7521719091</v>
+        <v>322287.4391911926</v>
       </c>
       <c r="C175">
-        <v>12378.30154518025</v>
+        <v>18482.65082662716</v>
       </c>
       <c r="D175">
-        <v>71773.03542725465</v>
+        <v>94227.26386714261</v>
       </c>
       <c r="E175">
-        <v>12191.22414254753</v>
+        <v>39857.854564947</v>
       </c>
       <c r="F175">
-        <v>1224.037185139221</v>
+        <v>1002.438415944839</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="B176">
-        <v>143984.4094261977</v>
+        <v>296230.5080058737</v>
       </c>
       <c r="C176">
-        <v>9488.819717325721</v>
+        <v>17783.16109643225</v>
       </c>
       <c r="D176">
-        <v>71835.02690281844</v>
+        <v>86582.70546271291</v>
       </c>
       <c r="E176">
-        <v>12537.18391272938</v>
+        <v>37120.27060715445</v>
       </c>
       <c r="F176">
-        <v>959.026159720192</v>
+        <v>531.0845341170793</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>510.3</v>
+        <v>461.3</v>
       </c>
       <c r="B177">
-        <v>128143.3369972993</v>
+        <v>264468.6073419377</v>
       </c>
       <c r="C177">
-        <v>12763.89348499285</v>
+        <v>17306.30479664443</v>
       </c>
       <c r="D177">
-        <v>72871.019361971</v>
+        <v>79235.98072033279</v>
       </c>
       <c r="E177">
-        <v>11422.0714017364</v>
+        <v>33584.33095218411</v>
       </c>
       <c r="F177">
-        <v>1158.82409877259</v>
+        <v>635.2714848079122</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>512.5</v>
+        <v>463.6</v>
       </c>
       <c r="B178">
-        <v>128995.3546740052</v>
+        <v>259506.7066780017</v>
       </c>
       <c r="C178">
-        <v>12100.48578450056</v>
+        <v>16859.44849685661</v>
       </c>
       <c r="D178">
-        <v>70735.01214898651</v>
+        <v>76729.25597795266</v>
       </c>
       <c r="E178">
-        <v>9893.2681303518</v>
+        <v>32368.39129721377</v>
       </c>
       <c r="F178">
-        <v>566.8916926487927</v>
+        <v>759.4584354987414</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>514.4</v>
+        <v>465.9</v>
       </c>
       <c r="B179">
-        <v>116226.6426675238</v>
+        <v>241544.8060140657</v>
       </c>
       <c r="C179">
-        <v>9981.633679529943</v>
+        <v>16822.59219706881</v>
       </c>
       <c r="D179">
-        <v>67763.0059195908</v>
+        <v>71932.53123557255</v>
       </c>
       <c r="E179">
-        <v>10243.39257779239</v>
+        <v>32212.45164224342</v>
       </c>
       <c r="F179">
-        <v>1129.768250996423</v>
+        <v>813.6453861895707</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>517</v>
+        <v>468.1</v>
       </c>
       <c r="B180">
-        <v>113906.2999218126</v>
+        <v>233481.2488572574</v>
       </c>
       <c r="C180">
-        <v>10632.1518516754</v>
+        <v>15239.94704075003</v>
       </c>
       <c r="D180">
-        <v>68104.99739515458</v>
+        <v>70801.75104720893</v>
       </c>
       <c r="E180">
-        <v>9259.352347974233</v>
+        <v>29703.7267548805</v>
       </c>
       <c r="F180">
-        <v>994.75722557739</v>
+        <v>246.3459477199317</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>519.3</v>
+        <v>470.4</v>
       </c>
       <c r="B181">
-        <v>102065.2274929141</v>
+        <v>222219.3481933214</v>
       </c>
       <c r="C181">
-        <v>11627.22561934255</v>
+        <v>15103.09074096222</v>
       </c>
       <c r="D181">
-        <v>66450.98985430713</v>
+        <v>69795.02630482882</v>
       </c>
       <c r="E181">
-        <v>8274.239836981254</v>
+        <v>29177.78709991015</v>
       </c>
       <c r="F181">
-        <v>1184.555164629784</v>
+        <v>670.5328984107609</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>521.9</v>
+        <v>472.7</v>
       </c>
       <c r="B182">
-        <v>92844.88474720292</v>
+        <v>223657.4475293854</v>
       </c>
       <c r="C182">
-        <v>6027.743791488021</v>
+        <v>16056.23444117442</v>
       </c>
       <c r="D182">
-        <v>64762.98132987091</v>
+        <v>66508.30156244872</v>
       </c>
       <c r="E182">
-        <v>8400.199607163098</v>
+        <v>28031.84744493982</v>
       </c>
       <c r="F182">
-        <v>869.5441392107514</v>
+        <v>814.7198491015902</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>524.1</v>
+        <v>475.3</v>
       </c>
       <c r="B183">
-        <v>95796.90242390879</v>
+        <v>211600.5163440665</v>
       </c>
       <c r="C183">
-        <v>6824.336090995708</v>
+        <v>13996.74471097948</v>
       </c>
       <c r="D183">
-        <v>61456.97411688641</v>
+        <v>62543.74315801898</v>
       </c>
       <c r="E183">
-        <v>7531.396335778508</v>
+        <v>25204.26348714725</v>
       </c>
       <c r="F183">
-        <v>977.6117330869615</v>
+        <v>853.3659672738311</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>526.4</v>
+        <v>477.6</v>
       </c>
       <c r="B184">
-        <v>94655.82999501031</v>
+        <v>198538.6156801305</v>
       </c>
       <c r="C184">
-        <v>11849.40985866286</v>
+        <v>14589.88841119169</v>
       </c>
       <c r="D184">
-        <v>58932.96657603898</v>
+        <v>59227.01841563887</v>
       </c>
       <c r="E184">
-        <v>7636.283824785531</v>
+        <v>24278.32383217691</v>
       </c>
       <c r="F184">
-        <v>1357.409672139356</v>
+        <v>907.5529179646637</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>528.6</v>
+        <v>479.8</v>
       </c>
       <c r="B185">
-        <v>77607.84767171617</v>
+        <v>201575.0585233223</v>
       </c>
       <c r="C185">
-        <v>12526.00215817055</v>
+        <v>14317.2432548729</v>
       </c>
       <c r="D185">
-        <v>55316.95936305448</v>
+        <v>57906.23822727526</v>
       </c>
       <c r="E185">
-        <v>7917.48055340094</v>
+        <v>24169.59894481398</v>
       </c>
       <c r="F185">
-        <v>1125.477266015559</v>
+        <v>440.2534794950213</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>530.9</v>
+        <v>482.1</v>
       </c>
       <c r="B186">
-        <v>80366.77524281772</v>
+        <v>199213.1578593862</v>
       </c>
       <c r="C186">
-        <v>10491.0759258377</v>
+        <v>13350.38695508509</v>
       </c>
       <c r="D186">
-        <v>62182.95182220705</v>
+        <v>57629.51348489515</v>
       </c>
       <c r="E186">
-        <v>7072.368042407963</v>
+        <v>22333.65928984364</v>
       </c>
       <c r="F186">
-        <v>1015.275205067953</v>
+        <v>314.440430185854</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>533.2</v>
+        <v>484.7</v>
       </c>
       <c r="B187">
-        <v>76725.7028139193</v>
+        <v>191156.2266740673</v>
       </c>
       <c r="C187">
-        <v>12956.14969350483</v>
+        <v>15330.89722489017</v>
       </c>
       <c r="D187">
-        <v>62038.94428135961</v>
+        <v>55774.95508046545</v>
       </c>
       <c r="E187">
-        <v>6297.255531414977</v>
+        <v>21276.07533205108</v>
       </c>
       <c r="F187">
-        <v>1315.073144120347</v>
+        <v>953.0865483580951</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>535.8</v>
+        <v>486.9</v>
       </c>
       <c r="B188">
-        <v>79305.36006820797</v>
+        <v>186892.6695172589</v>
       </c>
       <c r="C188">
-        <v>8976.667865650321</v>
+        <v>10488.25206857141</v>
       </c>
       <c r="D188">
-        <v>63690.9357569234</v>
+        <v>52364.17489210187</v>
       </c>
       <c r="E188">
-        <v>8063.215301596835</v>
+        <v>19837.35044468815</v>
       </c>
       <c r="F188">
-        <v>1800.062118701314</v>
+        <v>445.7871098884525</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>538</v>
+        <v>489.2</v>
       </c>
       <c r="B189">
-        <v>80457.37774491381</v>
+        <v>181930.768853323</v>
       </c>
       <c r="C189">
-        <v>12273.26016515801</v>
+        <v>14141.39576878359</v>
       </c>
       <c r="D189">
-        <v>60374.92854393889</v>
+        <v>49397.45014972173</v>
       </c>
       <c r="E189">
-        <v>5514.412030212237</v>
+        <v>16811.4107897178</v>
       </c>
       <c r="F189">
-        <v>1658.129712577521</v>
+        <v>799.9740605792817</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>540.3</v>
+        <v>491.5</v>
       </c>
       <c r="B190">
-        <v>79216.30531601536</v>
+        <v>172968.868189387</v>
       </c>
       <c r="C190">
-        <v>10368.33393282516</v>
+        <v>11174.53946899578</v>
       </c>
       <c r="D190">
-        <v>59470.92100309145</v>
+        <v>45460.72540734161</v>
       </c>
       <c r="E190">
-        <v>6049.29951921926</v>
+        <v>16145.47113474746</v>
       </c>
       <c r="F190">
-        <v>1557.927651629915</v>
+        <v>724.1610112701146</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>542.5</v>
+        <v>493.8</v>
       </c>
       <c r="B191">
-        <v>70468.32299272122</v>
+        <v>165606.9675254511</v>
       </c>
       <c r="C191">
-        <v>10044.92623233285</v>
+        <v>10547.68316920796</v>
       </c>
       <c r="D191">
-        <v>59164.91379010696</v>
+        <v>44084.00066496147</v>
       </c>
       <c r="E191">
-        <v>5470.496247834662</v>
+        <v>16429.53147977712</v>
       </c>
       <c r="F191">
-        <v>1465.995245506122</v>
+        <v>498.3479619609436</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>544.8</v>
+        <v>496</v>
       </c>
       <c r="B192">
-        <v>58927.25056382277</v>
+        <v>154643.4103686428</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>12285.0380128892</v>
       </c>
       <c r="D192">
-        <v>48040.90624925951</v>
+        <v>44933.22047659789</v>
       </c>
       <c r="E192">
-        <v>1255.383736841685</v>
+        <v>16070.80659241419</v>
       </c>
       <c r="F192">
-        <v>1285.793184558516</v>
+        <v>961.0485234913046</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>547.4</v>
+        <v>498.6</v>
       </c>
       <c r="B193">
-        <v>66206.90781811158</v>
+        <v>156986.4791833238</v>
       </c>
       <c r="C193">
-        <v>11550.51817214547</v>
+        <v>14325.54828269427</v>
       </c>
       <c r="D193">
-        <v>52762.8977248233</v>
+        <v>42218.66207216818</v>
       </c>
       <c r="E193">
-        <v>5471.343507023535</v>
+        <v>12963.22263462162</v>
       </c>
       <c r="F193">
-        <v>1230.782159139483</v>
+        <v>649.6946416635458</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>549.3</v>
+        <v>500.9</v>
       </c>
       <c r="B194">
-        <v>64938.19581163018</v>
+        <v>146824.5785193878</v>
       </c>
       <c r="C194">
-        <v>9701.666067174854</v>
+        <v>11818.69198290647</v>
       </c>
       <c r="D194">
-        <v>55770.89149542761</v>
+        <v>42011.93732978805</v>
       </c>
       <c r="E194">
-        <v>4381.467954464118</v>
+        <v>12717.28297965129</v>
       </c>
       <c r="F194">
-        <v>1383.658717487113</v>
+        <v>803.881592354375</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>551.9</v>
+        <v>503.2</v>
       </c>
       <c r="B195">
-        <v>51417.85306591899</v>
+        <v>131662.6778554519</v>
       </c>
       <c r="C195">
-        <v>8862.184239320308</v>
+        <v>10011.83568311865</v>
       </c>
       <c r="D195">
-        <v>53392.88297099137</v>
+        <v>36225.21258740795</v>
       </c>
       <c r="E195">
-        <v>3687.427724645968</v>
+        <v>11411.34332468094</v>
       </c>
       <c r="F195">
-        <v>1798.647692068084</v>
+        <v>708.0685430452043</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>554.2</v>
+        <v>505.4</v>
       </c>
       <c r="B196">
-        <v>73176.78063702055</v>
+        <v>120699.1206986435</v>
       </c>
       <c r="C196">
-        <v>9437.258006987438</v>
+        <v>13439.19052679989</v>
       </c>
       <c r="D196">
-        <v>57828.87543014393</v>
+        <v>35154.43239904437</v>
       </c>
       <c r="E196">
-        <v>4922.315213652982</v>
+        <v>11292.61843731802</v>
       </c>
       <c r="F196">
-        <v>1508.445631120481</v>
+        <v>780.7691045755653</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>556.4</v>
+        <v>508</v>
       </c>
       <c r="B197">
-        <v>71228.79831372639</v>
+        <v>127042.1895133246</v>
       </c>
       <c r="C197">
-        <v>12583.85030649515</v>
+        <v>10479.70079660496</v>
       </c>
       <c r="D197">
-        <v>59432.86821715944</v>
+        <v>34749.87399461465</v>
       </c>
       <c r="E197">
-        <v>6273.5119422684</v>
+        <v>11615.03447952545</v>
       </c>
       <c r="F197">
-        <v>1666.513224996685</v>
+        <v>509.415222747806</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>559</v>
+        <v>510.3</v>
       </c>
       <c r="B198">
-        <v>75208.45556801508</v>
+        <v>111080.2888493886</v>
       </c>
       <c r="C198">
-        <v>14174.3684786406</v>
+        <v>13692.84449681715</v>
       </c>
       <c r="D198">
-        <v>58024.85969272321</v>
+        <v>35373.14925223452</v>
       </c>
       <c r="E198">
-        <v>5189.471712450243</v>
+        <v>10479.09482455511</v>
       </c>
       <c r="F198">
-        <v>1191.502199577652</v>
+        <v>703.6021734386352</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>560.9</v>
+        <v>512.5</v>
       </c>
       <c r="B199">
-        <v>74839.7435615338</v>
+        <v>111816.7316925803</v>
       </c>
       <c r="C199">
-        <v>15065.51637366999</v>
+        <v>12970.19934049838</v>
       </c>
       <c r="D199">
-        <v>59452.85346332753</v>
+        <v>32842.36906387094</v>
       </c>
       <c r="E199">
-        <v>5479.596159890825</v>
+        <v>8930.369937192178</v>
       </c>
       <c r="F199">
-        <v>1694.378757925282</v>
+        <v>106.3027349689926</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>563.5</v>
+        <v>514.4</v>
       </c>
       <c r="B200">
-        <v>71019.40081582249</v>
+        <v>98948.20505715485</v>
       </c>
       <c r="C200">
-        <v>12866.03454581546</v>
+        <v>10800.18761458671</v>
       </c>
       <c r="D200">
-        <v>58254.84493889128</v>
+        <v>29529.42253755691</v>
       </c>
       <c r="E200">
-        <v>4905.555930072675</v>
+        <v>9263.289352651465</v>
       </c>
       <c r="F200">
-        <v>1459.367732506249</v>
+        <v>664.5441290179422</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>565.8</v>
+        <v>517</v>
       </c>
       <c r="B201">
-        <v>64078.32838692404</v>
+        <v>96491.2738718359</v>
       </c>
       <c r="C201">
-        <v>12841.10831348261</v>
+        <v>11380.69788439178</v>
       </c>
       <c r="D201">
-        <v>56100.83739804386</v>
+        <v>29404.8641331272</v>
       </c>
       <c r="E201">
-        <v>3820.443419079698</v>
+        <v>8255.705394858902</v>
       </c>
       <c r="F201">
-        <v>1519.165671558643</v>
+        <v>523.1902471901828</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>568</v>
+        <v>519.3</v>
       </c>
       <c r="B202">
-        <v>59030.3460636299</v>
+        <v>84529.37320789999</v>
       </c>
       <c r="C202">
-        <v>10217.7006129903</v>
+        <v>12313.84158460398</v>
       </c>
       <c r="D202">
-        <v>55884.83018505934</v>
+        <v>27338.1393907471</v>
       </c>
       <c r="E202">
-        <v>3781.6401476951</v>
+        <v>7249.765739888562</v>
       </c>
       <c r="F202">
-        <v>1527.23326543485</v>
+        <v>707.3771978810162</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>570.3</v>
+        <v>521.9</v>
       </c>
       <c r="B203">
-        <v>60089.27363473145</v>
+        <v>75172.44202258105</v>
       </c>
       <c r="C203">
-        <v>10392.77438065745</v>
+        <v>6644.351854409066</v>
       </c>
       <c r="D203">
-        <v>55370.82264421193</v>
+        <v>25183.5809863174</v>
       </c>
       <c r="E203">
-        <v>5376.527636702122</v>
+        <v>7352.181782096006</v>
       </c>
       <c r="F203">
-        <v>1807.031204487244</v>
+        <v>386.0233160532568</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>572.9</v>
+        <v>524.1</v>
       </c>
       <c r="B204">
-        <v>55468.93088902025</v>
+        <v>78008.88486577272</v>
       </c>
       <c r="C204">
-        <v>11223.2925528029</v>
+        <v>7381.706698090285</v>
       </c>
       <c r="D204">
-        <v>56132.81411977569</v>
+        <v>21482.80079795378</v>
       </c>
       <c r="E204">
-        <v>3722.487406883973</v>
+        <v>6463.456894733063</v>
       </c>
       <c r="F204">
-        <v>1792.020179068215</v>
+        <v>488.7238775836179</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>575.1</v>
+        <v>526.4</v>
       </c>
       <c r="B205">
-        <v>62320.94856572599</v>
+        <v>76746.98420183668</v>
       </c>
       <c r="C205">
-        <v>11829.88485231061</v>
+        <v>12344.85039830249</v>
       </c>
       <c r="D205">
-        <v>56866.8069067912</v>
+        <v>18546.07605557367</v>
       </c>
       <c r="E205">
-        <v>4473.684135499376</v>
+        <v>6547.51723976273</v>
       </c>
       <c r="F205">
-        <v>1630.087772944418</v>
+        <v>862.9108282744435</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>577.4</v>
+        <v>528.6</v>
       </c>
       <c r="B206">
-        <v>58679.87613682766</v>
+        <v>59583.42704502838</v>
       </c>
       <c r="C206">
-        <v>9724.958619977759</v>
+        <v>12962.20524198369</v>
       </c>
       <c r="D206">
-        <v>56412.79936594379</v>
+        <v>14535.29586721005</v>
       </c>
       <c r="E206">
-        <v>4778.571624506398</v>
+        <v>6808.792352399787</v>
       </c>
       <c r="F206">
-        <v>1649.885711996812</v>
+        <v>625.6113898048081</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>579.6</v>
+        <v>530.9</v>
       </c>
       <c r="B207">
-        <v>55131.8938135335</v>
+        <v>62221.52638109245</v>
       </c>
       <c r="C207">
-        <v>9691.550919485449</v>
+        <v>10865.34894219589</v>
       </c>
       <c r="D207">
-        <v>58736.79215295927</v>
+        <v>20988.57112482994</v>
       </c>
       <c r="E207">
-        <v>4329.768353121808</v>
+        <v>5942.852697429455</v>
       </c>
       <c r="F207">
-        <v>1827.953305873019</v>
+        <v>509.7983404956337</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>581.9</v>
+        <v>533.2</v>
       </c>
       <c r="B208">
-        <v>55090.82138463506</v>
+        <v>58459.62571715642</v>
       </c>
       <c r="C208">
-        <v>9906.624687152598</v>
+        <v>13268.49264240807</v>
       </c>
       <c r="D208">
-        <v>58852.78461211185</v>
+        <v>20431.84638244981</v>
       </c>
       <c r="E208">
-        <v>3774.65584212883</v>
+        <v>5146.913042459106</v>
       </c>
       <c r="F208">
-        <v>1867.751244925413</v>
+        <v>803.9852911864662</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>584.1</v>
+        <v>535.8</v>
       </c>
       <c r="B209">
-        <v>50142.83906134091</v>
+        <v>60902.69453183746</v>
       </c>
       <c r="C209">
-        <v>8423.216986660289</v>
+        <v>9219.002912213175</v>
       </c>
       <c r="D209">
-        <v>59596.77739912736</v>
+        <v>21617.28797802014</v>
       </c>
       <c r="E209">
-        <v>4365.85257074424</v>
+        <v>6889.329084666551</v>
       </c>
       <c r="F209">
-        <v>2025.818838801619</v>
+        <v>1282.631409358708</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>586.7</v>
+        <v>538</v>
       </c>
       <c r="B210">
-        <v>52822.4963156296</v>
+        <v>61939.13737502915</v>
       </c>
       <c r="C210">
-        <v>8133.735158805757</v>
+        <v>12456.35775589438</v>
       </c>
       <c r="D210">
-        <v>59248.7688746911</v>
+        <v>17906.50778965652</v>
       </c>
       <c r="E210">
-        <v>3911.812340926083</v>
+        <v>4320.604197303615</v>
       </c>
       <c r="F210">
-        <v>1860.807813382587</v>
+        <v>1135.331970889068</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>588.9</v>
+        <v>540.3</v>
       </c>
       <c r="B211">
-        <v>52774.51399233544</v>
+        <v>60577.23671109324</v>
       </c>
       <c r="C211">
-        <v>7080.327458313466</v>
+        <v>10489.50145610658</v>
       </c>
       <c r="D211">
-        <v>60542.76166170661</v>
+        <v>16589.78304727641</v>
       </c>
       <c r="E211">
-        <v>3223.009069541501</v>
+        <v>4834.664542333276</v>
       </c>
       <c r="F211">
-        <v>1958.87540725879</v>
+        <v>1029.518921579894</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>591.2</v>
+        <v>542.5</v>
       </c>
       <c r="B212">
-        <v>56233.44156343701</v>
+        <v>51713.67955428491</v>
       </c>
       <c r="C212">
-        <v>8095.401225980597</v>
+        <v>10106.8562997878</v>
       </c>
       <c r="D212">
-        <v>60688.75412085917</v>
+        <v>15889.00285891279</v>
       </c>
       <c r="E212">
-        <v>3637.896558548515</v>
+        <v>4235.93965497034</v>
       </c>
       <c r="F212">
-        <v>2038.673346311184</v>
+        <v>932.2194831102549</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>593.4</v>
+        <v>544.8</v>
       </c>
       <c r="B213">
-        <v>61985.45924014285</v>
+        <v>40051.77889034887</v>
       </c>
       <c r="C213">
-        <v>7781.993525488306</v>
+        <v>0</v>
       </c>
       <c r="D213">
-        <v>62402.74690787471</v>
+        <v>4352.278116532691</v>
       </c>
       <c r="E213">
-        <v>4169.093287163926</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1586.740940187387</v>
+        <v>746.4064338010846</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>596</v>
+        <v>547.4</v>
       </c>
       <c r="B214">
-        <v>65965.11649443154</v>
+        <v>47194.84770502994</v>
       </c>
       <c r="C214">
-        <v>8012.511697633778</v>
+        <v>11480.51026980507</v>
       </c>
       <c r="D214">
-        <v>61624.73838343845</v>
+        <v>8607.719712102986</v>
       </c>
       <c r="E214">
-        <v>4325.053057345776</v>
+        <v>4192.416042207444</v>
       </c>
       <c r="F214">
-        <v>1721.729914768358</v>
+        <v>685.0525519733289</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
+        <v>549.3</v>
+      </c>
+      <c r="B215">
+        <v>45826.32106960464</v>
+      </c>
+      <c r="C215">
+        <v>9580.498543893405</v>
+      </c>
+      <c r="D215">
+        <v>11274.77318578896</v>
+      </c>
+      <c r="E215">
+        <v>3085.335457666732</v>
+      </c>
+      <c r="F215">
+        <v>833.2939460222749</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>551.9</v>
+      </c>
+      <c r="B216">
+        <v>32169.3898842857</v>
+      </c>
+      <c r="C216">
+        <v>8671.008813698489</v>
+      </c>
+      <c r="D216">
+        <v>8430.214781359264</v>
+      </c>
+      <c r="E216">
+        <v>2367.751499874168</v>
+      </c>
+      <c r="F216">
+        <v>1241.940064194519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>554.2</v>
+      </c>
+      <c r="B217">
+        <v>53807.48922034967</v>
+      </c>
+      <c r="C217">
+        <v>9184.152513910652</v>
+      </c>
+      <c r="D217">
+        <v>12453.49003897912</v>
+      </c>
+      <c r="E217">
+        <v>3581.811844903819</v>
+      </c>
+      <c r="F217">
+        <v>946.127014885348</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>556.4</v>
+      </c>
+      <c r="B218">
+        <v>51743.93206354135</v>
+      </c>
+      <c r="C218">
+        <v>12271.50735759189</v>
+      </c>
+      <c r="D218">
+        <v>13662.70985061553</v>
+      </c>
+      <c r="E218">
+        <v>4913.086957540892</v>
+      </c>
+      <c r="F218">
+        <v>1098.827576415706</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>559</v>
+      </c>
+      <c r="B219">
+        <v>55587.0008782224</v>
+      </c>
+      <c r="C219">
+        <v>13792.01762739698</v>
+      </c>
+      <c r="D219">
+        <v>11788.15144618584</v>
+      </c>
+      <c r="E219">
+        <v>3805.502999748329</v>
+      </c>
+      <c r="F219">
+        <v>617.4736945879465</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>560.9</v>
+      </c>
+      <c r="B220">
+        <v>55118.47424279699</v>
+      </c>
+      <c r="C220">
+        <v>14632.00590148531</v>
+      </c>
+      <c r="D220">
+        <v>12875.20491987184</v>
+      </c>
+      <c r="E220">
+        <v>4078.422415207617</v>
+      </c>
+      <c r="F220">
+        <v>1115.715088636892</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>563.5</v>
+      </c>
+      <c r="B221">
+        <v>51161.54305747805</v>
+      </c>
+      <c r="C221">
+        <v>12362.5161712904</v>
+      </c>
+      <c r="D221">
+        <v>11210.64651544211</v>
+      </c>
+      <c r="E221">
+        <v>3480.838457415053</v>
+      </c>
+      <c r="F221">
+        <v>874.3612068091368</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>565.8</v>
+      </c>
+      <c r="B222">
+        <v>44099.64239354213</v>
+      </c>
+      <c r="C222">
+        <v>12275.6598715026</v>
+      </c>
+      <c r="D222">
+        <v>8643.921773062004</v>
+      </c>
+      <c r="E222">
+        <v>2374.898802444721</v>
+      </c>
+      <c r="F222">
+        <v>928.5481574999665</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>568</v>
+      </c>
+      <c r="B223">
+        <v>38936.08523673382</v>
+      </c>
+      <c r="C223">
+        <v>9593.014715183803</v>
+      </c>
+      <c r="D223">
+        <v>8033.141584698383</v>
+      </c>
+      <c r="E223">
+        <v>2316.173915081778</v>
+      </c>
+      <c r="F223">
+        <v>931.248719030327</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>570.3</v>
+      </c>
+      <c r="B224">
+        <v>39874.18457279778</v>
+      </c>
+      <c r="C224">
+        <v>9706.158415396003</v>
+      </c>
+      <c r="D224">
+        <v>7106.416842318274</v>
+      </c>
+      <c r="E224">
+        <v>3890.234260111445</v>
+      </c>
+      <c r="F224">
+        <v>1205.435669721157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>572.9</v>
+      </c>
+      <c r="B225">
+        <v>35117.25338747884</v>
+      </c>
+      <c r="C225">
+        <v>10466.66868520109</v>
+      </c>
+      <c r="D225">
+        <v>7401.858437888574</v>
+      </c>
+      <c r="E225">
+        <v>2212.650302318882</v>
+      </c>
+      <c r="F225">
+        <v>1184.081787893397</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>575.1</v>
+      </c>
+      <c r="B226">
+        <v>41853.69623067051</v>
+      </c>
+      <c r="C226">
+        <v>11014.02352888229</v>
+      </c>
+      <c r="D226">
+        <v>7741.078249524983</v>
+      </c>
+      <c r="E226">
+        <v>2943.925414955946</v>
+      </c>
+      <c r="F226">
+        <v>1016.782349423758</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>577.4</v>
+      </c>
+      <c r="B227">
+        <v>38091.7955667346</v>
+      </c>
+      <c r="C227">
+        <v>8847.167229094492</v>
+      </c>
+      <c r="D227">
+        <v>6874.353507144845</v>
+      </c>
+      <c r="E227">
+        <v>3227.985759985606</v>
+      </c>
+      <c r="F227">
+        <v>1030.969300114588</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>579.6</v>
+      </c>
+      <c r="B228">
+        <v>34428.23840992629</v>
+      </c>
+      <c r="C228">
+        <v>8754.522072775711</v>
+      </c>
+      <c r="D228">
+        <v>8803.573318781255</v>
+      </c>
+      <c r="E228">
+        <v>2759.26087262267</v>
+      </c>
+      <c r="F228">
+        <v>1203.669861644945</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>581.9</v>
+      </c>
+      <c r="B229">
+        <v>34266.33774599025</v>
+      </c>
+      <c r="C229">
+        <v>8907.665772987912</v>
+      </c>
+      <c r="D229">
+        <v>8506.848576401124</v>
+      </c>
+      <c r="E229">
+        <v>2183.32121765233</v>
+      </c>
+      <c r="F229">
+        <v>1237.856812335778</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>584.1</v>
+      </c>
+      <c r="B230">
+        <v>29202.78058918193</v>
+      </c>
+      <c r="C230">
+        <v>7365.020616669117</v>
+      </c>
+      <c r="D230">
+        <v>8856.068388037533</v>
+      </c>
+      <c r="E230">
+        <v>2754.596330289394</v>
+      </c>
+      <c r="F230">
+        <v>1390.557373866135</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>586.7</v>
+      </c>
+      <c r="B231">
+        <v>31745.84940386299</v>
+      </c>
+      <c r="C231">
+        <v>7005.5308864742</v>
+      </c>
+      <c r="D231">
+        <v>8041.509983607825</v>
+      </c>
+      <c r="E231">
+        <v>2277.012372496831</v>
+      </c>
+      <c r="F231">
+        <v>1219.20349203838</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>588.9</v>
+      </c>
+      <c r="B232">
+        <v>31582.29224705466</v>
+      </c>
+      <c r="C232">
+        <v>5892.885730155438</v>
+      </c>
+      <c r="D232">
+        <v>8940.72979524425</v>
+      </c>
+      <c r="E232">
+        <v>1568.287485133904</v>
+      </c>
+      <c r="F232">
+        <v>1311.904053568737</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>591.2</v>
+      </c>
+      <c r="B233">
+        <v>34920.39158311875</v>
+      </c>
+      <c r="C233">
+        <v>6846.029430367606</v>
+      </c>
+      <c r="D233">
+        <v>8674.005052864104</v>
+      </c>
+      <c r="E233">
+        <v>1962.347830163555</v>
+      </c>
+      <c r="F233">
+        <v>1386.09100425957</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>593.4</v>
+      </c>
+      <c r="B234">
+        <v>40556.83442631042</v>
+      </c>
+      <c r="C234">
+        <v>6473.384274048858</v>
+      </c>
+      <c r="D234">
+        <v>9993.22486450052</v>
+      </c>
+      <c r="E234">
+        <v>2473.622942800628</v>
+      </c>
+      <c r="F234">
+        <v>928.7915657899277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>596</v>
+      </c>
+      <c r="B235">
+        <v>44399.90324099148</v>
+      </c>
+      <c r="C235">
+        <v>6633.894543853927</v>
+      </c>
+      <c r="D235">
+        <v>8748.666460070821</v>
+      </c>
+      <c r="E235">
+        <v>2606.038985008065</v>
+      </c>
+      <c r="F235">
+        <v>1057.437683962168</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
         <v>598.2</v>
       </c>
-      <c r="B215">
-        <v>50917.1341711374</v>
-      </c>
-      <c r="C215">
-        <v>3459.103997141468</v>
-      </c>
-      <c r="D215">
-        <v>65198.73117045396</v>
-      </c>
-      <c r="E215">
-        <v>4646.249785961179</v>
-      </c>
-      <c r="F215">
-        <v>1819.797508644564</v>
+      <c r="B236">
+        <v>29236.34608418305</v>
+      </c>
+      <c r="C236">
+        <v>2021.249387535147</v>
+      </c>
+      <c r="D236">
+        <v>11927.88627170723</v>
+      </c>
+      <c r="E236">
+        <v>2907.314097645129</v>
+      </c>
+      <c r="F236">
+        <v>1150.138245492529</v>
       </c>
     </row>
   </sheetData>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_repeat TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_repeat TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4702 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>90.5</v>
+        <v>111.2</v>
       </c>
       <c r="B2">
-        <v>55026.33177126871</v>
+        <v>50158.51026775564</v>
       </c>
       <c r="C2">
-        <v>3311.224779827196</v>
+        <v>5487.091340987506</v>
       </c>
       <c r="D2">
-        <v>10278.38701361517</v>
+        <v>58092.92283848226</v>
       </c>
       <c r="E2">
-        <v>1816.689240445996</v>
+        <v>4084.078417421048</v>
       </c>
       <c r="F2">
-        <v>223.7404777819386</v>
+        <v>1485.738884157149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>90.40000000000001</v>
+        <v>113.8</v>
       </c>
       <c r="B3">
-        <v>42224.67527839632</v>
+        <v>51975.43992191223</v>
       </c>
       <c r="C3">
-        <v>5625.43592329622</v>
+        <v>5707.039594016639</v>
       </c>
       <c r="D3">
-        <v>9304.331567631696</v>
+        <v>50259.04325799746</v>
       </c>
       <c r="E3">
-        <v>3083.904008053405</v>
+        <v>3679.380707844057</v>
       </c>
       <c r="F3">
-        <v>1542.254088621467</v>
+        <v>1368.492196633343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>90.40000000000001</v>
+        <v>116.3</v>
       </c>
       <c r="B4">
-        <v>17624.67527839632</v>
+        <v>48687.8722816782</v>
       </c>
       <c r="C4">
-        <v>5855.43592329622</v>
+        <v>6518.912914236957</v>
       </c>
       <c r="D4">
-        <v>10594.3315676317</v>
+        <v>44176.46673830054</v>
       </c>
       <c r="E4">
-        <v>3023.904008053405</v>
+        <v>2241.402140943097</v>
       </c>
       <c r="F4">
-        <v>1342.254088621467</v>
+        <v>1499.601150937379</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>90.40000000000001</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>14624.67527839632</v>
+        <v>39909.29923022553</v>
       </c>
       <c r="C5">
-        <v>7205.43592329622</v>
+        <v>6006.936100074905</v>
       </c>
       <c r="D5">
-        <v>11394.3315676317</v>
+        <v>36221.28409702787</v>
       </c>
       <c r="E5">
-        <v>3323.904008053405</v>
+        <v>2749.985288690059</v>
       </c>
       <c r="F5">
-        <v>1682.254088621467</v>
+        <v>1713.998821585734</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>90.5</v>
+        <v>121.2</v>
       </c>
       <c r="B6">
-        <v>18226.33177126871</v>
+        <v>39608.2397068195</v>
       </c>
       <c r="C6">
-        <v>6371.224779827196</v>
+        <v>4494.584621868782</v>
       </c>
       <c r="D6">
-        <v>12598.38701361517</v>
+        <v>32212.61675969457</v>
       </c>
       <c r="E6">
-        <v>4416.689240445996</v>
+        <v>3832.164149817215</v>
       </c>
       <c r="F6">
-        <v>1323.740477781939</v>
+        <v>1610.174701373285</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>90.5</v>
+        <v>123.4</v>
       </c>
       <c r="B7">
-        <v>25126.33177126871</v>
+        <v>22307.18018341358</v>
       </c>
       <c r="C7">
-        <v>6531.224779827196</v>
+        <v>5042.233143662659</v>
       </c>
       <c r="D7">
-        <v>11508.38701361517</v>
+        <v>29913.94942236128</v>
       </c>
       <c r="E7">
-        <v>3596.689240445996</v>
+        <v>2984.343010944371</v>
       </c>
       <c r="F7">
-        <v>2133.740477781938</v>
+        <v>1466.350581160831</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>90.40000000000001</v>
+        <v>125.5</v>
       </c>
       <c r="B8">
-        <v>21124.67527839632</v>
+        <v>19701.62336561693</v>
       </c>
       <c r="C8">
-        <v>7755.43592329622</v>
+        <v>4351.806732647737</v>
       </c>
       <c r="D8">
-        <v>12894.3315676317</v>
+        <v>26916.58514581585</v>
       </c>
       <c r="E8">
-        <v>3243.904008053405</v>
+        <v>3163.241014747566</v>
       </c>
       <c r="F8">
-        <v>2422.254088621467</v>
+        <v>1360.882102776223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>90.5</v>
+        <v>127.9</v>
       </c>
       <c r="B9">
-        <v>18626.33177126871</v>
+        <v>28209.55843099227</v>
       </c>
       <c r="C9">
-        <v>7571.224779827196</v>
+        <v>6365.605120059242</v>
       </c>
       <c r="D9">
-        <v>10338.38701361517</v>
+        <v>26125.3116869068</v>
       </c>
       <c r="E9">
-        <v>3496.689240445996</v>
+        <v>3141.981590522652</v>
       </c>
       <c r="F9">
-        <v>1913.740477781939</v>
+        <v>1920.346698908093</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>90.5</v>
+        <v>130.1</v>
       </c>
       <c r="B10">
-        <v>12026.33177126871</v>
+        <v>13008.49890758636</v>
       </c>
       <c r="C10">
-        <v>8011.224779827196</v>
+        <v>4963.253641853134</v>
       </c>
       <c r="D10">
-        <v>12498.38701361517</v>
+        <v>24556.64434957353</v>
       </c>
       <c r="E10">
-        <v>4306.689240445996</v>
+        <v>3224.160451649808</v>
       </c>
       <c r="F10">
-        <v>1753.740477781939</v>
+        <v>1036.522578695643</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>90.5</v>
+        <v>132.2</v>
       </c>
       <c r="B11">
-        <v>11126.33177126871</v>
+        <v>17102.94208978982</v>
       </c>
       <c r="C11">
-        <v>9541.224779827196</v>
+        <v>5132.827230838198</v>
       </c>
       <c r="D11">
-        <v>10888.38701361517</v>
+        <v>24909.2800730281</v>
       </c>
       <c r="E11">
-        <v>3436.689240445996</v>
+        <v>2963.058455453003</v>
       </c>
       <c r="F11">
-        <v>2163.740477781938</v>
+        <v>1161.054100311032</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>90.5</v>
+        <v>134.4</v>
       </c>
       <c r="B12">
-        <v>13426.33177126871</v>
+        <v>22501.88256638379</v>
       </c>
       <c r="C12">
-        <v>10781.2247798272</v>
+        <v>7050.475752632074</v>
       </c>
       <c r="D12">
-        <v>11748.38701361517</v>
+        <v>22590.61273569481</v>
       </c>
       <c r="E12">
-        <v>4256.689240445996</v>
+        <v>3155.237316580159</v>
       </c>
       <c r="F12">
-        <v>1493.740477781939</v>
+        <v>1447.229980098582</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>90.5</v>
+        <v>136.7</v>
       </c>
       <c r="B13">
-        <v>9026.331771268713</v>
+        <v>15305.3203373685</v>
       </c>
       <c r="C13">
-        <v>10311.2247798272</v>
+        <v>5886.19920723478</v>
       </c>
       <c r="D13">
-        <v>11938.38701361517</v>
+        <v>20640.64233757365</v>
       </c>
       <c r="E13">
-        <v>4916.689240445996</v>
+        <v>3610.697035031276</v>
       </c>
       <c r="F13">
-        <v>1833.740477781939</v>
+        <v>2015.05021805829</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>90.5</v>
+        <v>139.2</v>
       </c>
       <c r="B14">
-        <v>9326.331771268713</v>
+        <v>14117.75269713446</v>
       </c>
       <c r="C14">
-        <v>9911.224779827196</v>
+        <v>6388.0725274551</v>
       </c>
       <c r="D14">
-        <v>11278.38701361517</v>
+        <v>19198.0658178767</v>
       </c>
       <c r="E14">
-        <v>4416.689240445996</v>
+        <v>3652.718468130317</v>
       </c>
       <c r="F14">
-        <v>1953.740477781939</v>
+        <v>1416.159172362326</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>90.5</v>
+        <v>141.4</v>
       </c>
       <c r="B15">
-        <v>11626.33177126871</v>
+        <v>19116.69317372855</v>
       </c>
       <c r="C15">
-        <v>10371.2247798272</v>
+        <v>6135.721049248976</v>
       </c>
       <c r="D15">
-        <v>13378.38701361517</v>
+        <v>19139.39848054341</v>
       </c>
       <c r="E15">
-        <v>3216.689240445996</v>
+        <v>3274.89732925748</v>
       </c>
       <c r="F15">
-        <v>1613.740477781939</v>
+        <v>2612.335052149876</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>90.7</v>
+        <v>143.7</v>
       </c>
       <c r="B16">
-        <v>8329.644757013404</v>
+        <v>12420.13094471315</v>
       </c>
       <c r="C16">
-        <v>11822.80249288912</v>
+        <v>7211.444503851682</v>
       </c>
       <c r="D16">
-        <v>25456.49790558212</v>
+        <v>17229.42808242225</v>
       </c>
       <c r="E16">
-        <v>4212.259705231185</v>
+        <v>3940.357047708597</v>
       </c>
       <c r="F16">
-        <v>1796.713256102879</v>
+        <v>3130.155290109584</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>90.90000000000001</v>
+        <v>145.9</v>
       </c>
       <c r="B17">
-        <v>17732.95774275809</v>
+        <v>8519.071421307235</v>
       </c>
       <c r="C17">
-        <v>14884.38020595104</v>
+        <v>7579.093025645559</v>
       </c>
       <c r="D17">
-        <v>40354.60879754908</v>
+        <v>16570.76074508896</v>
       </c>
       <c r="E17">
-        <v>6847.830170016376</v>
+        <v>4572.535908835753</v>
       </c>
       <c r="F17">
-        <v>6619.686034423822</v>
+        <v>2836.331169897135</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>91.59999999999999</v>
+        <v>148.5</v>
       </c>
       <c r="B18">
-        <v>27544.55319286455</v>
+        <v>3536.001075463821</v>
       </c>
       <c r="C18">
-        <v>23144.90220166781</v>
+        <v>7179.041278674693</v>
       </c>
       <c r="D18">
-        <v>52112.99691943337</v>
+        <v>15206.88116460414</v>
       </c>
       <c r="E18">
-        <v>5037.326796764532</v>
+        <v>4327.838199258755</v>
       </c>
       <c r="F18">
-        <v>4790.090758547118</v>
+        <v>3979.084482373328</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>92.40000000000001</v>
+        <v>150.8</v>
       </c>
       <c r="B19">
-        <v>32857.80513584331</v>
+        <v>12439.43884644854</v>
       </c>
       <c r="C19">
-        <v>27821.21305391552</v>
+        <v>7784.764733277383</v>
       </c>
       <c r="D19">
-        <v>51655.44048730117</v>
+        <v>13756.91076648299</v>
       </c>
       <c r="E19">
-        <v>5689.608655905284</v>
+        <v>4613.297917709871</v>
       </c>
       <c r="F19">
-        <v>3511.981871830884</v>
+        <v>6596.904720333041</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>93.7</v>
+        <v>153.1</v>
       </c>
       <c r="B20">
-        <v>46079.33954318383</v>
+        <v>10742.87661743324</v>
       </c>
       <c r="C20">
-        <v>20996.46818881807</v>
+        <v>10700.48818788008</v>
       </c>
       <c r="D20">
-        <v>64298.16128508629</v>
+        <v>15336.9403683618</v>
       </c>
       <c r="E20">
-        <v>7745.816677009001</v>
+        <v>5578.757636160989</v>
       </c>
       <c r="F20">
-        <v>2511.304930917006</v>
+        <v>10114.72495829275</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>95.40000000000001</v>
+        <v>155.3</v>
       </c>
       <c r="B21">
-        <v>55907.49992201374</v>
+        <v>12341.81709402722</v>
       </c>
       <c r="C21">
-        <v>18124.87874984447</v>
+        <v>10918.13670967395</v>
       </c>
       <c r="D21">
-        <v>83547.10386680535</v>
+        <v>15678.2730310285</v>
       </c>
       <c r="E21">
-        <v>7583.1656276831</v>
+        <v>6500.936497288152</v>
       </c>
       <c r="F21">
-        <v>2756.573546645012</v>
+        <v>15320.9008380803</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>97.5</v>
+        <v>157.7</v>
       </c>
       <c r="B22">
-        <v>48242.28627233302</v>
+        <v>19749.75215940255</v>
       </c>
       <c r="C22">
-        <v>17286.44473699472</v>
+        <v>15801.93509708547</v>
       </c>
       <c r="D22">
-        <v>89582.26823245829</v>
+        <v>16966.99957211945</v>
       </c>
       <c r="E22">
-        <v>7171.655507927569</v>
+        <v>7539.677073063232</v>
       </c>
       <c r="F22">
-        <v>1987.787719014898</v>
+        <v>21410.36543421218</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>100.3</v>
+        <v>159.9</v>
       </c>
       <c r="B23">
-        <v>63388.66807275887</v>
+        <v>23348.69263599665</v>
       </c>
       <c r="C23">
-        <v>18518.53271986173</v>
+        <v>20419.58361887935</v>
       </c>
       <c r="D23">
-        <v>96175.82071999552</v>
+        <v>19018.33223478615</v>
       </c>
       <c r="E23">
-        <v>7319.642014920195</v>
+        <v>8731.855934190387</v>
       </c>
       <c r="F23">
-        <v>2749.406615508083</v>
+        <v>25286.54131399972</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>102.8</v>
+        <v>162.2</v>
       </c>
       <c r="B24">
-        <v>63330.08039456753</v>
+        <v>25952.13040698136</v>
       </c>
       <c r="C24">
-        <v>17253.25413313586</v>
+        <v>21005.30707348205</v>
       </c>
       <c r="D24">
-        <v>101487.2068695824</v>
+        <v>18198.361836665</v>
       </c>
       <c r="E24">
-        <v>7569.272824735044</v>
+        <v>9207.315652641504</v>
       </c>
       <c r="F24">
-        <v>1976.566344519855</v>
+        <v>18434.36155195943</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>105.6</v>
+        <v>164.8</v>
       </c>
       <c r="B25">
-        <v>67476.46219499326</v>
+        <v>32269.06006113794</v>
       </c>
       <c r="C25">
-        <v>18365.34211600286</v>
+        <v>18105.25532651119</v>
       </c>
       <c r="D25">
-        <v>99850.75935711959</v>
+        <v>13704.48225618019</v>
       </c>
       <c r="E25">
-        <v>6397.259331727671</v>
+        <v>6342.617943064506</v>
       </c>
       <c r="F25">
-        <v>1968.18524101304</v>
+        <v>10247.11486443563</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>108.5</v>
+        <v>167</v>
       </c>
       <c r="B26">
-        <v>64024.50048829142</v>
+        <v>15868.00053773192</v>
       </c>
       <c r="C26">
-        <v>17173.21895540085</v>
+        <v>17702.90384830506</v>
       </c>
       <c r="D26">
-        <v>95298.36729064029</v>
+        <v>11025.8149188469</v>
       </c>
       <c r="E26">
-        <v>5758.031071112893</v>
+        <v>4884.796804191662</v>
       </c>
       <c r="F26">
-        <v>2021.290526666692</v>
+        <v>7483.290744223179</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>111.2</v>
+        <v>169.3</v>
       </c>
       <c r="B27">
-        <v>52269.22579584488</v>
+        <v>15871.43830871663</v>
       </c>
       <c r="C27">
-        <v>15399.51808173689</v>
+        <v>17658.62730290775</v>
       </c>
       <c r="D27">
-        <v>88817.86433219408</v>
+        <v>8215.844520725732</v>
       </c>
       <c r="E27">
-        <v>5763.232345712932</v>
+        <v>5110.25652264278</v>
       </c>
       <c r="F27">
-        <v>1821.423033999409</v>
+        <v>6851.110982182887</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>113.8</v>
+        <v>171.6</v>
       </c>
       <c r="B28">
-        <v>54012.29461052593</v>
+        <v>17374.87607970134</v>
       </c>
       <c r="C28">
-        <v>15560.02835154198</v>
+        <v>19284.35075751046</v>
       </c>
       <c r="D28">
-        <v>80603.30592776436</v>
+        <v>7535.874122604546</v>
       </c>
       <c r="E28">
-        <v>5345.648387920376</v>
+        <v>5725.716241093904</v>
       </c>
       <c r="F28">
-        <v>1700.06915217165</v>
+        <v>5838.9312201426</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>116.3</v>
+        <v>173.8</v>
       </c>
       <c r="B29">
-        <v>50653.70693233458</v>
+        <v>11073.81655629531</v>
       </c>
       <c r="C29">
-        <v>16314.74976481609</v>
+        <v>17831.99927930434</v>
       </c>
       <c r="D29">
-        <v>74154.69207735118</v>
+        <v>6947.20678527125</v>
       </c>
       <c r="E29">
-        <v>3895.279197735218</v>
+        <v>4747.89510222106</v>
       </c>
       <c r="F29">
-        <v>1827.228881183423</v>
+        <v>5625.10709993015</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>119</v>
+        <v>176.4</v>
       </c>
       <c r="B30">
-        <v>41798.43223988805</v>
+        <v>12890.74621045201</v>
       </c>
       <c r="C30">
-        <v>15741.04889115215</v>
+        <v>21141.94753233347</v>
       </c>
       <c r="D30">
-        <v>65804.18911890496</v>
+        <v>5963.327204786459</v>
       </c>
       <c r="E30">
-        <v>4390.48047233525</v>
+        <v>4923.197392644061</v>
       </c>
       <c r="F30">
-        <v>2037.361388516135</v>
+        <v>5117.860412406343</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>121.2</v>
+        <v>178.6</v>
       </c>
       <c r="B31">
-        <v>41434.87508307972</v>
+        <v>2689.686687045978</v>
       </c>
       <c r="C31">
-        <v>14178.40373483337</v>
+        <v>20059.59605412736</v>
       </c>
       <c r="D31">
-        <v>61473.40893054137</v>
+        <v>3894.659867453178</v>
       </c>
       <c r="E31">
-        <v>5461.755584972322</v>
+        <v>5105.376253771217</v>
       </c>
       <c r="F31">
-        <v>1930.061950046492</v>
+        <v>5844.036292193894</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>123.4</v>
+        <v>180.9</v>
       </c>
       <c r="B32">
-        <v>24071.3179262714</v>
+        <v>11593.1244580307</v>
       </c>
       <c r="C32">
-        <v>14675.75857851459</v>
+        <v>22215.31950873005</v>
       </c>
       <c r="D32">
-        <v>58852.62874217775</v>
+        <v>5274.689469331992</v>
       </c>
       <c r="E32">
-        <v>4603.030697609386</v>
+        <v>5630.835972222334</v>
       </c>
       <c r="F32">
-        <v>1782.762511576854</v>
+        <v>4841.856530153605</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>125.5</v>
+        <v>183.2</v>
       </c>
       <c r="B33">
-        <v>21406.10427659068</v>
+        <v>13296.56222901541</v>
       </c>
       <c r="C33">
-        <v>13937.32456566485</v>
+        <v>20871.04296333275</v>
       </c>
       <c r="D33">
-        <v>55547.79310783069</v>
+        <v>4674.719071210828</v>
       </c>
       <c r="E33">
-        <v>4771.520577853857</v>
+        <v>4856.29569067346</v>
       </c>
       <c r="F33">
-        <v>1673.976683946739</v>
+        <v>5429.676768113313</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>127.9</v>
+        <v>185.5</v>
       </c>
       <c r="B34">
-        <v>29845.86010552705</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>15896.25712240799</v>
+        <v>21236.76641793544</v>
       </c>
       <c r="D34">
-        <v>54405.12381143406</v>
+        <v>2794.748673089656</v>
       </c>
       <c r="E34">
-        <v>4738.366155276111</v>
+        <v>4421.755409124577</v>
       </c>
       <c r="F34">
-        <v>2229.65002379804</v>
+        <v>4647.497006073026</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>130.1</v>
+        <v>187.8</v>
       </c>
       <c r="B35">
-        <v>14582.30294871873</v>
+        <v>2903.437770984718</v>
       </c>
       <c r="C35">
-        <v>14443.61196608922</v>
+        <v>23762.48987253813</v>
       </c>
       <c r="D35">
-        <v>52514.34362307045</v>
+        <v>3274.778274968485</v>
       </c>
       <c r="E35">
-        <v>4809.641267913175</v>
+        <v>5627.215127575693</v>
       </c>
       <c r="F35">
-        <v>1342.350585328401</v>
+        <v>4645.317244032738</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>132.2</v>
+        <v>190.3</v>
       </c>
       <c r="B36">
-        <v>18617.08929903813</v>
+        <v>9315.870130750678</v>
       </c>
       <c r="C36">
-        <v>14565.17795323948</v>
+        <v>20714.36319275846</v>
       </c>
       <c r="D36">
-        <v>52559.50798872338</v>
+        <v>2712.201755271555</v>
       </c>
       <c r="E36">
-        <v>4538.131148157646</v>
+        <v>4449.236560674734</v>
       </c>
       <c r="F36">
-        <v>1463.564757698291</v>
+        <v>5106.42619833677</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>134.4</v>
+        <v>192.6</v>
       </c>
       <c r="B37">
-        <v>23953.53214222981</v>
+        <v>2419.307901735388</v>
       </c>
       <c r="C37">
-        <v>16432.5327969207</v>
+        <v>20470.08664736115</v>
       </c>
       <c r="D37">
-        <v>49918.72780035979</v>
+        <v>2192.231357150384</v>
       </c>
       <c r="E37">
-        <v>4719.406260794711</v>
+        <v>4334.696279125858</v>
       </c>
       <c r="F37">
-        <v>1746.265319228648</v>
+        <v>4814.246436296482</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>136.7</v>
+        <v>194.9</v>
       </c>
       <c r="B38">
-        <v>16691.63147829377</v>
+        <v>3922.745672720106</v>
       </c>
       <c r="C38">
-        <v>15215.6764971329</v>
+        <v>21715.81010196384</v>
       </c>
       <c r="D38">
-        <v>47632.00305797965</v>
+        <v>1092.260959029227</v>
       </c>
       <c r="E38">
-        <v>5163.46660582437</v>
+        <v>3590.155997576976</v>
       </c>
       <c r="F38">
-        <v>2310.452269919478</v>
+        <v>4822.066674256193</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>139.2</v>
+        <v>197.2</v>
       </c>
       <c r="B39">
-        <v>15433.04380010254</v>
+        <v>8726.183443704693</v>
       </c>
       <c r="C39">
-        <v>15660.39791040702</v>
+        <v>22261.53355656655</v>
       </c>
       <c r="D39">
-        <v>45823.3892075665</v>
+        <v>2752.290560908048</v>
       </c>
       <c r="E39">
-        <v>5193.097415639219</v>
+        <v>3675.615716028094</v>
       </c>
       <c r="F39">
-        <v>1707.61199893125</v>
+        <v>4999.886912215902</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>141.4</v>
+        <v>199.4</v>
       </c>
       <c r="B40">
-        <v>20369.48664329411</v>
+        <v>12425.12392029879</v>
       </c>
       <c r="C40">
-        <v>15357.75275408824</v>
+        <v>22529.18207836043</v>
       </c>
       <c r="D40">
-        <v>45442.60901920289</v>
+        <v>1153.623223574759</v>
       </c>
       <c r="E40">
-        <v>4804.372528276284</v>
+        <v>4337.794577155249</v>
       </c>
       <c r="F40">
-        <v>2900.312560461611</v>
+        <v>4616.062792003452</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>143.7</v>
+        <v>202</v>
       </c>
       <c r="B41">
-        <v>13607.58597935819</v>
+        <v>15942.05357445538</v>
       </c>
       <c r="C41">
-        <v>16380.89645430043</v>
+        <v>22479.13033138956</v>
       </c>
       <c r="D41">
-        <v>43195.88427682278</v>
+        <v>429.7436430899616</v>
       </c>
       <c r="E41">
-        <v>5458.432873305944</v>
+        <v>4083.096867578251</v>
       </c>
       <c r="F41">
-        <v>3414.49951115244</v>
+        <v>4538.81610447965</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>145.9</v>
+        <v>204.3</v>
       </c>
       <c r="B42">
-        <v>9644.028822549866</v>
+        <v>19445.49134544008</v>
       </c>
       <c r="C42">
-        <v>16698.25129798165</v>
+        <v>24214.85378599225</v>
       </c>
       <c r="D42">
-        <v>42215.10408845916</v>
+        <v>1849.773244968776</v>
       </c>
       <c r="E42">
-        <v>6079.707985943009</v>
+        <v>4378.556586029368</v>
       </c>
       <c r="F42">
-        <v>3117.200072682797</v>
+        <v>5256.636342439358</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>148.5</v>
+        <v>206.6</v>
       </c>
       <c r="B43">
-        <v>4587.097637230923</v>
+        <v>29348.9291164248</v>
       </c>
       <c r="C43">
-        <v>16238.76156778673</v>
+        <v>24320.57724059496</v>
       </c>
       <c r="D43">
-        <v>40470.54568402946</v>
+        <v>2659.802846847611</v>
       </c>
       <c r="E43">
-        <v>5822.124028150445</v>
+        <v>3984.016304480485</v>
       </c>
       <c r="F43">
-        <v>4255.846190855038</v>
+        <v>4804.45658039907</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>150.8</v>
+        <v>208.9</v>
       </c>
       <c r="B44">
-        <v>13425.19697329489</v>
+        <v>44052.36688740952</v>
       </c>
       <c r="C44">
-        <v>16791.90526799893</v>
+        <v>23706.30069519765</v>
       </c>
       <c r="D44">
-        <v>38683.82094164935</v>
+        <v>2659.83244872644</v>
       </c>
       <c r="E44">
-        <v>6096.184373180105</v>
+        <v>4389.476022931611</v>
       </c>
       <c r="F44">
-        <v>6870.033141545871</v>
+        <v>4992.276818358782</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>153.1</v>
+        <v>211.2</v>
       </c>
       <c r="B45">
-        <v>11663.29630935897</v>
+        <v>69355.8046583941</v>
       </c>
       <c r="C45">
-        <v>19655.04896821111</v>
+        <v>23412.02414980035</v>
       </c>
       <c r="D45">
-        <v>39927.09619926922</v>
+        <v>89.86205060526845</v>
       </c>
       <c r="E45">
-        <v>7050.244718209764</v>
+        <v>4684.935741382728</v>
       </c>
       <c r="F45">
-        <v>10384.2200922367</v>
+        <v>5150.09705631849</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>155.3</v>
+        <v>213.4</v>
       </c>
       <c r="B46">
-        <v>13199.73915255065</v>
+        <v>94754.7451349882</v>
       </c>
       <c r="C46">
-        <v>19822.40381189233</v>
+        <v>24849.67267159423</v>
       </c>
       <c r="D46">
-        <v>39946.31601090563</v>
+        <v>2811.194713271972</v>
       </c>
       <c r="E46">
-        <v>7961.519830846835</v>
+        <v>4777.114602509884</v>
       </c>
       <c r="F46">
-        <v>15586.92065376706</v>
+        <v>4736.272936106041</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>157.7</v>
+        <v>216</v>
       </c>
       <c r="B47">
-        <v>20539.49498148702</v>
+        <v>120871.6747891448</v>
       </c>
       <c r="C47">
-        <v>24651.3363686355</v>
+        <v>24509.62092462336</v>
       </c>
       <c r="D47">
-        <v>40883.646714509</v>
+        <v>3357.31513278716</v>
       </c>
       <c r="E47">
-        <v>8988.365408269083</v>
+        <v>5292.416892932885</v>
       </c>
       <c r="F47">
-        <v>21672.59399361836</v>
+        <v>4639.026248582235</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>159.9</v>
+        <v>218.3</v>
       </c>
       <c r="B48">
-        <v>24075.9378246787</v>
+        <v>157775.1125601295</v>
       </c>
       <c r="C48">
-        <v>29218.69121231672</v>
+        <v>25545.34437922606</v>
       </c>
       <c r="D48">
-        <v>42612.86652614539</v>
+        <v>3107.34473466601</v>
       </c>
       <c r="E48">
-        <v>10169.64052090615</v>
+        <v>4117.876611384002</v>
       </c>
       <c r="F48">
-        <v>25545.29455514872</v>
+        <v>5336.846486541946</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>162.2</v>
+        <v>220.6</v>
       </c>
       <c r="B49">
-        <v>26614.03716074266</v>
+        <v>176878.5503311142</v>
       </c>
       <c r="C49">
-        <v>29751.83491252891</v>
+        <v>24851.06783382875</v>
       </c>
       <c r="D49">
-        <v>41456.14178376527</v>
+        <v>3397.374336544832</v>
       </c>
       <c r="E49">
-        <v>10633.70086593581</v>
+        <v>4913.336329835127</v>
       </c>
       <c r="F49">
-        <v>18689.48150583954</v>
+        <v>5004.666724501659</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>164.8</v>
+        <v>222.8</v>
       </c>
       <c r="B50">
-        <v>32857.10597542373</v>
+        <v>205777.4908077082</v>
       </c>
       <c r="C50">
-        <v>26792.34518233398</v>
+        <v>23598.71635562262</v>
       </c>
       <c r="D50">
-        <v>36581.58337933557</v>
+        <v>3248.706999211543</v>
       </c>
       <c r="E50">
-        <v>7756.116908143251</v>
+        <v>4035.515190962275</v>
       </c>
       <c r="F50">
-        <v>10498.12762401179</v>
+        <v>5110.842604289209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>167</v>
+        <v>225.1</v>
       </c>
       <c r="B51">
-        <v>16393.54881861541</v>
+        <v>246980.9285786929</v>
       </c>
       <c r="C51">
-        <v>26339.70002601521</v>
+        <v>25994.43981022533</v>
       </c>
       <c r="D51">
-        <v>33580.80319097196</v>
+        <v>3678.736601090364</v>
       </c>
       <c r="E51">
-        <v>6287.392020780317</v>
+        <v>4480.9749094134</v>
       </c>
       <c r="F51">
-        <v>7730.828185542152</v>
+        <v>4848.662842248918</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>169.3</v>
+        <v>227.7</v>
       </c>
       <c r="B52">
-        <v>16331.64815467949</v>
+        <v>269297.8582328495</v>
       </c>
       <c r="C52">
-        <v>26242.84372622739</v>
+        <v>25054.38806325446</v>
       </c>
       <c r="D52">
-        <v>30434.07844859184</v>
+        <v>1724.857020605559</v>
       </c>
       <c r="E52">
-        <v>6501.452365809976</v>
+        <v>4856.277199836402</v>
       </c>
       <c r="F52">
-        <v>7095.015136232981</v>
+        <v>4961.416154725111</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>171.6</v>
+        <v>230</v>
       </c>
       <c r="B53">
-        <v>17769.74749074345</v>
+        <v>311901.2960038342</v>
       </c>
       <c r="C53">
-        <v>27815.98742643959</v>
+        <v>24740.11151785717</v>
       </c>
       <c r="D53">
-        <v>29417.35370621171</v>
+        <v>1724.886622484395</v>
       </c>
       <c r="E53">
-        <v>7105.512710839635</v>
+        <v>4161.736918287519</v>
       </c>
       <c r="F53">
-        <v>6079.20208692381</v>
+        <v>4679.236392684823</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>173.8</v>
+        <v>232.2</v>
       </c>
       <c r="B54">
-        <v>11406.19033393514</v>
+        <v>350800.2364804281</v>
       </c>
       <c r="C54">
-        <v>26313.34227012081</v>
+        <v>22957.76003965105</v>
       </c>
       <c r="D54">
-        <v>28506.57351784812</v>
+        <v>2356.219285151099</v>
       </c>
       <c r="E54">
-        <v>6116.7878234767</v>
+        <v>4313.915779414683</v>
       </c>
       <c r="F54">
-        <v>5861.902648454171</v>
+        <v>4815.412272472373</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>176.4</v>
+        <v>234.6</v>
       </c>
       <c r="B55">
-        <v>13149.25914861619</v>
+        <v>377908.1715458035</v>
       </c>
       <c r="C55">
-        <v>29563.85253992589</v>
+        <v>25361.55842706255</v>
       </c>
       <c r="D55">
-        <v>27142.01511341842</v>
+        <v>14164.94582624205</v>
       </c>
       <c r="E55">
-        <v>6279.203865684138</v>
+        <v>6152.656355189762</v>
       </c>
       <c r="F55">
-        <v>5350.548766626412</v>
+        <v>4664.876868604243</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>178.6</v>
+        <v>237.1</v>
       </c>
       <c r="B56">
-        <v>2885.701991807873</v>
+        <v>412320.6039055694</v>
       </c>
       <c r="C56">
-        <v>28431.20738360712</v>
+        <v>23133.43174728287</v>
       </c>
       <c r="D56">
-        <v>24751.23492505483</v>
+        <v>1292.369306545123</v>
       </c>
       <c r="E56">
-        <v>6450.478978321209</v>
+        <v>3774.677788288801</v>
       </c>
       <c r="F56">
-        <v>6073.249328156773</v>
+        <v>4215.985822908279</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>180.9</v>
+        <v>239.4</v>
       </c>
       <c r="B57">
-        <v>11723.80132787196</v>
+        <v>451724.0416765541</v>
       </c>
       <c r="C57">
-        <v>30534.3510838193</v>
+        <v>23719.15520188556</v>
       </c>
       <c r="D57">
-        <v>25794.51018267469</v>
+        <v>2072.398908423944</v>
       </c>
       <c r="E57">
-        <v>6964.539323350869</v>
+        <v>3660.137506739919</v>
       </c>
       <c r="F57">
-        <v>5067.436278847601</v>
+        <v>3723.806060867991</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>183.2</v>
+        <v>241.7</v>
       </c>
       <c r="B58">
-        <v>13361.90066393591</v>
+        <v>501327.4794475388</v>
       </c>
       <c r="C58">
-        <v>29137.4947840315</v>
+        <v>28064.87865648825</v>
       </c>
       <c r="D58">
-        <v>24857.78544029458</v>
+        <v>2232.428510302787</v>
       </c>
       <c r="E58">
-        <v>6178.599668380529</v>
+        <v>4795.597225191036</v>
       </c>
       <c r="F58">
-        <v>5651.623229538432</v>
+        <v>4001.626298827699</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>185.5</v>
+        <v>244</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>551330.9172185234</v>
       </c>
       <c r="C59">
-        <v>29450.6384842437</v>
+        <v>24320.60211109096</v>
       </c>
       <c r="D59">
-        <v>22641.06069791446</v>
+        <v>3002.458112181615</v>
       </c>
       <c r="E59">
-        <v>5732.660013410188</v>
+        <v>3561.056943642161</v>
       </c>
       <c r="F59">
-        <v>4865.81018022926</v>
+        <v>3399.446536787412</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>187.8</v>
+        <v>246.6</v>
       </c>
       <c r="B60">
-        <v>2838.09933606397</v>
+        <v>591247.8468726801</v>
       </c>
       <c r="C60">
-        <v>31923.78218445588</v>
+        <v>25890.55036412009</v>
       </c>
       <c r="D60">
-        <v>22784.33595553434</v>
+        <v>3238.57853169681</v>
       </c>
       <c r="E60">
-        <v>6926.720358439847</v>
+        <v>4156.359234065162</v>
       </c>
       <c r="F60">
-        <v>4859.99713092009</v>
+        <v>2762.199849263606</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>190.3</v>
+        <v>248.9</v>
       </c>
       <c r="B61">
-        <v>9179.511657872739</v>
+        <v>618051.2846436647</v>
       </c>
       <c r="C61">
-        <v>28818.50359772999</v>
+        <v>24156.27381872278</v>
       </c>
       <c r="D61">
-        <v>21855.72210512116</v>
+        <v>3218.608133575632</v>
       </c>
       <c r="E61">
-        <v>5736.35116825469</v>
+        <v>3611.818952516279</v>
       </c>
       <c r="F61">
-        <v>5317.156859931863</v>
+        <v>2880.020087223317</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>192.6</v>
+        <v>251.2</v>
       </c>
       <c r="B62">
-        <v>2217.610993936702</v>
+        <v>658154.7224146496</v>
       </c>
       <c r="C62">
-        <v>28521.64729794219</v>
+        <v>25151.99727332549</v>
       </c>
       <c r="D62">
-        <v>20998.99736274104</v>
+        <v>2058.637735454467</v>
       </c>
       <c r="E62">
-        <v>5610.411513284349</v>
+        <v>3857.278670967396</v>
       </c>
       <c r="F62">
-        <v>5021.343810622691</v>
+        <v>2777.840325183026</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>194.9</v>
+        <v>253.5</v>
       </c>
       <c r="B63">
-        <v>3655.710330000671</v>
+        <v>724558.1601856342</v>
       </c>
       <c r="C63">
-        <v>29714.79099815437</v>
+        <v>23557.72072792818</v>
       </c>
       <c r="D63">
-        <v>19562.27262036091</v>
+        <v>3388.667337333303</v>
       </c>
       <c r="E63">
-        <v>4854.471858314009</v>
+        <v>4182.738389418514</v>
       </c>
       <c r="F63">
-        <v>5025.530761313525</v>
+        <v>2745.660563142738</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>197.2</v>
+        <v>255.7</v>
       </c>
       <c r="B64">
-        <v>8393.809666064757</v>
+        <v>732357.1006622282</v>
       </c>
       <c r="C64">
-        <v>30207.93469836657</v>
+        <v>24685.36924972205</v>
       </c>
       <c r="D64">
-        <v>20885.54787798079</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>4928.532203343669</v>
+        <v>3074.91725054567</v>
       </c>
       <c r="F64">
-        <v>5199.717712004353</v>
+        <v>2101.836442930288</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>199.4</v>
+        <v>258.3</v>
       </c>
       <c r="B65">
-        <v>12030.25250925643</v>
+        <v>768874.0303163849</v>
       </c>
       <c r="C65">
-        <v>30425.28954204779</v>
+        <v>23105.31750275119</v>
       </c>
       <c r="D65">
-        <v>18964.76768961719</v>
+        <v>3286.120419515195</v>
       </c>
       <c r="E65">
-        <v>5579.807315980734</v>
+        <v>3280.219540968678</v>
       </c>
       <c r="F65">
-        <v>4812.418273534711</v>
+        <v>2244.589755406482</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>202</v>
+        <v>260.6</v>
       </c>
       <c r="B66">
-        <v>15473.32132393749</v>
+        <v>790577.4680873695</v>
       </c>
       <c r="C66">
-        <v>30315.79981185286</v>
+        <v>22041.04095735388</v>
       </c>
       <c r="D66">
-        <v>17860.20928518748</v>
+        <v>2066.150021394023</v>
       </c>
       <c r="E66">
-        <v>5312.223358188177</v>
+        <v>3535.679259419795</v>
       </c>
       <c r="F66">
-        <v>4731.064391706956</v>
+        <v>2272.409993366194</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>204.3</v>
+        <v>262.9</v>
       </c>
       <c r="B67">
-        <v>18911.42066000146</v>
+        <v>785380.9058583543</v>
       </c>
       <c r="C67">
-        <v>31998.94351206506</v>
+        <v>21806.76441195659</v>
       </c>
       <c r="D67">
-        <v>18943.48454280736</v>
+        <v>1086.179623272867</v>
       </c>
       <c r="E67">
-        <v>5596.283703217829</v>
+        <v>3201.138977870914</v>
       </c>
       <c r="F67">
-        <v>5445.251342397785</v>
+        <v>1950.230231325906</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>206.6</v>
+        <v>265.2</v>
       </c>
       <c r="B68">
-        <v>28749.51999606554</v>
+        <v>789684.3436293389</v>
       </c>
       <c r="C68">
-        <v>32052.08721227726</v>
+        <v>20942.48786655929</v>
       </c>
       <c r="D68">
-        <v>19416.75980042724</v>
+        <v>76.20922515168786</v>
       </c>
       <c r="E68">
-        <v>5190.344048247496</v>
+        <v>3216.598696322031</v>
       </c>
       <c r="F68">
-        <v>4989.438293088613</v>
+        <v>1888.050469285614</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>208.9</v>
+        <v>267.5</v>
       </c>
       <c r="B69">
-        <v>43387.6193321295</v>
+        <v>765287.7814003235</v>
       </c>
       <c r="C69">
-        <v>31385.23091248944</v>
+        <v>18848.21132116198</v>
       </c>
       <c r="D69">
-        <v>19080.03505804713</v>
+        <v>2556.238827030516</v>
       </c>
       <c r="E69">
-        <v>5584.404393277149</v>
+        <v>2592.058414773148</v>
       </c>
       <c r="F69">
-        <v>5173.625243779444</v>
+        <v>2055.870707245326</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>211.2</v>
+        <v>269.7</v>
       </c>
       <c r="B70">
-        <v>68625.71866819359</v>
+        <v>715386.7218769176</v>
       </c>
       <c r="C70">
-        <v>31038.37461270162</v>
+        <v>19065.85984295586</v>
       </c>
       <c r="D70">
-        <v>16173.31031566699</v>
+        <v>1137.57148969722</v>
       </c>
       <c r="E70">
-        <v>5868.464738306816</v>
+        <v>3134.237275900311</v>
       </c>
       <c r="F70">
-        <v>5327.812194470273</v>
+        <v>1742.046587032876</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>213.4</v>
+        <v>272.3</v>
       </c>
       <c r="B71">
-        <v>93962.16151138527</v>
+        <v>655903.6515310742</v>
       </c>
       <c r="C71">
-        <v>32425.72945638284</v>
+        <v>18565.80809598499</v>
       </c>
       <c r="D71">
-        <v>18572.53012730341</v>
+        <v>1243.691909212415</v>
       </c>
       <c r="E71">
-        <v>5949.739850943881</v>
+        <v>2559.539566323313</v>
       </c>
       <c r="F71">
-        <v>4910.512756000633</v>
+        <v>1634.79989950907</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>216</v>
+        <v>274.6</v>
       </c>
       <c r="B72">
-        <v>120005.2303260663</v>
+        <v>596507.089302059</v>
       </c>
       <c r="C72">
-        <v>32026.23972618793</v>
+        <v>17001.53155058768</v>
       </c>
       <c r="D72">
-        <v>18737.9717228737</v>
+        <v>2523.721511091244</v>
       </c>
       <c r="E72">
-        <v>6452.155893151317</v>
+        <v>2874.99928477443</v>
       </c>
       <c r="F72">
-        <v>4809.158874172874</v>
+        <v>1762.620137468782</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>218.3</v>
+        <v>276.9</v>
       </c>
       <c r="B73">
-        <v>156843.3296621303</v>
+        <v>534310.5270730436</v>
       </c>
       <c r="C73">
-        <v>33009.38342640013</v>
+        <v>17447.25500519038</v>
       </c>
       <c r="D73">
-        <v>18151.24698049358</v>
+        <v>2543.75111297008</v>
       </c>
       <c r="E73">
-        <v>5266.216238180977</v>
+        <v>2980.459003225548</v>
       </c>
       <c r="F73">
-        <v>5503.345824863703</v>
+        <v>1290.440375428494</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>220.6</v>
+        <v>279.1</v>
       </c>
       <c r="B74">
-        <v>175881.4289981943</v>
+        <v>480909.4675496375</v>
       </c>
       <c r="C74">
-        <v>32262.52712661231</v>
+        <v>17074.90352698425</v>
       </c>
       <c r="D74">
-        <v>18104.52223811346</v>
+        <v>1765.083775636776</v>
       </c>
       <c r="E74">
-        <v>6050.276583210636</v>
+        <v>1142.637864352703</v>
       </c>
       <c r="F74">
-        <v>5167.532775554537</v>
+        <v>1416.616255216044</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>222.8</v>
+        <v>281.7</v>
       </c>
       <c r="B75">
-        <v>204717.8718413861</v>
+        <v>433526.3972037943</v>
       </c>
       <c r="C75">
-        <v>30959.88197029353</v>
+        <v>18204.8517800134</v>
       </c>
       <c r="D75">
-        <v>17633.74204974985</v>
+        <v>2331.204195151979</v>
       </c>
       <c r="E75">
-        <v>5161.551695847701</v>
+        <v>2657.940154775712</v>
       </c>
       <c r="F75">
-        <v>5270.233337084894</v>
+        <v>1059.369567692238</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>225.1</v>
+        <v>284</v>
       </c>
       <c r="B76">
-        <v>245855.97117745</v>
+        <v>396829.8349747789</v>
       </c>
       <c r="C76">
-        <v>33303.02567050571</v>
+        <v>16390.57523461609</v>
       </c>
       <c r="D76">
-        <v>17727.01730736973</v>
+        <v>3421.233797030807</v>
       </c>
       <c r="E76">
-        <v>5595.61204087736</v>
+        <v>2873.399873226829</v>
       </c>
       <c r="F76">
-        <v>5004.420287775727</v>
+        <v>1687.18980565195</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>227.7</v>
+        <v>286.3</v>
       </c>
       <c r="B77">
-        <v>268099.0399921311</v>
+        <v>369233.2727457635</v>
       </c>
       <c r="C77">
-        <v>32303.53594031082</v>
+        <v>19666.29868921879</v>
       </c>
       <c r="D77">
-        <v>15392.45890294003</v>
+        <v>4071.263398909636</v>
       </c>
       <c r="E77">
-        <v>5958.028083084805</v>
+        <v>2478.859591677947</v>
       </c>
       <c r="F77">
-        <v>5113.066405947968</v>
+        <v>1465.010043611659</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>230</v>
+        <v>288.6</v>
       </c>
       <c r="B78">
-        <v>310637.1393281951</v>
+        <v>355636.7105167483</v>
       </c>
       <c r="C78">
-        <v>31936.679640523</v>
+        <v>18672.02214382149</v>
       </c>
       <c r="D78">
-        <v>15055.73416055991</v>
+        <v>3971.293000788457</v>
       </c>
       <c r="E78">
-        <v>5252.088428114464</v>
+        <v>1834.319310129064</v>
       </c>
       <c r="F78">
-        <v>4827.253356638797</v>
+        <v>1082.830281571371</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>232.2</v>
+        <v>290.9</v>
       </c>
       <c r="B79">
-        <v>349473.5821713868</v>
+        <v>328740.148287733</v>
       </c>
       <c r="C79">
-        <v>30104.03448420422</v>
+        <v>17517.74559842418</v>
       </c>
       <c r="D79">
-        <v>15364.95397219631</v>
+        <v>2901.3226026673</v>
       </c>
       <c r="E79">
-        <v>5393.363540751529</v>
+        <v>1279.779028580182</v>
       </c>
       <c r="F79">
-        <v>4959.953918169154</v>
+        <v>840.6505195310828</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>234.6</v>
+        <v>293.5</v>
       </c>
       <c r="B80">
-        <v>376513.3380003232</v>
+        <v>307057.0779418896</v>
       </c>
       <c r="C80">
-        <v>32452.96704094737</v>
+        <v>20077.69385145331</v>
       </c>
       <c r="D80">
-        <v>26822.28467579968</v>
+        <v>3197.443022182488</v>
       </c>
       <c r="E80">
-        <v>7220.209118173783</v>
+        <v>1555.08131900319</v>
       </c>
       <c r="F80">
-        <v>4805.627258020455</v>
+        <v>1113.403832007276</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>237.1</v>
+        <v>295.8</v>
       </c>
       <c r="B81">
-        <v>410854.7503221318</v>
+        <v>288260.5157128743</v>
       </c>
       <c r="C81">
-        <v>30167.6884542215</v>
+        <v>18023.417306056</v>
       </c>
       <c r="D81">
-        <v>13583.6708253865</v>
+        <v>1877.472624061324</v>
       </c>
       <c r="E81">
-        <v>4829.839927988625</v>
+        <v>800.5410374543076</v>
       </c>
       <c r="F81">
-        <v>4352.786987032228</v>
+        <v>1221.224069966985</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>239.4</v>
+        <v>298</v>
       </c>
       <c r="B82">
-        <v>450192.8496581959</v>
+        <v>276059.4561894683</v>
       </c>
       <c r="C82">
-        <v>30700.83215443369</v>
+        <v>22641.0658278499</v>
       </c>
       <c r="D82">
-        <v>14026.94608300636</v>
+        <v>2178.805286728035</v>
       </c>
       <c r="E82">
-        <v>4703.900273018286</v>
+        <v>1422.719898581456</v>
       </c>
       <c r="F82">
-        <v>3856.973937723057</v>
+        <v>1187.399949754535</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>241.7</v>
+        <v>300.4</v>
       </c>
       <c r="B83">
-        <v>499730.9489942599</v>
+        <v>257667.3912548436</v>
       </c>
       <c r="C83">
-        <v>34993.97585464588</v>
+        <v>21124.86421526142</v>
       </c>
       <c r="D83">
-        <v>13850.22134062625</v>
+        <v>3837.531827818981</v>
       </c>
       <c r="E83">
-        <v>5827.960618047945</v>
+        <v>1261.460474356542</v>
       </c>
       <c r="F83">
-        <v>4131.16088841389</v>
+        <v>676.864545886409</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>244</v>
+        <v>302.6</v>
       </c>
       <c r="B84">
-        <v>549669.0483303239</v>
+        <v>248366.3317314377</v>
       </c>
       <c r="C84">
-        <v>31197.11955485805</v>
+        <v>23462.51273705528</v>
       </c>
       <c r="D84">
-        <v>14283.49659824611</v>
+        <v>4288.864490485692</v>
       </c>
       <c r="E84">
-        <v>4582.020963077604</v>
+        <v>1653.639335483698</v>
       </c>
       <c r="F84">
-        <v>3525.347839104719</v>
+        <v>803.040425673959</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>246.6</v>
+        <v>304.9</v>
       </c>
       <c r="B85">
-        <v>589512.117145005</v>
+        <v>238369.7695024224</v>
       </c>
       <c r="C85">
-        <v>32707.62982466315</v>
+        <v>24398.23619165798</v>
       </c>
       <c r="D85">
-        <v>14138.93819381641</v>
+        <v>3338.894092364513</v>
       </c>
       <c r="E85">
-        <v>5164.437005285048</v>
+        <v>1429.099053934823</v>
       </c>
       <c r="F85">
-        <v>2883.99395727696</v>
+        <v>1080.860663633668</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>248.9</v>
+        <v>307.2</v>
       </c>
       <c r="B86">
-        <v>616250.2164810692</v>
+        <v>230073.207273407</v>
       </c>
       <c r="C86">
-        <v>30920.77352487533</v>
+        <v>25493.95964626068</v>
       </c>
       <c r="D86">
-        <v>13782.2134514363</v>
+        <v>3818.923694243349</v>
       </c>
       <c r="E86">
-        <v>4608.497350314708</v>
+        <v>1824.558772385941</v>
       </c>
       <c r="F86">
-        <v>2998.180907967793</v>
+        <v>1118.68090159338</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>251.2</v>
+        <v>309.8</v>
       </c>
       <c r="B87">
-        <v>656288.3158171332</v>
+        <v>215990.1369275637</v>
       </c>
       <c r="C87">
-        <v>31863.91722508752</v>
+        <v>25793.90789928981</v>
       </c>
       <c r="D87">
-        <v>12285.48870905616</v>
+        <v>2755.044113758537</v>
       </c>
       <c r="E87">
-        <v>4842.557695344368</v>
+        <v>1619.861062808934</v>
       </c>
       <c r="F87">
-        <v>2892.367858658618</v>
+        <v>1111.434214069573</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>253.5</v>
+        <v>312.1</v>
       </c>
       <c r="B88">
-        <v>722626.4151531971</v>
+        <v>204393.5746985483</v>
       </c>
       <c r="C88">
-        <v>30217.06092529971</v>
+        <v>27439.6313538925</v>
       </c>
       <c r="D88">
-        <v>13278.76396667606</v>
+        <v>4355.07371563738</v>
       </c>
       <c r="E88">
-        <v>5156.618040374027</v>
+        <v>1945.320781260051</v>
       </c>
       <c r="F88">
-        <v>2856.554809349452</v>
+        <v>879.2544520292853</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>255.7</v>
+        <v>314.3</v>
       </c>
       <c r="B89">
-        <v>730362.8579963887</v>
+        <v>208192.5151751424</v>
       </c>
       <c r="C89">
-        <v>31294.41576898093</v>
+        <v>24757.27987568637</v>
       </c>
       <c r="D89">
-        <v>9567.983778312453</v>
+        <v>3986.406378304084</v>
       </c>
       <c r="E89">
-        <v>4037.893153011092</v>
+        <v>1487.499642387215</v>
       </c>
       <c r="F89">
-        <v>2209.255370879809</v>
+        <v>825.4303318168353</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>258.3</v>
+        <v>316.6</v>
       </c>
       <c r="B90">
-        <v>766805.9268110698</v>
+        <v>189195.9529461271</v>
       </c>
       <c r="C90">
-        <v>29654.92603878601</v>
+        <v>22953.00333028908</v>
       </c>
       <c r="D90">
-        <v>12473.42537388275</v>
+        <v>2196.435980182912</v>
       </c>
       <c r="E90">
-        <v>4230.309195218529</v>
+        <v>1062.959360838332</v>
       </c>
       <c r="F90">
-        <v>2347.901489052053</v>
+        <v>853.2505697765474</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>260.6</v>
+        <v>319.2</v>
       </c>
       <c r="B91">
-        <v>788444.0261471338</v>
+        <v>174412.8826002837</v>
       </c>
       <c r="C91">
-        <v>28538.06973899821</v>
+        <v>21402.95158331822</v>
       </c>
       <c r="D91">
-        <v>10916.70063150263</v>
+        <v>1082.5563996981</v>
       </c>
       <c r="E91">
-        <v>4474.369540248188</v>
+        <v>718.2616512613413</v>
       </c>
       <c r="F91">
-        <v>2372.088439742883</v>
+        <v>566.0038822527414</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>262.9</v>
+        <v>321.4</v>
       </c>
       <c r="B92">
-        <v>783182.125483198</v>
+        <v>169411.8230768776</v>
       </c>
       <c r="C92">
-        <v>28251.21343921039</v>
+        <v>20020.60010511211</v>
       </c>
       <c r="D92">
-        <v>9599.975889122506</v>
+        <v>3333.889062364819</v>
       </c>
       <c r="E92">
-        <v>4128.429885277856</v>
+        <v>1540.440512388497</v>
       </c>
       <c r="F92">
-        <v>2046.275390433712</v>
+        <v>712.1797620402916</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>265.2</v>
+        <v>323.7</v>
       </c>
       <c r="B93">
-        <v>787420.2248192619</v>
+        <v>163215.2608478623</v>
       </c>
       <c r="C93">
-        <v>27334.35713942258</v>
+        <v>18166.3235597148</v>
       </c>
       <c r="D93">
-        <v>8253.251146742383</v>
+        <v>1903.918664243633</v>
       </c>
       <c r="E93">
-        <v>4132.490230307508</v>
+        <v>955.9002308396143</v>
       </c>
       <c r="F93">
-        <v>1980.462341124541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>267.5</v>
+        <v>326</v>
       </c>
       <c r="B94">
-        <v>762958.3241553259</v>
+        <v>173218.6986188471</v>
       </c>
       <c r="C94">
-        <v>25187.50083963477</v>
+        <v>14772.04701431749</v>
       </c>
       <c r="D94">
-        <v>10396.52640436226</v>
+        <v>3163.948266122476</v>
       </c>
       <c r="E94">
-        <v>3496.550575337167</v>
+        <v>111.3599492907319</v>
       </c>
       <c r="F94">
-        <v>2144.64929181537</v>
+        <v>567.8202379597118</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>269.7</v>
+        <v>328.3</v>
       </c>
       <c r="B95">
-        <v>712994.7669985177</v>
+        <v>179422.1363898318</v>
       </c>
       <c r="C95">
-        <v>25354.855683316</v>
+        <v>15447.77046892018</v>
       </c>
       <c r="D95">
-        <v>8655.746215998657</v>
+        <v>5493.977868001297</v>
       </c>
       <c r="E95">
-        <v>4027.825687974232</v>
+        <v>736.8196677418491</v>
       </c>
       <c r="F95">
-        <v>1827.349853345731</v>
+        <v>515.6404759194239</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>272.3</v>
+        <v>330.6</v>
       </c>
       <c r="B96">
-        <v>653437.8358131986</v>
+        <v>170025.5741608164</v>
       </c>
       <c r="C96">
-        <v>24795.36595312108</v>
+        <v>14793.49392352287</v>
       </c>
       <c r="D96">
-        <v>8381.187811568954</v>
+        <v>5174.007469880133</v>
       </c>
       <c r="E96">
-        <v>3440.241730181669</v>
+        <v>882.2793861929663</v>
       </c>
       <c r="F96">
-        <v>1715.995971517972</v>
+        <v>653.4607138791322</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>274.6</v>
+        <v>332.9</v>
       </c>
       <c r="B97">
-        <v>593975.9351492625</v>
+        <v>167729.0119318011</v>
       </c>
       <c r="C97">
-        <v>23178.50965333327</v>
+        <v>14899.21737812558</v>
       </c>
       <c r="D97">
-        <v>9324.463069188831</v>
+        <v>4074.037071758954</v>
       </c>
       <c r="E97">
-        <v>3744.302075211328</v>
+        <v>97.73910464409164</v>
       </c>
       <c r="F97">
-        <v>1840.182922208805</v>
+        <v>701.2809518388443</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>276.9</v>
+        <v>335.4</v>
       </c>
       <c r="B98">
-        <v>531714.0344853266</v>
+        <v>172141.4442915671</v>
       </c>
       <c r="C98">
-        <v>23571.65335354546</v>
+        <v>13311.09069834591</v>
       </c>
       <c r="D98">
-        <v>9007.738326808711</v>
+        <v>2241.460552062024</v>
       </c>
       <c r="E98">
-        <v>3838.362420240996</v>
+        <v>109.7605377431314</v>
       </c>
       <c r="F98">
-        <v>1364.369872899634</v>
+        <v>1102.38990614288</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>279.1</v>
+        <v>337.7</v>
       </c>
       <c r="B99">
-        <v>478250.4773285182</v>
+        <v>171644.8820625518</v>
       </c>
       <c r="C99">
-        <v>23149.00819722667</v>
+        <v>13236.8141529486</v>
       </c>
       <c r="D99">
-        <v>7906.958138445118</v>
+        <v>4311.49015394086</v>
       </c>
       <c r="E99">
-        <v>1989.637532878056</v>
+        <v>845.2202561942486</v>
       </c>
       <c r="F99">
-        <v>1487.070434429992</v>
+        <v>80.2101441025884</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>281.7</v>
+        <v>340</v>
       </c>
       <c r="B100">
-        <v>430793.5461431994</v>
+        <v>177548.3198335365</v>
       </c>
       <c r="C100">
-        <v>24219.51846703177</v>
+        <v>14012.53760755129</v>
       </c>
       <c r="D100">
-        <v>8092.399734015419</v>
+        <v>4191.519755819696</v>
       </c>
       <c r="E100">
-        <v>3492.053575085497</v>
+        <v>840.6799746453657</v>
       </c>
       <c r="F100">
-        <v>1125.716552602236</v>
+        <v>358.0303820623003</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>284</v>
+        <v>342.3</v>
       </c>
       <c r="B101">
-        <v>394031.6454792634</v>
+        <v>176551.7576045211</v>
       </c>
       <c r="C101">
-        <v>22352.66216724395</v>
+        <v>14318.26106215398</v>
       </c>
       <c r="D101">
-        <v>8845.674991635282</v>
+        <v>3111.549357698517</v>
       </c>
       <c r="E101">
-        <v>3696.113920115156</v>
+        <v>316.1396930964834</v>
       </c>
       <c r="F101">
-        <v>1749.903503293065</v>
+        <v>135.8506200220124</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>286.3</v>
+        <v>344.6</v>
       </c>
       <c r="B102">
-        <v>366369.7448153275</v>
+        <v>162155.1953755058</v>
       </c>
       <c r="C102">
-        <v>25575.80586745614</v>
+        <v>13993.98451675667</v>
       </c>
       <c r="D102">
-        <v>9158.950249255173</v>
+        <v>5691.578959577346</v>
       </c>
       <c r="E102">
-        <v>3290.174265144816</v>
+        <v>1541.599411547601</v>
       </c>
       <c r="F102">
-        <v>1524.090453983895</v>
+        <v>613.6708579817206</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>288.6</v>
+        <v>346.9</v>
       </c>
       <c r="B103">
-        <v>352707.8441513914</v>
+        <v>168658.6331464905</v>
       </c>
       <c r="C103">
-        <v>24528.94956766832</v>
+        <v>15179.70797135938</v>
       </c>
       <c r="D103">
-        <v>8722.225506875035</v>
+        <v>5061.608561456174</v>
       </c>
       <c r="E103">
-        <v>2634.234610174475</v>
+        <v>387.0591299987182</v>
       </c>
       <c r="F103">
-        <v>1138.277404674724</v>
+        <v>501.4910959414327</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>290.9</v>
+        <v>349.4</v>
       </c>
       <c r="B104">
-        <v>325745.9434874555</v>
+        <v>167671.0655062565</v>
       </c>
       <c r="C104">
-        <v>23322.09326788053</v>
+        <v>16071.5812915797</v>
       </c>
       <c r="D104">
-        <v>7315.500764494928</v>
+        <v>5819.032041759259</v>
       </c>
       <c r="E104">
-        <v>2068.294955204139</v>
+        <v>1569.080563097766</v>
       </c>
       <c r="F104">
-        <v>892.4643553655567</v>
+        <v>642.6000502454648</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>293.5</v>
+        <v>351.7</v>
       </c>
       <c r="B105">
-        <v>303989.0123021366</v>
+        <v>170074.5032772412</v>
       </c>
       <c r="C105">
-        <v>25822.6035376856</v>
+        <v>14897.30474618239</v>
       </c>
       <c r="D105">
-        <v>7230.942360065222</v>
+        <v>5879.061643638081</v>
       </c>
       <c r="E105">
-        <v>2330.710997411576</v>
+        <v>794.5402815488828</v>
       </c>
       <c r="F105">
-        <v>1161.110473537798</v>
+        <v>470.4202882051767</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>295.8</v>
+        <v>354</v>
       </c>
       <c r="B106">
-        <v>285127.1116382005</v>
+        <v>165777.9410482259</v>
       </c>
       <c r="C106">
-        <v>23715.74723789779</v>
+        <v>14233.0282007851</v>
       </c>
       <c r="D106">
-        <v>5574.217617685083</v>
+        <v>6299.091245516909</v>
       </c>
       <c r="E106">
-        <v>1564.771342441235</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1265.297424228627</v>
+        <v>838.2405261648886</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>298</v>
+        <v>356.3</v>
       </c>
       <c r="B107">
-        <v>272863.5544813922</v>
+        <v>170281.3788192105</v>
       </c>
       <c r="C107">
-        <v>28283.10208157901</v>
+        <v>14328.75165538779</v>
       </c>
       <c r="D107">
-        <v>5553.4374293215</v>
+        <v>6479.120847395738</v>
       </c>
       <c r="E107">
-        <v>2176.0464550783</v>
+        <v>1035.459718451117</v>
       </c>
       <c r="F107">
-        <v>1227.997985758984</v>
+        <v>716.0607641246007</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>300.4</v>
+        <v>358.9</v>
       </c>
       <c r="B108">
-        <v>254403.3103103286</v>
+        <v>178898.3084733671</v>
       </c>
       <c r="C108">
-        <v>26712.03463832218</v>
+        <v>14548.69990841692</v>
       </c>
       <c r="D108">
-        <v>6860.768132924854</v>
+        <v>6535.24126691094</v>
       </c>
       <c r="E108">
-        <v>2002.892032500555</v>
+        <v>2390.762008874119</v>
       </c>
       <c r="F108">
-        <v>713.6713256102853</v>
+        <v>868.8140766007947</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>302.6</v>
+        <v>360.8</v>
       </c>
       <c r="B109">
-        <v>245039.7531535202</v>
+        <v>179583.7570667893</v>
       </c>
       <c r="C109">
-        <v>28999.38948200339</v>
+        <v>15072.12363178435</v>
       </c>
       <c r="D109">
-        <v>6989.987944561249</v>
+        <v>8610.48311194127</v>
       </c>
       <c r="E109">
-        <v>2384.167145137619</v>
+        <v>3763.098298029391</v>
       </c>
       <c r="F109">
-        <v>836.3718871406461</v>
+        <v>310.0568818718593</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>304.9</v>
+        <v>363.4</v>
       </c>
       <c r="B110">
-        <v>234977.8524895844</v>
+        <v>176000.6867209459</v>
       </c>
       <c r="C110">
-        <v>29882.53318221559</v>
+        <v>15522.07188481349</v>
       </c>
       <c r="D110">
-        <v>5703.263202181132</v>
+        <v>9206.603531456472</v>
       </c>
       <c r="E110">
-        <v>2148.227490167279</v>
+        <v>2308.400588452399</v>
       </c>
       <c r="F110">
-        <v>1110.558837831476</v>
+        <v>912.8101943480532</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>307.2</v>
+        <v>365.7</v>
       </c>
       <c r="B111">
-        <v>226615.9518256483</v>
+        <v>178104.1244919306</v>
       </c>
       <c r="C111">
-        <v>30925.67688242777</v>
+        <v>14647.79533941618</v>
       </c>
       <c r="D111">
-        <v>5846.538459801005</v>
+        <v>10396.6331333353</v>
       </c>
       <c r="E111">
-        <v>2532.287835196942</v>
+        <v>4103.860306903517</v>
       </c>
       <c r="F111">
-        <v>1144.745788522305</v>
+        <v>600.6304323077651</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>309.8</v>
+        <v>368</v>
       </c>
       <c r="B112">
-        <v>212459.0206403294</v>
+        <v>186907.5622629152</v>
       </c>
       <c r="C112">
-        <v>31166.18715223285</v>
+        <v>16583.51879401888</v>
       </c>
       <c r="D112">
-        <v>4401.980055371302</v>
+        <v>11526.66273521412</v>
       </c>
       <c r="E112">
-        <v>2314.703877404379</v>
+        <v>3779.320025354634</v>
       </c>
       <c r="F112">
-        <v>1133.391906694549</v>
+        <v>908.4506702674772</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>312.1</v>
+        <v>370.6</v>
       </c>
       <c r="B113">
-        <v>200797.1199763935</v>
+        <v>192124.4919170717</v>
       </c>
       <c r="C113">
-        <v>32759.33085244504</v>
+        <v>16163.467047048</v>
       </c>
       <c r="D113">
-        <v>5665.255312991178</v>
+        <v>12192.78315472933</v>
       </c>
       <c r="E113">
-        <v>2628.764222434038</v>
+        <v>4894.622315777643</v>
       </c>
       <c r="F113">
-        <v>897.5788573853783</v>
+        <v>601.203982743671</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>314.3</v>
+        <v>372.9</v>
       </c>
       <c r="B114">
-        <v>204533.5628195851</v>
+        <v>192827.9296880565</v>
       </c>
       <c r="C114">
-        <v>30026.68569612627</v>
+        <v>15869.19050165073</v>
       </c>
       <c r="D114">
-        <v>4974.475124627576</v>
+        <v>13942.81275660814</v>
       </c>
       <c r="E114">
-        <v>2160.039335071103</v>
+        <v>6270.082034228761</v>
       </c>
       <c r="F114">
-        <v>840.2794189157357</v>
+        <v>589.0242207033831</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>316.6</v>
+        <v>375.1</v>
       </c>
       <c r="B115">
-        <v>185471.6621556491</v>
+        <v>190226.8701646506</v>
       </c>
       <c r="C115">
-        <v>28169.82939633846</v>
+        <v>14476.8390234446</v>
       </c>
       <c r="D115">
-        <v>2847.750382247453</v>
+        <v>15314.14541927485</v>
       </c>
       <c r="E115">
-        <v>1724.099680100762</v>
+        <v>7062.260895355908</v>
       </c>
       <c r="F115">
-        <v>864.4663696065686</v>
+        <v>765.2001004909295</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>319.2</v>
+        <v>377.4</v>
       </c>
       <c r="B116">
-        <v>170614.7309703301</v>
+        <v>198330.3079356353</v>
       </c>
       <c r="C116">
-        <v>26560.33966614354</v>
+        <v>15202.56247804729</v>
       </c>
       <c r="D116">
-        <v>1353.191977817754</v>
+        <v>18204.17502115369</v>
       </c>
       <c r="E116">
-        <v>1366.515722308203</v>
+        <v>9437.720613807034</v>
       </c>
       <c r="F116">
-        <v>573.1124877788097</v>
+        <v>683.0203384506416</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>321.4</v>
+        <v>379.7</v>
       </c>
       <c r="B117">
-        <v>165551.1738135219</v>
+        <v>197933.7457066199</v>
       </c>
       <c r="C117">
-        <v>25127.69450982477</v>
+        <v>12988.28593264999</v>
       </c>
       <c r="D117">
-        <v>3282.41178945417</v>
+        <v>17974.20462303252</v>
       </c>
       <c r="E117">
-        <v>2177.790834945272</v>
+        <v>10413.18033225815</v>
       </c>
       <c r="F117">
-        <v>715.8130493091708</v>
+        <v>460.8405764103535</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>323.7</v>
+        <v>382.3</v>
       </c>
       <c r="B118">
-        <v>159289.2731495859</v>
+        <v>191150.6753607765</v>
       </c>
       <c r="C118">
-        <v>23220.83821003696</v>
+        <v>12688.23418567912</v>
       </c>
       <c r="D118">
-        <v>1515.687047074047</v>
+        <v>20650.32504254772</v>
       </c>
       <c r="E118">
-        <v>1581.851179974931</v>
+        <v>11958.48262268115</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>743.5938888865475</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>326</v>
+        <v>384.6</v>
       </c>
       <c r="B119">
-        <v>169227.3724856499</v>
+        <v>200554.1131317612</v>
       </c>
       <c r="C119">
-        <v>19773.98191024915</v>
+        <v>12323.95764028181</v>
       </c>
       <c r="D119">
-        <v>2438.962304693919</v>
+        <v>25200.35464442654</v>
       </c>
       <c r="E119">
-        <v>725.9115250045868</v>
+        <v>14443.94234113227</v>
       </c>
       <c r="F119">
-        <v>564.186950690829</v>
+        <v>881.4141268462594</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>328.3</v>
+        <v>386.8</v>
       </c>
       <c r="B120">
-        <v>175365.471821714</v>
+        <v>227953.0536083553</v>
       </c>
       <c r="C120">
-        <v>20397.12561046133</v>
+        <v>14801.6061620757</v>
       </c>
       <c r="D120">
-        <v>4432.237562313795</v>
+        <v>28991.68730709324</v>
       </c>
       <c r="E120">
-        <v>1339.971870034246</v>
+        <v>17986.12120225943</v>
       </c>
       <c r="F120">
-        <v>508.3739013816582</v>
+        <v>917.5900066338096</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>330.6</v>
+        <v>389.1</v>
       </c>
       <c r="B121">
-        <v>165903.5711577779</v>
+        <v>234556.49137934</v>
       </c>
       <c r="C121">
-        <v>19690.26931067351</v>
+        <v>13577.32961667839</v>
       </c>
       <c r="D121">
-        <v>3775.512819933671</v>
+        <v>32561.71690897208</v>
       </c>
       <c r="E121">
-        <v>1474.032215063906</v>
+        <v>21611.58092071055</v>
       </c>
       <c r="F121">
-        <v>642.5608520724875</v>
+        <v>615.4102445935179</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>332.9</v>
+        <v>391.4</v>
       </c>
       <c r="B122">
-        <v>163541.6704938419</v>
+        <v>245559.9291503245</v>
       </c>
       <c r="C122">
-        <v>19743.41301088571</v>
+        <v>13643.0530712811</v>
       </c>
       <c r="D122">
-        <v>2338.788077553551</v>
+        <v>39021.74651085089</v>
       </c>
       <c r="E122">
-        <v>678.0925600935659</v>
+        <v>26117.04063916167</v>
       </c>
       <c r="F122">
-        <v>686.7478027633204</v>
+        <v>263.2304825532301</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>335.4</v>
+        <v>394</v>
       </c>
       <c r="B123">
-        <v>167883.0828156507</v>
+        <v>272476.8588044812</v>
       </c>
       <c r="C123">
-        <v>18098.13442415984</v>
+        <v>15093.00132431023</v>
       </c>
       <c r="D123">
-        <v>140.1742271403746</v>
+        <v>42507.86693036612</v>
       </c>
       <c r="E123">
-        <v>677.7233699084152</v>
+        <v>32582.34292958468</v>
       </c>
       <c r="F123">
-        <v>1083.90753177509</v>
+        <v>715.983795029424</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>337.7</v>
+        <v>395.9</v>
       </c>
       <c r="B124">
-        <v>167321.1821517147</v>
+        <v>296362.3073979034</v>
       </c>
       <c r="C124">
-        <v>17971.27812437202</v>
+        <v>15626.42504767767</v>
       </c>
       <c r="D124">
-        <v>1873.449484760246</v>
+        <v>51793.10877539644</v>
       </c>
       <c r="E124">
-        <v>1401.783714938071</v>
+        <v>39974.67921873995</v>
       </c>
       <c r="F124">
-        <v>58.09448246592228</v>
+        <v>587.2266003004885</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>340</v>
+        <v>398.5</v>
       </c>
       <c r="B125">
-        <v>173159.2814877787</v>
+        <v>321479.23705206</v>
       </c>
       <c r="C125">
-        <v>18694.4218245842</v>
+        <v>15026.3733007068</v>
       </c>
       <c r="D125">
-        <v>1416.724742380124</v>
+        <v>60439.22919491163</v>
       </c>
       <c r="E125">
-        <v>1385.84405996773</v>
+        <v>45309.98150916294</v>
       </c>
       <c r="F125">
-        <v>332.2814331567515</v>
+        <v>629.9799127766861</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>342.3</v>
+        <v>400.8</v>
       </c>
       <c r="B126">
-        <v>172097.3808238427</v>
+        <v>331082.6748230447</v>
       </c>
       <c r="C126">
-        <v>18947.56552479639</v>
+        <v>12572.09675530949</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>68669.25879679047</v>
       </c>
       <c r="E126">
-        <v>849.9044049973897</v>
+        <v>54575.44122761406</v>
       </c>
       <c r="F126">
-        <v>106.4683838475808</v>
+        <v>1147.800150736398</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>344.6</v>
+        <v>403</v>
       </c>
       <c r="B127">
-        <v>157635.4801599068</v>
+        <v>376881.6152996387</v>
       </c>
       <c r="C127">
-        <v>18570.70922500858</v>
+        <v>12679.74527710338</v>
       </c>
       <c r="D127">
-        <v>2243.275257619875</v>
+        <v>77630.59145945718</v>
       </c>
       <c r="E127">
-        <v>2063.964750027049</v>
+        <v>65047.62008874122</v>
       </c>
       <c r="F127">
-        <v>580.6553345384098</v>
+        <v>533.9760305239446</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>346.9</v>
+        <v>405.6</v>
       </c>
       <c r="B128">
-        <v>164073.5794959707</v>
+        <v>423098.5449537952</v>
       </c>
       <c r="C128">
-        <v>19703.85292522078</v>
+        <v>14849.6935301325</v>
       </c>
       <c r="D128">
-        <v>1276.550515239771</v>
+        <v>89286.71187897238</v>
       </c>
       <c r="E128">
-        <v>898.0250950567095</v>
+        <v>75692.92237916423</v>
       </c>
       <c r="F128">
-        <v>464.8422852292392</v>
+        <v>676.7293430001383</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>349.4</v>
+        <v>407.6</v>
       </c>
       <c r="B129">
-        <v>163014.9918177795</v>
+        <v>474888.490841608</v>
       </c>
       <c r="C129">
-        <v>20538.57433849489</v>
+        <v>15421.19218630876</v>
       </c>
       <c r="D129">
-        <v>1667.93666482659</v>
+        <v>108280.6506632148</v>
       </c>
       <c r="E129">
-        <v>2067.655904871559</v>
+        <v>94308.53952564346</v>
       </c>
       <c r="F129">
-        <v>602.0020142410119</v>
+        <v>889.6165064433684</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>351.7</v>
+        <v>410.1</v>
       </c>
       <c r="B130">
-        <v>165353.0911538434</v>
+        <v>554500.923201374</v>
       </c>
       <c r="C130">
-        <v>19311.71803870708</v>
+        <v>16283.0655065291</v>
       </c>
       <c r="D130">
-        <v>1391.211922446466</v>
+        <v>125618.0741435179</v>
       </c>
       <c r="E130">
-        <v>1281.716249901214</v>
+        <v>113130.5609587425</v>
       </c>
       <c r="F130">
-        <v>426.1889649318412</v>
+        <v>1100.725460747401</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>354</v>
+        <v>412.4</v>
       </c>
       <c r="B131">
-        <v>160991.1904899076</v>
+        <v>631904.3609723586</v>
       </c>
       <c r="C131">
-        <v>18594.86173891927</v>
+        <v>12518.78896113179</v>
       </c>
       <c r="D131">
-        <v>1474.487180066342</v>
+        <v>145748.1037453968</v>
       </c>
       <c r="E131">
-        <v>475.7765949308741</v>
+        <v>140626.0206771937</v>
       </c>
       <c r="F131">
-        <v>790.375915622674</v>
+        <v>718.5456987071092</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>356.3</v>
+        <v>414.7</v>
       </c>
       <c r="B132">
-        <v>165429.2898259715</v>
+        <v>734407.7987433434</v>
       </c>
       <c r="C132">
-        <v>18638.00543913146</v>
+        <v>10064.51241573448</v>
       </c>
       <c r="D132">
-        <v>1317.762437686204</v>
+        <v>169968.1333472756</v>
       </c>
       <c r="E132">
-        <v>1499.836939960533</v>
+        <v>178751.4803956448</v>
       </c>
       <c r="F132">
-        <v>664.562866313503</v>
+        <v>976.3659366668247</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>358.9</v>
+        <v>416.9</v>
       </c>
       <c r="B133">
-        <v>173972.3586406526</v>
+        <v>876506.7392199375</v>
       </c>
       <c r="C133">
-        <v>18798.51570893654</v>
+        <v>12252.16093752837</v>
       </c>
       <c r="D133">
-        <v>993.2040332565193</v>
+        <v>204399.4660099423</v>
       </c>
       <c r="E133">
-        <v>2842.252982167975</v>
+        <v>225213.6592567719</v>
       </c>
       <c r="F133">
-        <v>813.2089844857442</v>
+        <v>562.5418164543713</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>360.8</v>
+        <v>419.2</v>
       </c>
       <c r="B134">
-        <v>174603.8320052273</v>
+        <v>1080310.176990922</v>
       </c>
       <c r="C134">
-        <v>19278.50398302486</v>
+        <v>14167.88439213106</v>
       </c>
       <c r="D134">
-        <v>2790.257506942492</v>
+        <v>244599.4956118211</v>
       </c>
       <c r="E134">
-        <v>4205.172397627254</v>
+        <v>327109.1189752229</v>
       </c>
       <c r="F134">
-        <v>251.4503785346897</v>
+        <v>1630.362054414083</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>363.4</v>
+        <v>421.8</v>
       </c>
       <c r="B135">
-        <v>170946.9008199084</v>
+        <v>1507627.106645079</v>
       </c>
       <c r="C135">
-        <v>19669.01425282996</v>
+        <v>16427.83264516019</v>
       </c>
       <c r="D135">
-        <v>3005.699102512793</v>
+        <v>303325.6160313362</v>
       </c>
       <c r="E135">
-        <v>2737.588439834706</v>
+        <v>570224.421265646</v>
       </c>
       <c r="F135">
-        <v>850.0964967069344</v>
+        <v>1673.115366890281</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>365.7</v>
+        <v>423.7</v>
       </c>
       <c r="B136">
-        <v>172985.0001559723</v>
+        <v>2419612.555238501</v>
       </c>
       <c r="C136">
-        <v>18742.15795304214</v>
+        <v>19261.25636852765</v>
       </c>
       <c r="D136">
-        <v>3858.974360132669</v>
+        <v>378230.8578763666</v>
       </c>
       <c r="E136">
-        <v>4521.648784864358</v>
+        <v>1274146.757554801</v>
       </c>
       <c r="F136">
-        <v>534.2834473977637</v>
+        <v>3444.358172161342</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>368</v>
+        <v>426.4</v>
       </c>
       <c r="B137">
-        <v>181723.0994920364</v>
+        <v>4024133.982187049</v>
       </c>
       <c r="C137">
-        <v>20625.30165325433</v>
+        <v>20019.2795543656</v>
       </c>
       <c r="D137">
-        <v>4652.249617752545</v>
+        <v>426655.6752350939</v>
       </c>
       <c r="E137">
-        <v>4185.709129894018</v>
+        <v>1099955.340702548</v>
       </c>
       <c r="F137">
-        <v>838.4703980885927</v>
+        <v>2258.755842809697</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>370.6</v>
+        <v>428.6</v>
       </c>
       <c r="B138">
-        <v>186866.1683067174</v>
+        <v>3037532.922663642</v>
       </c>
       <c r="C138">
-        <v>20145.81192305941</v>
+        <v>18256.92807615947</v>
       </c>
       <c r="D138">
-        <v>4937.691213322842</v>
+        <v>408887.0078977606</v>
       </c>
       <c r="E138">
-        <v>5288.125172101461</v>
+        <v>508047.5195636754</v>
       </c>
       <c r="F138">
-        <v>527.1165162608372</v>
+        <v>2084.931722597251</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>372.9</v>
+        <v>430.9</v>
       </c>
       <c r="B139">
-        <v>187504.2676427814</v>
+        <v>1833436.360434627</v>
       </c>
       <c r="C139">
-        <v>19798.95562327161</v>
+        <v>18552.65153076216</v>
       </c>
       <c r="D139">
-        <v>6350.966470942722</v>
+        <v>380967.0374996394</v>
       </c>
       <c r="E139">
-        <v>6652.185517131122</v>
+        <v>226472.9792821266</v>
       </c>
       <c r="F139">
-        <v>511.303466951663</v>
+        <v>1252.75196055696</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>375.1</v>
+        <v>433.1</v>
       </c>
       <c r="B140">
-        <v>184840.7104859731</v>
+        <v>1089935.300911221</v>
       </c>
       <c r="C140">
-        <v>18356.31046695282</v>
+        <v>15870.30005255604</v>
       </c>
       <c r="D140">
-        <v>7400.186282579117</v>
+        <v>361678.3701623062</v>
       </c>
       <c r="E140">
-        <v>7433.460629768178</v>
+        <v>134975.1581432537</v>
       </c>
       <c r="F140">
-        <v>684.0040284820238</v>
+        <v>1028.92784034451</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>377.4</v>
+        <v>435.7</v>
       </c>
       <c r="B141">
-        <v>192878.8098220372</v>
+        <v>851852.2305653774</v>
       </c>
       <c r="C141">
-        <v>19029.45416716502</v>
+        <v>16770.24830558519</v>
       </c>
       <c r="D141">
-        <v>9953.461540198998</v>
+        <v>328194.4905818213</v>
       </c>
       <c r="E141">
-        <v>9797.520974797846</v>
+        <v>100800.4604336767</v>
       </c>
       <c r="F141">
-        <v>598.1909791728533</v>
+        <v>1181.681152820704</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>379.7</v>
+        <v>438</v>
       </c>
       <c r="B142">
-        <v>192416.9091581011</v>
+        <v>704755.6683363622</v>
       </c>
       <c r="C142">
-        <v>16762.59786737722</v>
+        <v>19175.97176018788</v>
       </c>
       <c r="D142">
-        <v>9386.736797818889</v>
+        <v>304944.5201837002</v>
       </c>
       <c r="E142">
-        <v>10761.5813198275</v>
+        <v>83615.9201521278</v>
       </c>
       <c r="F142">
-        <v>372.3779298636859</v>
+        <v>1599.501390780416</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>382.3</v>
+        <v>440.2</v>
       </c>
       <c r="B143">
-        <v>185559.9779727822</v>
+        <v>635854.6088129561</v>
       </c>
       <c r="C143">
-        <v>16403.10813718228</v>
+        <v>18413.62028198176</v>
       </c>
       <c r="D143">
-        <v>11682.17839338917</v>
+        <v>278425.8528463669</v>
       </c>
       <c r="E143">
-        <v>12293.99736203494</v>
+        <v>75418.09901325496</v>
       </c>
       <c r="F143">
-        <v>651.0240480359269</v>
+        <v>1155.677270567962</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>384.6</v>
+        <v>442.5</v>
       </c>
       <c r="B144">
-        <v>194898.0773088463</v>
+        <v>571258.0465839407</v>
       </c>
       <c r="C144">
-        <v>15986.25183739447</v>
+        <v>21309.34373658446</v>
       </c>
       <c r="D144">
-        <v>15895.45365100905</v>
+        <v>247165.8824482458</v>
       </c>
       <c r="E144">
-        <v>14768.0577070646</v>
+        <v>66513.55873170609</v>
       </c>
       <c r="F144">
-        <v>785.2109987267559</v>
+        <v>1263.497508527678</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>386.8</v>
+        <v>444.8</v>
       </c>
       <c r="B145">
-        <v>222234.520152038</v>
+        <v>518761.4843549256</v>
       </c>
       <c r="C145">
-        <v>18413.6066810757</v>
+        <v>17485.06719118715</v>
       </c>
       <c r="D145">
-        <v>19364.67346264546</v>
+        <v>216525.9120501245</v>
       </c>
       <c r="E145">
-        <v>18299.33281970167</v>
+        <v>59609.01845015719</v>
       </c>
       <c r="F145">
-        <v>817.9115602571171</v>
+        <v>601.3177464873862</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>389.1</v>
+        <v>447.4</v>
       </c>
       <c r="B146">
-        <v>228772.6194881019</v>
+        <v>468578.4140090822</v>
       </c>
       <c r="C146">
-        <v>17136.75038128789</v>
+        <v>16695.01544421629</v>
       </c>
       <c r="D146">
-        <v>22597.94872026532</v>
+        <v>188152.0324696398</v>
       </c>
       <c r="E146">
-        <v>21913.39316473133</v>
+        <v>53174.3207405802</v>
       </c>
       <c r="F146">
-        <v>512.0985109479461</v>
+        <v>1424.07105896358</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>391.4</v>
+        <v>449.6</v>
       </c>
       <c r="B147">
-        <v>239710.718824166</v>
+        <v>409677.3544856762</v>
       </c>
       <c r="C147">
-        <v>17149.89408150009</v>
+        <v>15722.66396601016</v>
       </c>
       <c r="D147">
-        <v>28721.22397788522</v>
+        <v>162733.3651323065</v>
       </c>
       <c r="E147">
-        <v>26407.45350976099</v>
+        <v>50136.49960170736</v>
       </c>
       <c r="F147">
-        <v>156.2854616387756</v>
+        <v>1030.246938751134</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>394</v>
+        <v>451.6</v>
       </c>
       <c r="B148">
-        <v>266553.7876388471</v>
+        <v>382367.300373489</v>
       </c>
       <c r="C148">
-        <v>18540.40435130515</v>
+        <v>15014.16262218642</v>
       </c>
       <c r="D148">
-        <v>31826.66557345551</v>
+        <v>142197.303916549</v>
       </c>
       <c r="E148">
-        <v>32859.86955196843</v>
+        <v>46402.11674818659</v>
       </c>
       <c r="F148">
-        <v>604.9315798110165</v>
+        <v>583.1341021943564</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>395.9</v>
+        <v>454.1</v>
       </c>
       <c r="B149">
-        <v>290385.2610034216</v>
+        <v>346879.732733255</v>
       </c>
       <c r="C149">
-        <v>19030.39262539349</v>
+        <v>16876.03594240674</v>
       </c>
       <c r="D149">
-        <v>40833.71904714149</v>
+        <v>126364.727396852</v>
       </c>
       <c r="E149">
-        <v>40242.78896742772</v>
+        <v>43084.13818128563</v>
       </c>
       <c r="F149">
-        <v>473.1729738599659</v>
+        <v>854.2430564983921</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>398.5</v>
+        <v>456.4</v>
       </c>
       <c r="B150">
-        <v>315428.3298181027</v>
+        <v>329983.1705042396</v>
       </c>
       <c r="C150">
-        <v>18370.90289519857</v>
+        <v>16461.75939700945</v>
       </c>
       <c r="D150">
-        <v>49099.16064271179</v>
+        <v>114044.7569987309</v>
       </c>
       <c r="E150">
-        <v>45565.20500963515</v>
+        <v>39889.59789973676</v>
       </c>
       <c r="F150">
-        <v>511.8190920322068</v>
+        <v>1212.063294458105</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>400.8</v>
+        <v>459</v>
       </c>
       <c r="B151">
-        <v>324966.4291541668</v>
+        <v>304000.1001583962</v>
       </c>
       <c r="C151">
-        <v>15864.04659541076</v>
+        <v>15821.70765003857</v>
       </c>
       <c r="D151">
-        <v>56992.43590033164</v>
+        <v>106780.877418246</v>
       </c>
       <c r="E151">
-        <v>54819.26535466481</v>
+        <v>37164.90019015976</v>
       </c>
       <c r="F151">
-        <v>1026.006042723039</v>
+        <v>744.8166069342984</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>403</v>
+        <v>461.3</v>
       </c>
       <c r="B152">
-        <v>370702.8719973583</v>
+        <v>272303.5379293808</v>
       </c>
       <c r="C152">
-        <v>15921.40143909198</v>
+        <v>15397.43110464127</v>
       </c>
       <c r="D152">
-        <v>65631.65571196805</v>
+        <v>99770.90702012488</v>
       </c>
       <c r="E152">
-        <v>65280.54046730187</v>
+        <v>33640.35990861087</v>
       </c>
       <c r="F152">
-        <v>408.706604253397</v>
+        <v>852.6368448940067</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>405.6</v>
+        <v>463.6</v>
       </c>
       <c r="B153">
-        <v>416845.9408120395</v>
+        <v>267406.9757003656</v>
       </c>
       <c r="C153">
-        <v>18031.91170889706</v>
+        <v>15003.15455924397</v>
       </c>
       <c r="D153">
-        <v>76907.09730753837</v>
+        <v>97600.9366220037</v>
       </c>
       <c r="E153">
-        <v>75912.95650950933</v>
+        <v>32435.819627062</v>
       </c>
       <c r="F153">
-        <v>547.3527224256413</v>
+        <v>980.4570828537222</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>407.6</v>
+        <v>465.9</v>
       </c>
       <c r="B154">
-        <v>468579.0706694864</v>
+        <v>249510.4134713503</v>
       </c>
       <c r="C154">
-        <v>18557.68883951636</v>
+        <v>15018.87801384666</v>
       </c>
       <c r="D154">
-        <v>95608.20622720782</v>
+        <v>93140.96622388254</v>
       </c>
       <c r="E154">
-        <v>94518.6611573612</v>
+        <v>32291.27934551313</v>
       </c>
       <c r="F154">
-        <v>757.0805056350553</v>
+        <v>1038.27732081343</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>410.1</v>
+        <v>468.1</v>
       </c>
       <c r="B155">
-        <v>548120.4829912951</v>
+        <v>241509.3539479442</v>
       </c>
       <c r="C155">
-        <v>19362.41025279048</v>
+        <v>13486.52653564053</v>
       </c>
       <c r="D155">
-        <v>112579.5923767946</v>
+        <v>92332.29888654925</v>
       </c>
       <c r="E155">
-        <v>113328.2919671761</v>
+        <v>29793.45820664028</v>
       </c>
       <c r="F155">
-        <v>964.240234646828</v>
+        <v>474.4532006009805</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>412.4</v>
+        <v>470.4</v>
       </c>
       <c r="B156">
-        <v>625458.5823273592</v>
+        <v>230312.791718929</v>
       </c>
       <c r="C156">
-        <v>15545.55395300268</v>
+        <v>13402.24999024324</v>
       </c>
       <c r="D156">
-        <v>132372.8676344145</v>
+        <v>91662.32848842806</v>
       </c>
       <c r="E156">
-        <v>140812.3523122057</v>
+        <v>29278.91792509139</v>
       </c>
       <c r="F156">
-        <v>578.4271853376574</v>
+        <v>902.2734385606892</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>414.7</v>
+        <v>472.7</v>
       </c>
       <c r="B157">
-        <v>727896.6816634232</v>
+        <v>231816.2294899137</v>
       </c>
       <c r="C157">
-        <v>13038.69765321487</v>
+        <v>14407.97344484593</v>
       </c>
       <c r="D157">
-        <v>156256.1428920344</v>
+        <v>88712.35809030691</v>
       </c>
       <c r="E157">
-        <v>178926.4126572354</v>
+        <v>28144.37764354251</v>
       </c>
       <c r="F157">
-        <v>832.6141360284867</v>
+        <v>1050.093676520401</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>416.9</v>
+        <v>475.3</v>
       </c>
       <c r="B158">
-        <v>869933.124506615</v>
+        <v>219833.1591440703</v>
       </c>
       <c r="C158">
-        <v>15176.05249689609</v>
+        <v>12407.92169787506</v>
       </c>
       <c r="D158">
-        <v>190365.3627036708</v>
+        <v>85128.47850982209</v>
       </c>
       <c r="E158">
-        <v>225377.6877698724</v>
+        <v>25329.67993396552</v>
       </c>
       <c r="F158">
-        <v>415.3146975588477</v>
+        <v>1092.846988996595</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>419.2</v>
+        <v>477.6</v>
       </c>
       <c r="B159">
-        <v>1073671.223842679</v>
+        <v>206836.596915055</v>
       </c>
       <c r="C159">
-        <v>17039.19619710827</v>
+        <v>13053.64515247775</v>
       </c>
       <c r="D159">
-        <v>230228.6379612907</v>
+        <v>82148.50811170094</v>
       </c>
       <c r="E159">
-        <v>327261.7481149021</v>
+        <v>24415.13965241663</v>
       </c>
       <c r="F159">
-        <v>1479.501648249677</v>
+        <v>1150.667226956307</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>421.8</v>
+        <v>479.8</v>
       </c>
       <c r="B160">
-        <v>1500914.29265736</v>
+        <v>209935.537391649</v>
       </c>
       <c r="C160">
-        <v>19239.70646691336</v>
+        <v>12831.29367427164</v>
       </c>
       <c r="D160">
-        <v>288574.079556861</v>
+        <v>81149.84077436764</v>
       </c>
       <c r="E160">
-        <v>570364.1641571095</v>
+        <v>24317.31851354379</v>
       </c>
       <c r="F160">
-        <v>1518.147766421918</v>
+        <v>686.843106743857</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>423.7</v>
+        <v>482.1</v>
       </c>
       <c r="B161">
-        <v>2412845.766021935</v>
+        <v>207638.9751626337</v>
       </c>
       <c r="C161">
-        <v>22029.69474100169</v>
+        <v>11917.01712887434</v>
       </c>
       <c r="D161">
-        <v>363201.1330305469</v>
+        <v>81209.87037624646</v>
       </c>
       <c r="E161">
-        <v>1274277.083572569</v>
+        <v>22492.7782319949</v>
       </c>
       <c r="F161">
-        <v>3286.389160470863</v>
+        <v>564.6633447035653</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>426.4</v>
+        <v>484.7</v>
       </c>
       <c r="B162">
-        <v>4017290.491329488</v>
+        <v>199655.9048167903</v>
       </c>
       <c r="C162">
-        <v>22725.99386733774</v>
+        <v>13956.96538190347</v>
       </c>
       <c r="D162">
-        <v>411230.6300721007</v>
+        <v>79735.99079576168</v>
       </c>
       <c r="E162">
-        <v>1100072.284847169</v>
+        <v>21448.08052241791</v>
       </c>
       <c r="F162">
-        <v>2096.52166780358</v>
+        <v>1207.41665717976</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>428.6</v>
+        <v>486.9</v>
       </c>
       <c r="B163">
-        <v>3030626.93417268</v>
+        <v>195454.8452933843</v>
       </c>
       <c r="C163">
-        <v>20913.34871101896</v>
+        <v>9164.613903697365</v>
       </c>
       <c r="D163">
-        <v>393139.849883737</v>
+        <v>76647.32345842838</v>
       </c>
       <c r="E163">
-        <v>508153.5599598059</v>
+        <v>20020.25938354508</v>
       </c>
       <c r="F163">
-        <v>1919.222229333941</v>
+        <v>703.5925369673133</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>430.9</v>
+        <v>489.2</v>
       </c>
       <c r="B164">
-        <v>1826465.033508744</v>
+        <v>190558.2830643691</v>
       </c>
       <c r="C164">
-        <v>21156.49241123116</v>
+        <v>12870.33735830005</v>
       </c>
       <c r="D164">
-        <v>364883.125141357</v>
+        <v>74017.3530603072</v>
       </c>
       <c r="E164">
-        <v>226567.6203048356</v>
+        <v>17005.71910199619</v>
       </c>
       <c r="F164">
-        <v>1083.409180024767</v>
+        <v>1061.412774927021</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>433.1</v>
+        <v>491.5</v>
       </c>
       <c r="B165">
-        <v>1082901.476351936</v>
+        <v>181661.7208353537</v>
       </c>
       <c r="C165">
-        <v>18423.84725491237</v>
+        <v>9956.060812902746</v>
       </c>
       <c r="D165">
-        <v>345272.3449529933</v>
+        <v>70417.38266218604</v>
       </c>
       <c r="E165">
-        <v>135058.8954174726</v>
+        <v>16351.17882044731</v>
       </c>
       <c r="F165">
-        <v>856.1097415551274</v>
+        <v>989.2330128867335</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>435.7</v>
+        <v>493.8</v>
       </c>
       <c r="B166">
-        <v>844744.5451666164</v>
+        <v>174365.1586063384</v>
       </c>
       <c r="C166">
-        <v>19264.35752471747</v>
+        <v>9381.784267505434</v>
       </c>
       <c r="D166">
-        <v>311407.7865485637</v>
+        <v>69377.41226406484</v>
       </c>
       <c r="E166">
-        <v>100871.3114596801</v>
+        <v>16646.63853889843</v>
       </c>
       <c r="F166">
-        <v>1004.755859727368</v>
+        <v>767.0532508464454</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="B167">
-        <v>697582.6445026804</v>
+        <v>163464.0990829325</v>
       </c>
       <c r="C167">
-        <v>21617.50122492965</v>
+        <v>11169.43278929933</v>
       </c>
       <c r="D167">
-        <v>287821.0618061835</v>
+        <v>70548.74492673155</v>
       </c>
       <c r="E167">
-        <v>83675.37180470974</v>
+        <v>16298.81740002558</v>
       </c>
       <c r="F167">
-        <v>1418.942810418201</v>
+        <v>1233.229130633992</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>440.2</v>
+        <v>498.6</v>
       </c>
       <c r="B168">
-        <v>628619.0873458722</v>
+        <v>165881.028737089</v>
       </c>
       <c r="C168">
-        <v>20804.85606861087</v>
+        <v>13269.38104232846</v>
       </c>
       <c r="D168">
-        <v>260980.28161782</v>
+        <v>68214.86534624676</v>
       </c>
       <c r="E168">
-        <v>75466.64691734682</v>
+        <v>13204.11969044858</v>
       </c>
       <c r="F168">
-        <v>971.6433719485588</v>
+        <v>925.9824431101894</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>442.5</v>
+        <v>500.9</v>
       </c>
       <c r="B169">
-        <v>563957.1866819361</v>
+        <v>155784.4665080737</v>
       </c>
       <c r="C169">
-        <v>23647.99976882305</v>
+        <v>10815.10449693115</v>
       </c>
       <c r="D169">
-        <v>229383.5568754399</v>
+        <v>68344.89494812557</v>
       </c>
       <c r="E169">
-        <v>66550.70726237647</v>
+        <v>12969.5794088997</v>
       </c>
       <c r="F169">
-        <v>1075.830322639388</v>
+        <v>1083.802681069902</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>444.8</v>
+        <v>503.2</v>
       </c>
       <c r="B170">
-        <v>511395.2860180003</v>
+        <v>140687.9042790583</v>
       </c>
       <c r="C170">
-        <v>19771.14346903525</v>
+        <v>9060.827951533858</v>
       </c>
       <c r="D170">
-        <v>198406.8321330597</v>
+        <v>62894.92455000442</v>
       </c>
       <c r="E170">
-        <v>59634.76760740612</v>
+        <v>11675.03912735082</v>
       </c>
       <c r="F170">
-        <v>410.017273330217</v>
+        <v>991.62291902961</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>447.4</v>
+        <v>505.4</v>
       </c>
       <c r="B171">
-        <v>461138.3548326812</v>
+        <v>129786.8447556524</v>
       </c>
       <c r="C171">
-        <v>18921.65373884034</v>
+        <v>12538.47647332774</v>
       </c>
       <c r="D171">
-        <v>169652.27372863</v>
+        <v>62146.25721267112</v>
       </c>
       <c r="E171">
-        <v>53187.18364961356</v>
+        <v>11567.21798847798</v>
       </c>
       <c r="F171">
-        <v>1228.663391502462</v>
+        <v>1067.79879881716</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>449.6</v>
+        <v>508</v>
       </c>
       <c r="B172">
-        <v>402174.7976758729</v>
+        <v>136203.774409809</v>
       </c>
       <c r="C172">
-        <v>17899.00858252154</v>
+        <v>9638.424726356869</v>
       </c>
       <c r="D172">
-        <v>143911.4935402664</v>
+        <v>62122.37763218633</v>
       </c>
       <c r="E172">
-        <v>50138.45876225062</v>
+        <v>11902.52027890098</v>
       </c>
       <c r="F172">
-        <v>831.3639530328189</v>
+        <v>800.5521112933576</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>451.6</v>
+        <v>510.3</v>
       </c>
       <c r="B173">
-        <v>374807.9275333199</v>
+        <v>120307.2121807937</v>
       </c>
       <c r="C173">
-        <v>17144.78571314084</v>
+        <v>12904.14818095956</v>
       </c>
       <c r="D173">
-        <v>123082.6024599359</v>
+        <v>63082.40723406516</v>
       </c>
       <c r="E173">
-        <v>46394.1634101025</v>
+        <v>10777.9799973521</v>
       </c>
       <c r="F173">
-        <v>381.0917362422401</v>
+        <v>998.3723492530659</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>454.1</v>
+        <v>512.5</v>
       </c>
       <c r="B174">
-        <v>339249.3398551285</v>
+        <v>121106.1526573878</v>
       </c>
       <c r="C174">
-        <v>18949.50712641496</v>
+        <v>12231.79670275345</v>
       </c>
       <c r="D174">
-        <v>106883.9886095228</v>
+        <v>60873.73989673187</v>
       </c>
       <c r="E174">
-        <v>43063.79421991735</v>
+        <v>9240.158858479257</v>
       </c>
       <c r="F174">
-        <v>648.2514652540092</v>
+        <v>404.5482290406164</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>456.4</v>
+        <v>514.4</v>
       </c>
       <c r="B175">
-        <v>322287.4391911926</v>
+        <v>108291.6012508099</v>
       </c>
       <c r="C175">
-        <v>18482.65082662716</v>
+        <v>10105.22042612089</v>
       </c>
       <c r="D175">
-        <v>94227.26386714261</v>
+        <v>57838.98174176218</v>
       </c>
       <c r="E175">
-        <v>39857.854564947</v>
+        <v>9582.495147634529</v>
       </c>
       <c r="F175">
-        <v>1002.438415944839</v>
+        <v>965.7910343116806</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B176">
-        <v>296230.5080058737</v>
+        <v>105908.5309049665</v>
       </c>
       <c r="C176">
-        <v>17783.16109643225</v>
+        <v>10745.16867915002</v>
       </c>
       <c r="D176">
-        <v>86582.70546271291</v>
+        <v>58095.10216127739</v>
       </c>
       <c r="E176">
-        <v>37120.27060715445</v>
+        <v>8587.797438057536</v>
       </c>
       <c r="F176">
-        <v>531.0845341170793</v>
+        <v>828.5443467878746</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>461.3</v>
+        <v>519.3</v>
       </c>
       <c r="B177">
-        <v>264468.6073419377</v>
+        <v>94011.96867595123</v>
       </c>
       <c r="C177">
-        <v>17306.30479664443</v>
+        <v>11730.89213375273</v>
       </c>
       <c r="D177">
-        <v>79235.98072033279</v>
+        <v>56365.13176315623</v>
       </c>
       <c r="E177">
-        <v>33584.33095218411</v>
+        <v>7593.257156508655</v>
       </c>
       <c r="F177">
-        <v>635.2714848079122</v>
+        <v>1016.364584747583</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>463.6</v>
+        <v>521.9</v>
       </c>
       <c r="B178">
-        <v>259506.7066780017</v>
+        <v>84728.89833010781</v>
       </c>
       <c r="C178">
-        <v>16859.44849685661</v>
+        <v>6120.84038678186</v>
       </c>
       <c r="D178">
-        <v>76729.25597795266</v>
+        <v>54591.25218267141</v>
       </c>
       <c r="E178">
-        <v>32368.39129721377</v>
+        <v>7708.559446931657</v>
       </c>
       <c r="F178">
-        <v>759.4584354987414</v>
+        <v>699.1178972237805</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>465.9</v>
+        <v>524.1</v>
       </c>
       <c r="B179">
-        <v>241544.8060140657</v>
+        <v>87627.83880670178</v>
       </c>
       <c r="C179">
-        <v>16822.59219706881</v>
+        <v>6908.488908575735</v>
       </c>
       <c r="D179">
-        <v>71932.53123557255</v>
+        <v>51212.58484533812</v>
       </c>
       <c r="E179">
-        <v>32212.45164224342</v>
+        <v>6830.738308058812</v>
       </c>
       <c r="F179">
-        <v>813.6453861895707</v>
+        <v>805.2937770113305</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>468.1</v>
+        <v>526.4</v>
       </c>
       <c r="B180">
-        <v>233481.2488572574</v>
+        <v>86431.2765776865</v>
       </c>
       <c r="C180">
-        <v>15239.94704075003</v>
+        <v>11924.21236317844</v>
       </c>
       <c r="D180">
-        <v>70801.75104720893</v>
+        <v>48612.61444721695</v>
       </c>
       <c r="E180">
-        <v>29703.7267548805</v>
+        <v>6926.19802650993</v>
       </c>
       <c r="F180">
-        <v>246.3459477199317</v>
+        <v>1183.114014971039</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>470.4</v>
+        <v>528.6</v>
       </c>
       <c r="B181">
-        <v>222219.3481933214</v>
+        <v>69330.21705428058</v>
       </c>
       <c r="C181">
-        <v>15103.09074096222</v>
+        <v>12591.8608849723</v>
       </c>
       <c r="D181">
-        <v>69795.02630482882</v>
+        <v>44923.94710988367</v>
       </c>
       <c r="E181">
-        <v>29177.78709991015</v>
+        <v>7198.376887637085</v>
       </c>
       <c r="F181">
-        <v>670.5328984107609</v>
+        <v>949.2898947585928</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>472.7</v>
+        <v>530.9</v>
       </c>
       <c r="B182">
-        <v>223657.4475293854</v>
+        <v>72033.6548252653</v>
       </c>
       <c r="C182">
-        <v>16056.23444117442</v>
+        <v>10547.58433957501</v>
       </c>
       <c r="D182">
-        <v>66508.30156244872</v>
+        <v>51713.9767117625</v>
       </c>
       <c r="E182">
-        <v>28031.84744493982</v>
+        <v>6343.836606088211</v>
       </c>
       <c r="F182">
-        <v>814.7198491015902</v>
+        <v>837.1101327183011</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>475.3</v>
+        <v>533.2</v>
       </c>
       <c r="B183">
-        <v>211600.5163440665</v>
+        <v>68337.0925962499</v>
       </c>
       <c r="C183">
-        <v>13996.74471097948</v>
+        <v>13003.3077941777</v>
       </c>
       <c r="D183">
-        <v>62543.74315801898</v>
+        <v>51494.00631364132</v>
       </c>
       <c r="E183">
-        <v>25204.26348714725</v>
+        <v>5559.296324539328</v>
       </c>
       <c r="F183">
-        <v>853.3659672738311</v>
+        <v>1134.930370678017</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>477.6</v>
+        <v>535.8</v>
       </c>
       <c r="B184">
-        <v>198538.6156801305</v>
+        <v>70854.02225040659</v>
       </c>
       <c r="C184">
-        <v>14589.88841119169</v>
+        <v>9013.256047206851</v>
       </c>
       <c r="D184">
-        <v>59227.01841563887</v>
+        <v>53060.12673315652</v>
       </c>
       <c r="E184">
-        <v>24278.32383217691</v>
+        <v>7314.598614962337</v>
       </c>
       <c r="F184">
-        <v>907.5529179646637</v>
+        <v>1617.683683154208</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>479.8</v>
+        <v>538</v>
       </c>
       <c r="B185">
-        <v>201575.0585233223</v>
+        <v>71952.96272700057</v>
       </c>
       <c r="C185">
-        <v>14317.2432548729</v>
+        <v>12300.90456900073</v>
       </c>
       <c r="D185">
-        <v>57906.23822727526</v>
+        <v>49671.45939582321</v>
       </c>
       <c r="E185">
-        <v>24169.59894481398</v>
+        <v>4756.777476089485</v>
       </c>
       <c r="F185">
-        <v>440.2534794950213</v>
+        <v>1473.859562941758</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>482.1</v>
+        <v>540.3</v>
       </c>
       <c r="B186">
-        <v>199213.1578593862</v>
+        <v>70656.40049798526</v>
       </c>
       <c r="C186">
-        <v>13350.38695508509</v>
+        <v>10386.62802360342</v>
       </c>
       <c r="D186">
-        <v>57629.51348489515</v>
+        <v>48691.48899770206</v>
       </c>
       <c r="E186">
-        <v>22333.65928984364</v>
+        <v>5282.237194540603</v>
       </c>
       <c r="F186">
-        <v>314.440430185854</v>
+        <v>1371.679800901466</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>484.7</v>
+        <v>542.5</v>
       </c>
       <c r="B187">
-        <v>191156.2266740673</v>
+        <v>61855.34097457936</v>
       </c>
       <c r="C187">
-        <v>15330.89722489017</v>
+        <v>10054.2765453973</v>
       </c>
       <c r="D187">
-        <v>55774.95508046545</v>
+        <v>48312.82166036876</v>
       </c>
       <c r="E187">
-        <v>21276.07533205108</v>
+        <v>4694.416055667765</v>
       </c>
       <c r="F187">
-        <v>953.0865483580951</v>
+        <v>1277.855680689019</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>486.9</v>
+        <v>544.8</v>
       </c>
       <c r="B188">
-        <v>186892.6695172589</v>
+        <v>50258.77874556395</v>
       </c>
       <c r="C188">
-        <v>10488.25206857141</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>52364.17489210187</v>
+        <v>37112.8512622476</v>
       </c>
       <c r="E188">
-        <v>19837.35044468815</v>
+        <v>469.8757741188833</v>
       </c>
       <c r="F188">
-        <v>445.7871098884525</v>
+        <v>1095.675918648728</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>489.2</v>
+        <v>547.4</v>
       </c>
       <c r="B189">
-        <v>181930.768853323</v>
+        <v>57475.70839972053</v>
       </c>
       <c r="C189">
-        <v>14141.39576878359</v>
+        <v>11539.94825302914</v>
       </c>
       <c r="D189">
-        <v>49397.45014972173</v>
+        <v>41748.97168176279</v>
       </c>
       <c r="E189">
-        <v>16811.4107897178</v>
+        <v>4675.178064541885</v>
       </c>
       <c r="F189">
-        <v>799.9740605792817</v>
+        <v>1038.429231124922</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>491.5</v>
+        <v>549.3</v>
       </c>
       <c r="B190">
-        <v>172968.868189387</v>
+        <v>56161.15699314275</v>
       </c>
       <c r="C190">
-        <v>11174.53946899578</v>
+        <v>9683.371976396586</v>
       </c>
       <c r="D190">
-        <v>45460.72540734161</v>
+        <v>44694.21352679312</v>
       </c>
       <c r="E190">
-        <v>16145.47113474746</v>
+        <v>3577.514353697157</v>
       </c>
       <c r="F190">
-        <v>724.1610112701146</v>
+        <v>1189.67203639599</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>493.8</v>
+        <v>551.9</v>
       </c>
       <c r="B191">
-        <v>165606.9675254511</v>
+        <v>42578.08664729934</v>
       </c>
       <c r="C191">
-        <v>10547.68316920796</v>
+        <v>8833.320229425713</v>
       </c>
       <c r="D191">
-        <v>44084.00066496147</v>
+        <v>42230.33394630831</v>
       </c>
       <c r="E191">
-        <v>16429.53147977712</v>
+        <v>2872.816644120158</v>
       </c>
       <c r="F191">
-        <v>498.3479619609436</v>
+        <v>1602.425348872184</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>496</v>
+        <v>554.2</v>
       </c>
       <c r="B192">
-        <v>154643.4103686428</v>
+        <v>64281.52441828405</v>
       </c>
       <c r="C192">
-        <v>12285.0380128892</v>
+        <v>9399.043684028387</v>
       </c>
       <c r="D192">
-        <v>44933.22047659789</v>
+        <v>46590.36354818716</v>
       </c>
       <c r="E192">
-        <v>16070.80659241419</v>
+        <v>4098.276362571275</v>
       </c>
       <c r="F192">
-        <v>961.0485234913046</v>
+        <v>1310.245586831895</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>498.6</v>
+        <v>556.4</v>
       </c>
       <c r="B193">
-        <v>156986.4791833238</v>
+        <v>62280.46489487802</v>
       </c>
       <c r="C193">
-        <v>14325.54828269427</v>
+        <v>12536.69220582228</v>
       </c>
       <c r="D193">
-        <v>42218.66207216818</v>
+        <v>48121.69621085386</v>
       </c>
       <c r="E193">
-        <v>12963.22263462162</v>
+        <v>5440.455223698438</v>
       </c>
       <c r="F193">
-        <v>649.6946416635458</v>
+        <v>1466.421466619446</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>500.9</v>
+        <v>559</v>
       </c>
       <c r="B194">
-        <v>146824.5785193878</v>
+        <v>66197.39454903461</v>
       </c>
       <c r="C194">
-        <v>11818.69198290647</v>
+        <v>14116.64045885142</v>
       </c>
       <c r="D194">
-        <v>42011.93732978805</v>
+        <v>46627.81663036905</v>
       </c>
       <c r="E194">
-        <v>12717.28297965129</v>
+        <v>4345.75751412144</v>
       </c>
       <c r="F194">
-        <v>803.881592354375</v>
+        <v>989.1747790956398</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>503.2</v>
+        <v>560.9</v>
       </c>
       <c r="B195">
-        <v>131662.6778554519</v>
+        <v>65782.84314245683</v>
       </c>
       <c r="C195">
-        <v>10011.83568311865</v>
+        <v>15000.06418221887</v>
       </c>
       <c r="D195">
-        <v>36225.21258740795</v>
+        <v>47993.0584753994</v>
       </c>
       <c r="E195">
-        <v>11411.34332468094</v>
+        <v>4628.093803276713</v>
       </c>
       <c r="F195">
-        <v>708.0685430452043</v>
+        <v>1490.417584366705</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>505.4</v>
+        <v>563.5</v>
       </c>
       <c r="B196">
-        <v>120699.1206986435</v>
+        <v>61899.77279661341</v>
       </c>
       <c r="C196">
-        <v>13439.19052679989</v>
+        <v>12790.012435248</v>
       </c>
       <c r="D196">
-        <v>35154.43239904437</v>
+        <v>46709.1788949146</v>
       </c>
       <c r="E196">
-        <v>11292.61843731802</v>
+        <v>4043.396093699713</v>
       </c>
       <c r="F196">
-        <v>780.7691045755653</v>
+        <v>1253.170896842902</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>508</v>
+        <v>565.8</v>
       </c>
       <c r="B197">
-        <v>127042.1895133246</v>
+        <v>54903.21056759813</v>
       </c>
       <c r="C197">
-        <v>10479.70079660496</v>
+        <v>12755.73588985071</v>
       </c>
       <c r="D197">
-        <v>34749.87399461465</v>
+        <v>44479.20849679341</v>
       </c>
       <c r="E197">
-        <v>11615.03447952545</v>
+        <v>2948.855812150831</v>
       </c>
       <c r="F197">
-        <v>509.415222747806</v>
+        <v>1310.991134802611</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>510.3</v>
+        <v>568</v>
       </c>
       <c r="B198">
-        <v>111080.2888493886</v>
+        <v>49802.1510441921</v>
       </c>
       <c r="C198">
-        <v>13692.84449681715</v>
+        <v>10123.38441164457</v>
       </c>
       <c r="D198">
-        <v>35373.14925223452</v>
+        <v>44190.54115946012</v>
       </c>
       <c r="E198">
-        <v>10479.09482455511</v>
+        <v>2901.034673277993</v>
       </c>
       <c r="F198">
-        <v>703.6021734386352</v>
+        <v>1317.167014590161</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>512.5</v>
+        <v>570.3</v>
       </c>
       <c r="B199">
-        <v>111816.7316925803</v>
+        <v>50805.58881517682</v>
       </c>
       <c r="C199">
-        <v>12970.19934049838</v>
+        <v>10289.10786624728</v>
       </c>
       <c r="D199">
-        <v>32842.36906387094</v>
+        <v>43600.57076133895</v>
       </c>
       <c r="E199">
-        <v>8930.369937192178</v>
+        <v>4486.494391729112</v>
       </c>
       <c r="F199">
-        <v>106.3027349689926</v>
+        <v>1594.987252549873</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>514.4</v>
+        <v>572.9</v>
       </c>
       <c r="B200">
-        <v>98948.20505715485</v>
+        <v>46122.5184693334</v>
       </c>
       <c r="C200">
-        <v>10800.18761458671</v>
+        <v>11109.05611927641</v>
       </c>
       <c r="D200">
-        <v>29529.42253755691</v>
+        <v>44276.69118085415</v>
       </c>
       <c r="E200">
-        <v>9263.289352651465</v>
+        <v>2821.796682152113</v>
       </c>
       <c r="F200">
-        <v>664.5441290179422</v>
+        <v>1577.740565026067</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>517</v>
+        <v>575.1</v>
       </c>
       <c r="B201">
-        <v>96491.2738718359</v>
+        <v>52921.45894592749</v>
       </c>
       <c r="C201">
-        <v>11380.69788439178</v>
+        <v>11706.70464107028</v>
       </c>
       <c r="D201">
-        <v>29404.8641331272</v>
+        <v>44938.02384352086</v>
       </c>
       <c r="E201">
-        <v>8255.705394858902</v>
+        <v>3563.975543279268</v>
       </c>
       <c r="F201">
-        <v>523.1902471901828</v>
+        <v>1413.916444813616</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>519.3</v>
+        <v>577.4</v>
       </c>
       <c r="B202">
-        <v>84529.37320789999</v>
+        <v>49224.89671691209</v>
       </c>
       <c r="C202">
-        <v>12313.84158460398</v>
+        <v>9592.428095672993</v>
       </c>
       <c r="D202">
-        <v>27338.1393907471</v>
+        <v>44408.0534453997</v>
       </c>
       <c r="E202">
-        <v>7249.765739888562</v>
+        <v>3859.435261730386</v>
       </c>
       <c r="F202">
-        <v>707.3771978810162</v>
+        <v>1431.736682773329</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>521.9</v>
+        <v>579.6</v>
       </c>
       <c r="B203">
-        <v>75172.44202258105</v>
+        <v>45623.83719350617</v>
       </c>
       <c r="C203">
-        <v>6644.351854409066</v>
+        <v>9550.076617466868</v>
       </c>
       <c r="D203">
-        <v>25183.5809863174</v>
+        <v>46659.38610806641</v>
       </c>
       <c r="E203">
-        <v>7352.181782096006</v>
+        <v>3401.614122857541</v>
       </c>
       <c r="F203">
-        <v>386.0233160532568</v>
+        <v>1607.912562560875</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>524.1</v>
+        <v>581.9</v>
       </c>
       <c r="B204">
-        <v>78008.88486577272</v>
+        <v>45527.27496449088</v>
       </c>
       <c r="C204">
-        <v>7381.706698090285</v>
+        <v>9755.800072069556</v>
       </c>
       <c r="D204">
-        <v>21482.80079795378</v>
+        <v>46699.41570994521</v>
       </c>
       <c r="E204">
-        <v>6463.456894733063</v>
+        <v>2837.073841308667</v>
       </c>
       <c r="F204">
-        <v>488.7238775836179</v>
+        <v>1645.732800520587</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>526.4</v>
+        <v>584.1</v>
       </c>
       <c r="B205">
-        <v>76746.98420183668</v>
+        <v>40526.21544108486</v>
       </c>
       <c r="C205">
-        <v>12344.85039830249</v>
+        <v>8263.448593863432</v>
       </c>
       <c r="D205">
-        <v>18546.07605557367</v>
+        <v>47370.74837261192</v>
       </c>
       <c r="E205">
-        <v>6547.51723976273</v>
+        <v>3419.252702435815</v>
       </c>
       <c r="F205">
-        <v>862.9108282744435</v>
+        <v>1801.908680308137</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>528.6</v>
+        <v>586.7</v>
       </c>
       <c r="B206">
-        <v>59583.42704502838</v>
+        <v>43143.14509524156</v>
       </c>
       <c r="C206">
-        <v>12962.20524198369</v>
+        <v>7963.396846892567</v>
       </c>
       <c r="D206">
-        <v>14535.29586721005</v>
+        <v>46936.8687921271</v>
       </c>
       <c r="E206">
-        <v>6808.792352399787</v>
+        <v>2954.554992858816</v>
       </c>
       <c r="F206">
-        <v>625.6113898048081</v>
+        <v>1634.661992784331</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>530.9</v>
+        <v>588.9</v>
       </c>
       <c r="B207">
-        <v>62221.52638109245</v>
+        <v>43042.08557183553</v>
       </c>
       <c r="C207">
-        <v>10865.34894219589</v>
+        <v>6901.045368686464</v>
       </c>
       <c r="D207">
-        <v>20988.57112482994</v>
+        <v>48158.20145479382</v>
       </c>
       <c r="E207">
-        <v>5942.852697429455</v>
+        <v>2256.73385398598</v>
       </c>
       <c r="F207">
-        <v>509.7983404956337</v>
+        <v>1730.837872571878</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>533.2</v>
+        <v>591.2</v>
       </c>
       <c r="B208">
-        <v>58459.62571715642</v>
+        <v>46445.52334282025</v>
       </c>
       <c r="C208">
-        <v>13268.49264240807</v>
+        <v>7906.768823289145</v>
       </c>
       <c r="D208">
-        <v>20431.84638244981</v>
+        <v>48228.23105667265</v>
       </c>
       <c r="E208">
-        <v>5146.913042459106</v>
+        <v>2662.193572437096</v>
       </c>
       <c r="F208">
-        <v>803.9852911864662</v>
+        <v>1808.658110531593</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>535.8</v>
+        <v>593.4</v>
       </c>
       <c r="B209">
-        <v>60902.69453183746</v>
+        <v>52144.46381941432</v>
       </c>
       <c r="C209">
-        <v>9219.002912213175</v>
+        <v>7584.417345083042</v>
       </c>
       <c r="D209">
-        <v>21617.28797802014</v>
+        <v>49869.56371933936</v>
       </c>
       <c r="E209">
-        <v>6889.329084666551</v>
+        <v>3184.372433564253</v>
       </c>
       <c r="F209">
-        <v>1282.631409358708</v>
+        <v>1354.83399031914</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="B210">
-        <v>61939.13737502915</v>
+        <v>56061.39347357092</v>
       </c>
       <c r="C210">
-        <v>12456.35775589438</v>
+        <v>7804.365598112177</v>
       </c>
       <c r="D210">
-        <v>17906.50778965652</v>
+        <v>49005.68413885457</v>
       </c>
       <c r="E210">
-        <v>4320.604197303615</v>
+        <v>3329.674723987254</v>
       </c>
       <c r="F210">
-        <v>1135.331970889068</v>
+        <v>1487.587302795334</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>540.3</v>
+        <v>598.2</v>
       </c>
       <c r="B211">
-        <v>60577.23671109324</v>
+        <v>40960.33395016489</v>
       </c>
       <c r="C211">
-        <v>10489.50145610658</v>
+        <v>3242.014119906053</v>
       </c>
       <c r="D211">
-        <v>16589.78304727641</v>
+        <v>52507.01680152125</v>
       </c>
       <c r="E211">
-        <v>4834.664542333276</v>
+        <v>3641.85358511441</v>
       </c>
       <c r="F211">
-        <v>1029.518921579894</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>542.5</v>
-      </c>
-      <c r="B212">
-        <v>51713.67955428491</v>
-      </c>
-      <c r="C212">
-        <v>10106.8562997878</v>
-      </c>
-      <c r="D212">
-        <v>15889.00285891279</v>
-      </c>
-      <c r="E212">
-        <v>4235.93965497034</v>
-      </c>
-      <c r="F212">
-        <v>932.2194831102549</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>544.8</v>
-      </c>
-      <c r="B213">
-        <v>40051.77889034887</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <v>4352.278116532691</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <v>746.4064338010846</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>547.4</v>
-      </c>
-      <c r="B214">
-        <v>47194.84770502994</v>
-      </c>
-      <c r="C214">
-        <v>11480.51026980507</v>
-      </c>
-      <c r="D214">
-        <v>8607.719712102986</v>
-      </c>
-      <c r="E214">
-        <v>4192.416042207444</v>
-      </c>
-      <c r="F214">
-        <v>685.0525519733289</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>549.3</v>
-      </c>
-      <c r="B215">
-        <v>45826.32106960464</v>
-      </c>
-      <c r="C215">
-        <v>9580.498543893405</v>
-      </c>
-      <c r="D215">
-        <v>11274.77318578896</v>
-      </c>
-      <c r="E215">
-        <v>3085.335457666732</v>
-      </c>
-      <c r="F215">
-        <v>833.2939460222749</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>551.9</v>
-      </c>
-      <c r="B216">
-        <v>32169.3898842857</v>
-      </c>
-      <c r="C216">
-        <v>8671.008813698489</v>
-      </c>
-      <c r="D216">
-        <v>8430.214781359264</v>
-      </c>
-      <c r="E216">
-        <v>2367.751499874168</v>
-      </c>
-      <c r="F216">
-        <v>1241.940064194519</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>554.2</v>
-      </c>
-      <c r="B217">
-        <v>53807.48922034967</v>
-      </c>
-      <c r="C217">
-        <v>9184.152513910652</v>
-      </c>
-      <c r="D217">
-        <v>12453.49003897912</v>
-      </c>
-      <c r="E217">
-        <v>3581.811844903819</v>
-      </c>
-      <c r="F217">
-        <v>946.127014885348</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>556.4</v>
-      </c>
-      <c r="B218">
-        <v>51743.93206354135</v>
-      </c>
-      <c r="C218">
-        <v>12271.50735759189</v>
-      </c>
-      <c r="D218">
-        <v>13662.70985061553</v>
-      </c>
-      <c r="E218">
-        <v>4913.086957540892</v>
-      </c>
-      <c r="F218">
-        <v>1098.827576415706</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>559</v>
-      </c>
-      <c r="B219">
-        <v>55587.0008782224</v>
-      </c>
-      <c r="C219">
-        <v>13792.01762739698</v>
-      </c>
-      <c r="D219">
-        <v>11788.15144618584</v>
-      </c>
-      <c r="E219">
-        <v>3805.502999748329</v>
-      </c>
-      <c r="F219">
-        <v>617.4736945879465</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>560.9</v>
-      </c>
-      <c r="B220">
-        <v>55118.47424279699</v>
-      </c>
-      <c r="C220">
-        <v>14632.00590148531</v>
-      </c>
-      <c r="D220">
-        <v>12875.20491987184</v>
-      </c>
-      <c r="E220">
-        <v>4078.422415207617</v>
-      </c>
-      <c r="F220">
-        <v>1115.715088636892</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>563.5</v>
-      </c>
-      <c r="B221">
-        <v>51161.54305747805</v>
-      </c>
-      <c r="C221">
-        <v>12362.5161712904</v>
-      </c>
-      <c r="D221">
-        <v>11210.64651544211</v>
-      </c>
-      <c r="E221">
-        <v>3480.838457415053</v>
-      </c>
-      <c r="F221">
-        <v>874.3612068091368</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>565.8</v>
-      </c>
-      <c r="B222">
-        <v>44099.64239354213</v>
-      </c>
-      <c r="C222">
-        <v>12275.6598715026</v>
-      </c>
-      <c r="D222">
-        <v>8643.921773062004</v>
-      </c>
-      <c r="E222">
-        <v>2374.898802444721</v>
-      </c>
-      <c r="F222">
-        <v>928.5481574999665</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>568</v>
-      </c>
-      <c r="B223">
-        <v>38936.08523673382</v>
-      </c>
-      <c r="C223">
-        <v>9593.014715183803</v>
-      </c>
-      <c r="D223">
-        <v>8033.141584698383</v>
-      </c>
-      <c r="E223">
-        <v>2316.173915081778</v>
-      </c>
-      <c r="F223">
-        <v>931.248719030327</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>570.3</v>
-      </c>
-      <c r="B224">
-        <v>39874.18457279778</v>
-      </c>
-      <c r="C224">
-        <v>9706.158415396003</v>
-      </c>
-      <c r="D224">
-        <v>7106.416842318274</v>
-      </c>
-      <c r="E224">
-        <v>3890.234260111445</v>
-      </c>
-      <c r="F224">
-        <v>1205.435669721157</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>572.9</v>
-      </c>
-      <c r="B225">
-        <v>35117.25338747884</v>
-      </c>
-      <c r="C225">
-        <v>10466.66868520109</v>
-      </c>
-      <c r="D225">
-        <v>7401.858437888574</v>
-      </c>
-      <c r="E225">
-        <v>2212.650302318882</v>
-      </c>
-      <c r="F225">
-        <v>1184.081787893397</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>575.1</v>
-      </c>
-      <c r="B226">
-        <v>41853.69623067051</v>
-      </c>
-      <c r="C226">
-        <v>11014.02352888229</v>
-      </c>
-      <c r="D226">
-        <v>7741.078249524983</v>
-      </c>
-      <c r="E226">
-        <v>2943.925414955946</v>
-      </c>
-      <c r="F226">
-        <v>1016.782349423758</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>577.4</v>
-      </c>
-      <c r="B227">
-        <v>38091.7955667346</v>
-      </c>
-      <c r="C227">
-        <v>8847.167229094492</v>
-      </c>
-      <c r="D227">
-        <v>6874.353507144845</v>
-      </c>
-      <c r="E227">
-        <v>3227.985759985606</v>
-      </c>
-      <c r="F227">
-        <v>1030.969300114588</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>579.6</v>
-      </c>
-      <c r="B228">
-        <v>34428.23840992629</v>
-      </c>
-      <c r="C228">
-        <v>8754.522072775711</v>
-      </c>
-      <c r="D228">
-        <v>8803.573318781255</v>
-      </c>
-      <c r="E228">
-        <v>2759.26087262267</v>
-      </c>
-      <c r="F228">
-        <v>1203.669861644945</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>581.9</v>
-      </c>
-      <c r="B229">
-        <v>34266.33774599025</v>
-      </c>
-      <c r="C229">
-        <v>8907.665772987912</v>
-      </c>
-      <c r="D229">
-        <v>8506.848576401124</v>
-      </c>
-      <c r="E229">
-        <v>2183.32121765233</v>
-      </c>
-      <c r="F229">
-        <v>1237.856812335778</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>584.1</v>
-      </c>
-      <c r="B230">
-        <v>29202.78058918193</v>
-      </c>
-      <c r="C230">
-        <v>7365.020616669117</v>
-      </c>
-      <c r="D230">
-        <v>8856.068388037533</v>
-      </c>
-      <c r="E230">
-        <v>2754.596330289394</v>
-      </c>
-      <c r="F230">
-        <v>1390.557373866135</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>586.7</v>
-      </c>
-      <c r="B231">
-        <v>31745.84940386299</v>
-      </c>
-      <c r="C231">
-        <v>7005.5308864742</v>
-      </c>
-      <c r="D231">
-        <v>8041.509983607825</v>
-      </c>
-      <c r="E231">
-        <v>2277.012372496831</v>
-      </c>
-      <c r="F231">
-        <v>1219.20349203838</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>588.9</v>
-      </c>
-      <c r="B232">
-        <v>31582.29224705466</v>
-      </c>
-      <c r="C232">
-        <v>5892.885730155438</v>
-      </c>
-      <c r="D232">
-        <v>8940.72979524425</v>
-      </c>
-      <c r="E232">
-        <v>1568.287485133904</v>
-      </c>
-      <c r="F232">
-        <v>1311.904053568737</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>591.2</v>
-      </c>
-      <c r="B233">
-        <v>34920.39158311875</v>
-      </c>
-      <c r="C233">
-        <v>6846.029430367606</v>
-      </c>
-      <c r="D233">
-        <v>8674.005052864104</v>
-      </c>
-      <c r="E233">
-        <v>1962.347830163555</v>
-      </c>
-      <c r="F233">
-        <v>1386.09100425957</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>593.4</v>
-      </c>
-      <c r="B234">
-        <v>40556.83442631042</v>
-      </c>
-      <c r="C234">
-        <v>6473.384274048858</v>
-      </c>
-      <c r="D234">
-        <v>9993.22486450052</v>
-      </c>
-      <c r="E234">
-        <v>2473.622942800628</v>
-      </c>
-      <c r="F234">
-        <v>928.7915657899277</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>596</v>
-      </c>
-      <c r="B235">
-        <v>44399.90324099148</v>
-      </c>
-      <c r="C235">
-        <v>6633.894543853927</v>
-      </c>
-      <c r="D235">
-        <v>8748.666460070821</v>
-      </c>
-      <c r="E235">
-        <v>2606.038985008065</v>
-      </c>
-      <c r="F235">
-        <v>1057.437683962168</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>598.2</v>
-      </c>
-      <c r="B236">
-        <v>29236.34608418305</v>
-      </c>
-      <c r="C236">
-        <v>2021.249387535147</v>
-      </c>
-      <c r="D236">
-        <v>11927.88627170723</v>
-      </c>
-      <c r="E236">
-        <v>2907.314097645129</v>
-      </c>
-      <c r="F236">
-        <v>1150.138245492529</v>
+        <v>1583.763182582887</v>
       </c>
     </row>
   </sheetData>
